--- a/escenarios_montecarlo/escenario_004.xlsx
+++ b/escenarios_montecarlo/escenario_004.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18.21202268121271</v>
+        <v>19.67743749334205</v>
       </c>
       <c r="D2" t="n">
-        <v>60.94965680056509</v>
+        <v>24.89520719059885</v>
       </c>
       <c r="E2" t="n">
-        <v>20.61466084074468</v>
+        <v>59.56100606086449</v>
       </c>
       <c r="F2" t="n">
-        <v>21.79697792988156</v>
+        <v>16.77491823726769</v>
       </c>
       <c r="G2" t="n">
-        <v>28.62806443888741</v>
+        <v>93.96018460378848</v>
       </c>
       <c r="H2" t="n">
-        <v>20.81201657515179</v>
+        <v>25.55527791126812</v>
       </c>
       <c r="I2" t="n">
-        <v>43.69192187863032</v>
+        <v>24.55906614745106</v>
       </c>
       <c r="J2" t="n">
-        <v>168.9622448237927</v>
+        <v>38.21930654260806</v>
       </c>
       <c r="K2" t="n">
-        <v>103.890960518348</v>
+        <v>36.1215306579882</v>
       </c>
       <c r="L2" t="n">
-        <v>18.89617985491179</v>
+        <v>45.64462275308068</v>
       </c>
       <c r="M2" t="n">
-        <v>45.82837864415423</v>
+        <v>185.6062433205706</v>
       </c>
       <c r="N2" t="n">
-        <v>84.43292789143948</v>
+        <v>43.92220063784154</v>
       </c>
       <c r="O2" t="n">
-        <v>83.12011916260433</v>
+        <v>139.2468649852607</v>
       </c>
       <c r="P2" t="n">
-        <v>27.70069500920043</v>
+        <v>87.92676518252988</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.23331901562025</v>
+        <v>52.19728124103897</v>
       </c>
       <c r="R2" t="n">
-        <v>43.9822574841107</v>
+        <v>60.45362858872597</v>
       </c>
       <c r="S2" t="n">
-        <v>133.5583503683719</v>
+        <v>25.47614738506614</v>
       </c>
       <c r="T2" t="n">
-        <v>46.39478906062549</v>
+        <v>46.03539619393783</v>
       </c>
       <c r="U2" t="n">
-        <v>61.97508578701382</v>
+        <v>31.47122631247088</v>
       </c>
       <c r="V2" t="n">
-        <v>43.9350451724243</v>
+        <v>25.07333565543689</v>
       </c>
       <c r="W2" t="n">
-        <v>37.9204633272664</v>
+        <v>90.34247320743472</v>
       </c>
       <c r="X2" t="n">
-        <v>59.90408552385453</v>
+        <v>53.13196096097193</v>
       </c>
       <c r="Y2" t="n">
-        <v>42.09424734195859</v>
+        <v>54.4428232737605</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.30436374591852</v>
+        <v>135.7733987091454</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.88295938273338</v>
+        <v>67.11049645547673</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.11684334971009</v>
+        <v>117.2574771368382</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.77136343528912</v>
+        <v>68.58528757131678</v>
       </c>
       <c r="AD2" t="n">
-        <v>90.59232748577209</v>
+        <v>58.84610549283893</v>
       </c>
       <c r="AE2" t="n">
-        <v>178.6016883361015</v>
+        <v>195.5592042333396</v>
       </c>
       <c r="AF2" t="n">
-        <v>32.24196840067085</v>
+        <v>60.80337403127774</v>
       </c>
       <c r="AG2" t="n">
-        <v>84.1985880943113</v>
+        <v>133.9546109044554</v>
       </c>
       <c r="AH2" t="n">
-        <v>59.97230603148638</v>
+        <v>66.88618369715111</v>
       </c>
       <c r="AI2" t="n">
-        <v>104.2609740542575</v>
+        <v>68.24492934031129</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42.31550797713095</v>
+        <v>44.28964151253334</v>
       </c>
       <c r="AK2" t="n">
-        <v>85.77410414976518</v>
+        <v>79.07941810400253</v>
       </c>
       <c r="AL2" t="n">
-        <v>54.57564145760074</v>
+        <v>49.99500444873242</v>
       </c>
       <c r="AM2" t="n">
-        <v>46.671746477082</v>
+        <v>35.82625904162211</v>
       </c>
       <c r="AN2" t="n">
-        <v>57.5371188821985</v>
+        <v>60.93950153535454</v>
       </c>
       <c r="AO2" t="n">
-        <v>23.5259785260103</v>
+        <v>35.95619635619656</v>
       </c>
       <c r="AP2" t="n">
-        <v>26.51376069639521</v>
+        <v>21.20059821393246</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8.459587141762034</v>
+        <v>14.26478620773833</v>
       </c>
       <c r="AR2" t="n">
-        <v>18.01704232932832</v>
+        <v>18.49015562742499</v>
       </c>
       <c r="AS2" t="n">
-        <v>20.93264986859547</v>
+        <v>16.77096711273875</v>
       </c>
       <c r="AT2" t="n">
-        <v>22.04720042393198</v>
+        <v>27.01730386336948</v>
       </c>
       <c r="AU2" t="n">
-        <v>20.75056468245727</v>
+        <v>16.55615310766027</v>
       </c>
       <c r="AV2" t="n">
-        <v>21.75666890949648</v>
+        <v>16.23420330001595</v>
       </c>
       <c r="AW2" t="n">
-        <v>22.9192536563019</v>
+        <v>12.88770806922004</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.21064772502355</v>
+        <v>15.47521885202666</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.087509848384355</v>
+        <v>3.826309474596212</v>
       </c>
       <c r="D3" t="n">
-        <v>2.263179680150517</v>
+        <v>1.067900453209351</v>
       </c>
       <c r="E3" t="n">
-        <v>3.609565363081389</v>
+        <v>3.330955019046363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.278223221697359</v>
+        <v>0.4777103045691721</v>
       </c>
       <c r="G3" t="n">
-        <v>5.200481296355225</v>
+        <v>3.823838134797636</v>
       </c>
       <c r="H3" t="n">
-        <v>3.293404644982565</v>
+        <v>0.6551166647987512</v>
       </c>
       <c r="I3" t="n">
-        <v>2.475921101600298</v>
+        <v>0.5199350530475034</v>
       </c>
       <c r="J3" t="n">
-        <v>4.166874379203136</v>
+        <v>1.136242071859904</v>
       </c>
       <c r="K3" t="n">
-        <v>5.211645721593653</v>
+        <v>0.3185925914649564</v>
       </c>
       <c r="L3" t="n">
-        <v>5.558283994022898</v>
+        <v>1.369659863594842</v>
       </c>
       <c r="M3" t="n">
-        <v>11.48073984832761</v>
+        <v>2.372482619305436</v>
       </c>
       <c r="N3" t="n">
-        <v>7.723104665996356</v>
+        <v>5.823887836536144</v>
       </c>
       <c r="O3" t="n">
-        <v>3.353046448668242</v>
+        <v>7.148414903592483</v>
       </c>
       <c r="P3" t="n">
-        <v>5.067972120809825</v>
+        <v>2.133947868098123</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.126096946543753</v>
+        <v>3.579097513201336</v>
       </c>
       <c r="R3" t="n">
-        <v>6.995456898960087</v>
+        <v>3.3187635180666</v>
       </c>
       <c r="S3" t="n">
-        <v>9.032356003712326</v>
+        <v>11.37575255794685</v>
       </c>
       <c r="T3" t="n">
-        <v>7.0475076</v>
+        <v>3.934990799540282</v>
       </c>
       <c r="U3" t="n">
-        <v>4.684364243311745</v>
+        <v>3.056351698917564</v>
       </c>
       <c r="V3" t="n">
-        <v>2.782504706563534</v>
+        <v>7.406999057700981</v>
       </c>
       <c r="W3" t="n">
-        <v>5.301361071891304</v>
+        <v>5.802271689856425</v>
       </c>
       <c r="X3" t="n">
-        <v>3.72251601025827</v>
+        <v>15.84218094275417</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.564051514841608</v>
+        <v>1.411663339489828</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.923387308862757</v>
+        <v>4.143681770566214</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.538615661262387</v>
+        <v>4.33843506523863</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.745321732447751</v>
+        <v>5.576967319471446</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.732238555535638</v>
+        <v>2.567313625798383</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.127877507976525</v>
+        <v>3.774032432828554</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.513025458433336</v>
+        <v>4.595433939379835</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.728035255341144</v>
+        <v>4.16320043924229</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.606073377540284</v>
+        <v>11.23004615710046</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.262514055818961</v>
+        <v>3.812437605141432</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.575243355195028</v>
+        <v>12.04464791192224</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.228108875380415</v>
+        <v>4.091164897053516</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.106453019068131</v>
+        <v>6.49114539112407</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.50725365355428</v>
+        <v>2.973616374838625</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.826524217144684</v>
+        <v>5.524025189536924</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.244192237713331</v>
+        <v>2.951212458224422</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.827445367767703</v>
+        <v>7.038283970946111</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.274701451281714</v>
+        <v>3.959459129517267</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.913141935592254</v>
+        <v>2.933837469125551</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.952211850408464</v>
+        <v>3.798205905528028</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.365187402811427</v>
+        <v>3.946099768790472</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.579042444821731</v>
+        <v>2.364499413961768</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.345439799952691</v>
+        <v>14.04832866533808</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.029491902583755</v>
+        <v>43.19835535863636</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.667636548270141</v>
+        <v>6.481325540675886</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.739539756023384</v>
+        <v>7.804142738409706</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6539830667921</v>
+        <v>6.40167420150976</v>
       </c>
       <c r="D4" t="n">
-        <v>9.933589210881696</v>
+        <v>15.15904005600509</v>
       </c>
       <c r="E4" t="n">
-        <v>8.405722670579603</v>
+        <v>11.46552544345867</v>
       </c>
       <c r="F4" t="n">
-        <v>23.38635709158294</v>
+        <v>28.01080163959842</v>
       </c>
       <c r="G4" t="n">
-        <v>8.51155897931352</v>
+        <v>17.81030814998641</v>
       </c>
       <c r="H4" t="n">
-        <v>24.73856773185828</v>
+        <v>3.325952688005343</v>
       </c>
       <c r="I4" t="n">
-        <v>2.857091108152493</v>
+        <v>30.27313207377579</v>
       </c>
       <c r="J4" t="n">
-        <v>203.3811909625227</v>
+        <v>24.5825104919539</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1453405033034</v>
+        <v>26.9128733070668</v>
       </c>
       <c r="L4" t="n">
-        <v>36.12245551202522</v>
+        <v>17.53276808660632</v>
       </c>
       <c r="M4" t="n">
-        <v>131.997659969509</v>
+        <v>27.14768457023617</v>
       </c>
       <c r="N4" t="n">
-        <v>80.23903020110716</v>
+        <v>51.38734599764222</v>
       </c>
       <c r="O4" t="n">
-        <v>92.44060902002738</v>
+        <v>125.9188917271695</v>
       </c>
       <c r="P4" t="n">
-        <v>35.22549159800819</v>
+        <v>34.39371878689254</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.89812220854156</v>
+        <v>72.46103949480188</v>
       </c>
       <c r="R4" t="n">
-        <v>86.65628631456975</v>
+        <v>86.99927495573419</v>
       </c>
       <c r="S4" t="n">
-        <v>39.99742341713781</v>
+        <v>113.2769148792159</v>
       </c>
       <c r="T4" t="n">
-        <v>32.01697556895935</v>
+        <v>45.07814028048685</v>
       </c>
       <c r="U4" t="n">
-        <v>80.02838233566956</v>
+        <v>37.86661241351224</v>
       </c>
       <c r="V4" t="n">
-        <v>123.1400744001784</v>
+        <v>103.9620952204981</v>
       </c>
       <c r="W4" t="n">
-        <v>94.28659133985862</v>
+        <v>90.38430429575665</v>
       </c>
       <c r="X4" t="n">
-        <v>47.68244398567112</v>
+        <v>116.1012668769324</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.92653320825787</v>
+        <v>73.66854469011311</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.66692477144051</v>
+        <v>38.99046051635398</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.4244044055875</v>
+        <v>102.529952400217</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.4518032606301</v>
+        <v>59.71825893937158</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.01134719678706</v>
+        <v>56.60322253553137</v>
       </c>
       <c r="AD4" t="n">
-        <v>98.41806187335034</v>
+        <v>81.00724097181487</v>
       </c>
       <c r="AE4" t="n">
-        <v>127.7792726339478</v>
+        <v>55.35618515533474</v>
       </c>
       <c r="AF4" t="n">
-        <v>73.81087295353309</v>
+        <v>52.01736918389065</v>
       </c>
       <c r="AG4" t="n">
-        <v>43.3770969248329</v>
+        <v>51.55950874891017</v>
       </c>
       <c r="AH4" t="n">
-        <v>161.1822471526201</v>
+        <v>81.56237503290805</v>
       </c>
       <c r="AI4" t="n">
-        <v>114.1581810955637</v>
+        <v>145.9138614804032</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48.7540687621473</v>
+        <v>61.07530909285671</v>
       </c>
       <c r="AK4" t="n">
-        <v>24.44871999334942</v>
+        <v>35.95906453268125</v>
       </c>
       <c r="AL4" t="n">
-        <v>54.41235347694022</v>
+        <v>21.81504475428767</v>
       </c>
       <c r="AM4" t="n">
-        <v>16.04701016808183</v>
+        <v>46.26555063663945</v>
       </c>
       <c r="AN4" t="n">
-        <v>27.37115989323776</v>
+        <v>25.4332253738855</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.78874593086343</v>
+        <v>21.05340228622327</v>
       </c>
       <c r="AP4" t="n">
-        <v>14.83102239692329</v>
+        <v>11.35656846200899</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19.03497464573783</v>
+        <v>12.89526142963555</v>
       </c>
       <c r="AR4" t="n">
-        <v>37.58247136998498</v>
+        <v>16.30479023579158</v>
       </c>
       <c r="AS4" t="n">
-        <v>10.60621489158603</v>
+        <v>9.271206254722451</v>
       </c>
       <c r="AT4" t="n">
-        <v>10.82885958145083</v>
+        <v>11.65727181997176</v>
       </c>
       <c r="AU4" t="n">
-        <v>13.35674224255161</v>
+        <v>18.79649503534878</v>
       </c>
       <c r="AV4" t="n">
-        <v>18.886331125</v>
+        <v>11.53422818871307</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.452943327239488</v>
+        <v>18.95628255656671</v>
       </c>
       <c r="AX4" t="n">
-        <v>14.55754028311571</v>
+        <v>12.49251818825016</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3.229868265170157</v>
+        <v>9.466447111329325</v>
       </c>
       <c r="D5" t="n">
-        <v>19.2843834284926</v>
+        <v>26.75997982166924</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>32.71620138985254</v>
       </c>
       <c r="F5" t="n">
-        <v>17.07914850541095</v>
+        <v>11.24861582966255</v>
       </c>
       <c r="G5" t="n">
-        <v>1.28601836959988</v>
+        <v>15.13209101273151</v>
       </c>
       <c r="H5" t="n">
-        <v>15.5362693330775</v>
+        <v>22.35851223001592</v>
       </c>
       <c r="I5" t="n">
-        <v>13.72964365673557</v>
+        <v>34.37268589002136</v>
       </c>
       <c r="J5" t="n">
-        <v>17.87230185157242</v>
+        <v>7.926497970346997</v>
       </c>
       <c r="K5" t="n">
-        <v>43.62978234389814</v>
+        <v>37.26510522740821</v>
       </c>
       <c r="L5" t="n">
-        <v>28.14171380811889</v>
+        <v>89.64047845626988</v>
       </c>
       <c r="M5" t="n">
-        <v>66.91548110219752</v>
+        <v>13.4592571709615</v>
       </c>
       <c r="N5" t="n">
-        <v>61.45340082185712</v>
+        <v>30.23907754510964</v>
       </c>
       <c r="O5" t="n">
-        <v>13.0075332030656</v>
+        <v>21.37614367236511</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>80.99034958050999</v>
       </c>
       <c r="Q5" t="n">
-        <v>97.9488751494122</v>
+        <v>68.46415950646691</v>
       </c>
       <c r="R5" t="n">
-        <v>28.02150109344699</v>
+        <v>30.09040083625201</v>
       </c>
       <c r="S5" t="n">
-        <v>19.83458451093909</v>
+        <v>53.55441386505275</v>
       </c>
       <c r="T5" t="n">
-        <v>77.39987643230978</v>
+        <v>50.57060390977979</v>
       </c>
       <c r="U5" t="n">
-        <v>48.38263594174644</v>
+        <v>56.3537341147628</v>
       </c>
       <c r="V5" t="n">
-        <v>12.37338287362667</v>
+        <v>44.7448402226696</v>
       </c>
       <c r="W5" t="n">
-        <v>49.41013889629479</v>
+        <v>43.17378456559735</v>
       </c>
       <c r="X5" t="n">
-        <v>21.64548828983126</v>
+        <v>27.64392986866124</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.30434524711107</v>
+        <v>79.54937906731088</v>
       </c>
       <c r="Z5" t="n">
-        <v>48.87082147474354</v>
+        <v>22.8924456932202</v>
       </c>
       <c r="AA5" t="n">
-        <v>37.16193282764642</v>
+        <v>41.33683510165579</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.86424630320776</v>
+        <v>31.74621740256374</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.03063471378897</v>
+        <v>31.96753431579323</v>
       </c>
       <c r="AD5" t="n">
-        <v>52.78466274321896</v>
+        <v>50.78527771421472</v>
       </c>
       <c r="AE5" t="n">
-        <v>25.05751374615262</v>
+        <v>22.9848443475042</v>
       </c>
       <c r="AF5" t="n">
-        <v>32.15553472183807</v>
+        <v>12.59665883699316</v>
       </c>
       <c r="AG5" t="n">
-        <v>46.39976068292745</v>
+        <v>21.43879943614377</v>
       </c>
       <c r="AH5" t="n">
-        <v>54.9017545178025</v>
+        <v>56.07871429652013</v>
       </c>
       <c r="AI5" t="n">
-        <v>15.50402215010264</v>
+        <v>42.57347331875147</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23.14785819728414</v>
+        <v>2.569413592284022</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.90579490902978</v>
+        <v>14.41269197870693</v>
       </c>
       <c r="AL5" t="n">
-        <v>104.6058392979253</v>
+        <v>6.096544700069673</v>
       </c>
       <c r="AM5" t="n">
-        <v>31.67836314964253</v>
+        <v>21.11126595603173</v>
       </c>
       <c r="AN5" t="n">
-        <v>34.97607369442044</v>
+        <v>11.94175125303525</v>
       </c>
       <c r="AO5" t="n">
-        <v>35.68442524825797</v>
+        <v>15.96681968272076</v>
       </c>
       <c r="AP5" t="n">
-        <v>30.51332841169548</v>
+        <v>16.70061809843621</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24.68087803843896</v>
+        <v>22.80018677472759</v>
       </c>
       <c r="AR5" t="n">
-        <v>30.5560443077094</v>
+        <v>35.78906114193785</v>
       </c>
       <c r="AS5" t="n">
-        <v>28.13127684394017</v>
+        <v>14.15125599072443</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.200047212860041</v>
+        <v>22.81119101280352</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>10.94876923178204</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.02302913195949</v>
+        <v>10.82145862523867</v>
       </c>
       <c r="AW5" t="n">
-        <v>27.37418025562587</v>
+        <v>6.323631584283039</v>
       </c>
       <c r="AX5" t="n">
-        <v>16.89673717524336</v>
+        <v>8.824988791252844</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.736773576513668</v>
+        <v>4.466720395062389</v>
       </c>
       <c r="D6" t="n">
-        <v>1.490166857017587</v>
+        <v>8.028224861766773</v>
       </c>
       <c r="E6" t="n">
-        <v>3.70072017834663</v>
+        <v>1.509745739517638</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9225374464293292</v>
+        <v>5.022780925868739</v>
       </c>
       <c r="G6" t="n">
-        <v>6.082311466523849</v>
+        <v>2.635424538751582</v>
       </c>
       <c r="H6" t="n">
-        <v>3.893324722460657</v>
+        <v>14.43532329913705</v>
       </c>
       <c r="I6" t="n">
-        <v>15.16389539499872</v>
+        <v>18.16911024843956</v>
       </c>
       <c r="J6" t="n">
-        <v>16.4344257</v>
+        <v>87.86261703677961</v>
       </c>
       <c r="K6" t="n">
-        <v>24.33228802735004</v>
+        <v>11.61239249580815</v>
       </c>
       <c r="L6" t="n">
-        <v>27.92631574803504</v>
+        <v>6.612470754544413</v>
       </c>
       <c r="M6" t="n">
-        <v>15.37699812457453</v>
+        <v>62.32536401560053</v>
       </c>
       <c r="N6" t="n">
-        <v>5.288668251595821</v>
+        <v>20.53709000985965</v>
       </c>
       <c r="O6" t="n">
-        <v>8.243615528569185</v>
+        <v>14.42351053423066</v>
       </c>
       <c r="P6" t="n">
-        <v>22.80765577437256</v>
+        <v>16.16986174359893</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.5268902186955</v>
+        <v>14.38689873825267</v>
       </c>
       <c r="R6" t="n">
-        <v>26.07839610318297</v>
+        <v>21.85694642366695</v>
       </c>
       <c r="S6" t="n">
-        <v>14.31691506167919</v>
+        <v>15.39271765990071</v>
       </c>
       <c r="T6" t="n">
-        <v>19.52582998796485</v>
+        <v>10.65845514962489</v>
       </c>
       <c r="U6" t="n">
-        <v>17.82696823120779</v>
+        <v>13.1200265384322</v>
       </c>
       <c r="V6" t="n">
-        <v>10.7730452826223</v>
+        <v>13.5321405948022</v>
       </c>
       <c r="W6" t="n">
-        <v>8.179714285714285</v>
+        <v>17.87874057968529</v>
       </c>
       <c r="X6" t="n">
-        <v>17.22414916299437</v>
+        <v>13.65620101967474</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.05080651841219</v>
+        <v>29.06229366942303</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.96077880862801</v>
+        <v>16.68161592349698</v>
       </c>
       <c r="AA6" t="n">
-        <v>26.15660013314757</v>
+        <v>17.25591260960024</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.95888085531526</v>
+        <v>22.75595800947443</v>
       </c>
       <c r="AC6" t="n">
-        <v>27.93124640655179</v>
+        <v>14.41194704519377</v>
       </c>
       <c r="AD6" t="n">
-        <v>20.78133136060361</v>
+        <v>47.29295408610232</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.25927519794488</v>
+        <v>32.76026591161095</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.69779861129734</v>
+        <v>6.289908249361525</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.82668649555539</v>
+        <v>5.901232132263564</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.830507871075663</v>
+        <v>9.866340483797639</v>
       </c>
       <c r="AI6" t="n">
-        <v>13.03661466273612</v>
+        <v>5.790132796153386</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.523229645582248</v>
+        <v>9.809074605257292</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.594042357212494</v>
+        <v>8.372349211162902</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.941195655572918</v>
+        <v>3.519051906061746</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.597663098203471</v>
+        <v>2.531408482456313</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.052164748508582</v>
+        <v>7.427131983980747</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.030012044721708</v>
+        <v>4.697371392962861</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.799246809955378</v>
+        <v>2.204348100424071</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.943337204976552</v>
+        <v>4.244110887595769</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.282166810875787</v>
+        <v>3.369503003568143</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.643054883544734</v>
+        <v>1.363074071635411</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.616897964800809</v>
+        <v>13.90578244087635</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.5079468267125036</v>
+        <v>2.536170142307913</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.057027648922515</v>
+        <v>5.116766873627404</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.327646703531906</v>
+        <v>1.031221561228757</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.414867315554438</v>
+        <v>1.832454390751071</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4.992639721907949</v>
       </c>
       <c r="D7" t="n">
-        <v>10.4</v>
+        <v>28.15212093629151</v>
       </c>
       <c r="E7" t="n">
-        <v>19.81</v>
+        <v>13.86184699735368</v>
       </c>
       <c r="F7" t="n">
-        <v>17.9</v>
+        <v>11.93561361906085</v>
       </c>
       <c r="G7" t="n">
-        <v>14.18</v>
+        <v>13.35015028117173</v>
       </c>
       <c r="H7" t="n">
-        <v>15.03</v>
+        <v>23.25706305938373</v>
       </c>
       <c r="I7" t="n">
-        <v>13.16</v>
+        <v>62.49393938279858</v>
       </c>
       <c r="J7" t="n">
-        <v>172.62</v>
+        <v>3.603146731229353</v>
       </c>
       <c r="K7" t="n">
-        <v>36.1</v>
+        <v>45.51728064240787</v>
       </c>
       <c r="L7" t="n">
-        <v>15.23</v>
+        <v>102.1739928566609</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>62.26071533915558</v>
       </c>
       <c r="N7" t="n">
-        <v>32.47</v>
+        <v>40.53390286383484</v>
       </c>
       <c r="O7" t="n">
-        <v>6.600000000000001</v>
+        <v>15.09630620823385</v>
       </c>
       <c r="P7" t="n">
-        <v>89.87</v>
+        <v>9.317976785902919</v>
       </c>
       <c r="Q7" t="n">
-        <v>30.52</v>
+        <v>14.40724456350703</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>10.9002541097974</v>
       </c>
       <c r="S7" t="n">
-        <v>22.95</v>
+        <v>12.75094872961958</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>49.07838982474345</v>
       </c>
       <c r="U7" t="n">
-        <v>8.32</v>
+        <v>7.038232087056039</v>
       </c>
       <c r="V7" t="n">
-        <v>35.77</v>
+        <v>6.079628573110262</v>
       </c>
       <c r="W7" t="n">
-        <v>6.17</v>
+        <v>3.304188039852324</v>
       </c>
       <c r="X7" t="n">
-        <v>21.37</v>
+        <v>5.755053238013701</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.17</v>
+        <v>9.168205069267612</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.22</v>
+        <v>78.71769821582838</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>71.436393227373</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.059699190625157</v>
+        <v>35.2518731182256</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.504221103961719</v>
+        <v>8.411630239578443</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.81</v>
+        <v>2.375015746755374</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.99031737493276</v>
+        <v>4.668322176501472</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.37</v>
+        <v>10.52804923378402</v>
       </c>
       <c r="AG7" t="n">
-        <v>23.47</v>
+        <v>11.19149547351213</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.17</v>
+        <v>35.9902498807519</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.770869077142856</v>
+        <v>6.477342149768166</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.6</v>
+        <v>1.810712778673111</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.308878430121251</v>
+        <v>18.46870111129698</v>
       </c>
       <c r="AL7" t="n">
-        <v>4.28</v>
+        <v>10.64946694242519</v>
       </c>
       <c r="AM7" t="n">
-        <v>7.43</v>
+        <v>8.865427347015418</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.35</v>
+        <v>2.434891289999823</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.72</v>
+        <v>26.60127355805308</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.86</v>
+        <v>4.586716279984626</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11.84</v>
+        <v>2.368883700801323</v>
       </c>
       <c r="AR7" t="n">
-        <v>16.6</v>
+        <v>9.220681858928929</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.99</v>
+        <v>1.797227743036398</v>
       </c>
       <c r="AT7" t="n">
-        <v>15.17</v>
+        <v>5.103598073437812</v>
       </c>
       <c r="AU7" t="n">
-        <v>10.96</v>
+        <v>1.590370764539862</v>
       </c>
       <c r="AV7" t="n">
-        <v>11.99</v>
+        <v>12.38141646840261</v>
       </c>
       <c r="AW7" t="n">
-        <v>19.64</v>
+        <v>13.48194180996492</v>
       </c>
       <c r="AX7" t="n">
-        <v>11.97</v>
+        <v>2.29341498758909</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>14.99899264995137</v>
+        <v>22.34144523494489</v>
       </c>
       <c r="D8" t="n">
-        <v>21.82747846353302</v>
+        <v>10.69132233717693</v>
       </c>
       <c r="E8" t="n">
-        <v>13.52408612020989</v>
+        <v>38.00665288142137</v>
       </c>
       <c r="F8" t="n">
-        <v>21.84560624055791</v>
+        <v>24.93238714533293</v>
       </c>
       <c r="G8" t="n">
-        <v>22.32597271704335</v>
+        <v>52.64923864955473</v>
       </c>
       <c r="H8" t="n">
-        <v>148.7351275067987</v>
+        <v>96.01488653935094</v>
       </c>
       <c r="I8" t="n">
-        <v>201.5580644768212</v>
+        <v>18.09101267139762</v>
       </c>
       <c r="J8" t="n">
-        <v>100.5742106117991</v>
+        <v>20.27806712893166</v>
       </c>
       <c r="K8" t="n">
-        <v>16.08345158778928</v>
+        <v>19.7090534413639</v>
       </c>
       <c r="L8" t="n">
-        <v>113.385344748449</v>
+        <v>48.03737229738499</v>
       </c>
       <c r="M8" t="n">
-        <v>75.73072426284932</v>
+        <v>23.95893765997355</v>
       </c>
       <c r="N8" t="n">
-        <v>109.3681247603443</v>
+        <v>75.47038656950294</v>
       </c>
       <c r="O8" t="n">
-        <v>30.54113433445841</v>
+        <v>49.90437585980812</v>
       </c>
       <c r="P8" t="n">
-        <v>86.3609338839366</v>
+        <v>151.7867274068955</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.50613534669422</v>
+        <v>32.05606121301981</v>
       </c>
       <c r="R8" t="n">
-        <v>31.1033292119684</v>
+        <v>38.62643436464149</v>
       </c>
       <c r="S8" t="n">
-        <v>38.26659797724854</v>
+        <v>56.22680301344489</v>
       </c>
       <c r="T8" t="n">
-        <v>42.26446328141999</v>
+        <v>90.27299025541573</v>
       </c>
       <c r="U8" t="n">
-        <v>39.56169653073311</v>
+        <v>27.44600555918548</v>
       </c>
       <c r="V8" t="n">
-        <v>31.90173279007089</v>
+        <v>16.59318186577906</v>
       </c>
       <c r="W8" t="n">
-        <v>95.05620768129644</v>
+        <v>85.73987948178979</v>
       </c>
       <c r="X8" t="n">
-        <v>63.8589671021864</v>
+        <v>37.25317781674077</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.9410966430525</v>
+        <v>66.31314002532865</v>
       </c>
       <c r="Z8" t="n">
-        <v>100.2678159522541</v>
+        <v>65.63404630238419</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.7029518287573</v>
+        <v>109.3785585287073</v>
       </c>
       <c r="AB8" t="n">
-        <v>80.47984204857819</v>
+        <v>67.29460651701761</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.3188158920383</v>
+        <v>108.1895796240154</v>
       </c>
       <c r="AD8" t="n">
-        <v>144.3531025162992</v>
+        <v>108.7138394990061</v>
       </c>
       <c r="AE8" t="n">
-        <v>79.29665961754061</v>
+        <v>126.6068091443651</v>
       </c>
       <c r="AF8" t="n">
-        <v>145.9941774806226</v>
+        <v>116.6428764684625</v>
       </c>
       <c r="AG8" t="n">
-        <v>68.10588180891372</v>
+        <v>116.6081961334205</v>
       </c>
       <c r="AH8" t="n">
-        <v>77.57089468320135</v>
+        <v>112.1536960349225</v>
       </c>
       <c r="AI8" t="n">
-        <v>177.5622043654968</v>
+        <v>185.2037869627463</v>
       </c>
       <c r="AJ8" t="n">
-        <v>171.2625426933326</v>
+        <v>168.7389620819818</v>
       </c>
       <c r="AK8" t="n">
-        <v>33.26278270925696</v>
+        <v>62.29631285450843</v>
       </c>
       <c r="AL8" t="n">
-        <v>68.21371765199731</v>
+        <v>46.28058422638472</v>
       </c>
       <c r="AM8" t="n">
-        <v>46.16160719915096</v>
+        <v>51.09615885478735</v>
       </c>
       <c r="AN8" t="n">
-        <v>37.37801033052128</v>
+        <v>30.62188147648629</v>
       </c>
       <c r="AO8" t="n">
-        <v>34.32621399327616</v>
+        <v>77.14505658824667</v>
       </c>
       <c r="AP8" t="n">
-        <v>32.82885837854948</v>
+        <v>34.00185552582248</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21.6843817618251</v>
+        <v>25.85607984938606</v>
       </c>
       <c r="AR8" t="n">
-        <v>18.01704232932832</v>
+        <v>33.93829967365535</v>
       </c>
       <c r="AS8" t="n">
-        <v>17.14526337017873</v>
+        <v>21.25843555043455</v>
       </c>
       <c r="AT8" t="n">
-        <v>20.6210149692848</v>
+        <v>24.15954872992761</v>
       </c>
       <c r="AU8" t="n">
-        <v>20.11619584816918</v>
+        <v>14.13223243886855</v>
       </c>
       <c r="AV8" t="n">
-        <v>14.61769362239391</v>
+        <v>23.03351909824325</v>
       </c>
       <c r="AW8" t="n">
-        <v>19.11995300796535</v>
+        <v>13.68661794275456</v>
       </c>
       <c r="AX8" t="n">
-        <v>20.39648934126886</v>
+        <v>21.66473045846107</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.335567689700622</v>
+        <v>2.127911977651975</v>
       </c>
       <c r="D9" t="n">
-        <v>3.308447653429604</v>
+        <v>0.1755042472702377</v>
       </c>
       <c r="E9" t="n">
-        <v>4.809828728043565</v>
+        <v>3.319752472378022</v>
       </c>
       <c r="F9" t="n">
-        <v>3.157789506680109</v>
+        <v>2.15408330756186</v>
       </c>
       <c r="G9" t="n">
-        <v>2.169723695665246</v>
+        <v>0.2798177227011918</v>
       </c>
       <c r="H9" t="n">
-        <v>1.686578560939794</v>
+        <v>2.298723430110116</v>
       </c>
       <c r="I9" t="n">
-        <v>3.012460111891147</v>
+        <v>1.118481312031976</v>
       </c>
       <c r="J9" t="n">
-        <v>2.630435912976096</v>
+        <v>5.875303514094592</v>
       </c>
       <c r="K9" t="n">
-        <v>1.020339907757519</v>
+        <v>2.953143913238753</v>
       </c>
       <c r="L9" t="n">
-        <v>2.621792535745676</v>
+        <v>52.24501824635708</v>
       </c>
       <c r="M9" t="n">
-        <v>4.001412180052957</v>
+        <v>10.68052240333722</v>
       </c>
       <c r="N9" t="n">
-        <v>8.836449605623573</v>
+        <v>13.99838540383293</v>
       </c>
       <c r="O9" t="n">
-        <v>2.687065966367332</v>
+        <v>7.099208777428566</v>
       </c>
       <c r="P9" t="n">
-        <v>3.172776080888305</v>
+        <v>1.376153094661935</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.560917673966155</v>
+        <v>3.944487945064501</v>
       </c>
       <c r="R9" t="n">
-        <v>4.832515377144707</v>
+        <v>2.618316323675516</v>
       </c>
       <c r="S9" t="n">
-        <v>4.058841722492636</v>
+        <v>2.748209503772921</v>
       </c>
       <c r="T9" t="n">
-        <v>7.047095515770787</v>
+        <v>3.541829416696339</v>
       </c>
       <c r="U9" t="n">
-        <v>4.763982716219908</v>
+        <v>2.258431184074662</v>
       </c>
       <c r="V9" t="n">
-        <v>4.615440934089766</v>
+        <v>2.097864693039335</v>
       </c>
       <c r="W9" t="n">
-        <v>2.407142947254357</v>
+        <v>9.228513277152015</v>
       </c>
       <c r="X9" t="n">
-        <v>2.569966189018336</v>
+        <v>4.961785945074629</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.29161443333898</v>
+        <v>1.48912189594955</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.921930002136493</v>
+        <v>4.352300209521138</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.661453266482078</v>
+        <v>2.973714543163368</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.160752271150484</v>
+        <v>4.721012618733805</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.303612451896043</v>
+        <v>8.601839266887831</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.50541958849742</v>
+        <v>3.808515019554147</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.408950676331508</v>
+        <v>4.374343294645148</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.074507638056927</v>
+        <v>13.4435128887733</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.759268351687386</v>
+        <v>9.528826102204604</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.753796387815616</v>
+        <v>7.613538779753847</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.97585422960074</v>
+        <v>3.640617146373056</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.246801300901673</v>
+        <v>4.254412188598852</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.410824209139877</v>
+        <v>13.8052762322575</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.24295304851194</v>
+        <v>4.982337646265106</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.219333143390298</v>
+        <v>1.78788906284411</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.580637160283241</v>
+        <v>2.023033322616356</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.611861340119505</v>
+        <v>8.058595108628909</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.682248347663333</v>
+        <v>2.843348337912756</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.736520854526957</v>
+        <v>2.360506129794403</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.941260268449611</v>
+        <v>1.357685446804564</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.9035955525485322</v>
+        <v>5.003702915647797</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.770367945634574</v>
+        <v>2.339534239018339</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.926557295494618</v>
+        <v>2.687826912203549</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.563196298961257</v>
+        <v>2.880776018411726</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.762961264877817</v>
+        <v>2.592324062860308</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.128747866055973</v>
+        <v>0.8018486972333704</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>6.563202158758714</v>
+        <v>14.50320603075757</v>
       </c>
       <c r="D10" t="n">
-        <v>11.78870302457994</v>
+        <v>16.37792727577938</v>
       </c>
       <c r="E10" t="n">
-        <v>11.52187756005757</v>
+        <v>10.33658956408446</v>
       </c>
       <c r="F10" t="n">
-        <v>10.41578446730119</v>
+        <v>23.63774242017853</v>
       </c>
       <c r="G10" t="n">
-        <v>30.43325457010348</v>
+        <v>4.020807371890255</v>
       </c>
       <c r="H10" t="n">
-        <v>24.30039414095868</v>
+        <v>25.05562194025957</v>
       </c>
       <c r="I10" t="n">
-        <v>7.440530622125394</v>
+        <v>30.69891672123028</v>
       </c>
       <c r="J10" t="n">
-        <v>39.67297793740644</v>
+        <v>10.30838769799492</v>
       </c>
       <c r="K10" t="n">
-        <v>8.279028302229678</v>
+        <v>87.81440314301736</v>
       </c>
       <c r="L10" t="n">
-        <v>234.1381777993803</v>
+        <v>49.71685744061077</v>
       </c>
       <c r="M10" t="n">
-        <v>63.78634176161681</v>
+        <v>347.1398295121593</v>
       </c>
       <c r="N10" t="n">
-        <v>89.04300329164101</v>
+        <v>110.3616202136389</v>
       </c>
       <c r="O10" t="n">
-        <v>150.7527135142857</v>
+        <v>98.60102705030864</v>
       </c>
       <c r="P10" t="n">
-        <v>47.7497084959721</v>
+        <v>75.64606896472988</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.00169455077201</v>
+        <v>33.81748728538805</v>
       </c>
       <c r="R10" t="n">
-        <v>153.4613998950668</v>
+        <v>72.5412494230869</v>
       </c>
       <c r="S10" t="n">
-        <v>39.99742341713781</v>
+        <v>186.4367706591689</v>
       </c>
       <c r="T10" t="n">
-        <v>36.27476486665916</v>
+        <v>68.8868704384725</v>
       </c>
       <c r="U10" t="n">
-        <v>65.5676213429826</v>
+        <v>71.44880480186318</v>
       </c>
       <c r="V10" t="n">
-        <v>65.56596785435192</v>
+        <v>33.25960322826912</v>
       </c>
       <c r="W10" t="n">
-        <v>56.10187818264749</v>
+        <v>74.25972119288197</v>
       </c>
       <c r="X10" t="n">
-        <v>85.38759724921678</v>
+        <v>28.32423268805545</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.06090423864994</v>
+        <v>26.82900929040134</v>
       </c>
       <c r="Z10" t="n">
-        <v>78.94549953822739</v>
+        <v>56.11284992204892</v>
       </c>
       <c r="AA10" t="n">
-        <v>39.9592765570636</v>
+        <v>60.42277237899889</v>
       </c>
       <c r="AB10" t="n">
-        <v>67.19804325513837</v>
+        <v>123.6015247923309</v>
       </c>
       <c r="AC10" t="n">
-        <v>56.8016397536511</v>
+        <v>72.92535061636657</v>
       </c>
       <c r="AD10" t="n">
-        <v>59.65367845650844</v>
+        <v>43.10925725608086</v>
       </c>
       <c r="AE10" t="n">
-        <v>94.99146732094118</v>
+        <v>37.65094417621498</v>
       </c>
       <c r="AF10" t="n">
-        <v>72.56519572596693</v>
+        <v>45.27454172940007</v>
       </c>
       <c r="AG10" t="n">
-        <v>22.86685470447137</v>
+        <v>27.69030758089375</v>
       </c>
       <c r="AH10" t="n">
-        <v>97.1074637041603</v>
+        <v>98.28644574157869</v>
       </c>
       <c r="AI10" t="n">
-        <v>82.18146477827403</v>
+        <v>39.82684160536837</v>
       </c>
       <c r="AJ10" t="n">
-        <v>108.2969916016011</v>
+        <v>86.89426013209264</v>
       </c>
       <c r="AK10" t="n">
-        <v>24.44871999334942</v>
+        <v>31.6039215074935</v>
       </c>
       <c r="AL10" t="n">
-        <v>12.75685540717197</v>
+        <v>76.52788205256641</v>
       </c>
       <c r="AM10" t="n">
-        <v>21.58806612007792</v>
+        <v>23.46154879489724</v>
       </c>
       <c r="AN10" t="n">
-        <v>27.81962729880656</v>
+        <v>41.78920405063608</v>
       </c>
       <c r="AO10" t="n">
-        <v>18.06185360733217</v>
+        <v>29.4177500820965</v>
       </c>
       <c r="AP10" t="n">
-        <v>22.48301728456146</v>
+        <v>17.73586296970248</v>
       </c>
       <c r="AQ10" t="n">
-        <v>43.02734270006108</v>
+        <v>18.33758769412098</v>
       </c>
       <c r="AR10" t="n">
-        <v>27.35556884522284</v>
+        <v>35.86836210425894</v>
       </c>
       <c r="AS10" t="n">
-        <v>15.09202034587996</v>
+        <v>16.92842808692777</v>
       </c>
       <c r="AT10" t="n">
-        <v>15.10965597715017</v>
+        <v>11.90029716257547</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.700125960878648</v>
+        <v>14.14747493669661</v>
       </c>
       <c r="AV10" t="n">
-        <v>12.19712315516347</v>
+        <v>24.83592959209212</v>
       </c>
       <c r="AW10" t="n">
-        <v>12.37548134620402</v>
+        <v>10.10221552263706</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.25876941862832</v>
+        <v>12.23265126300781</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>29.30038643007817</v>
+        <v>13.26555055986209</v>
       </c>
       <c r="D11" t="n">
-        <v>22.21903307563236</v>
+        <v>29.29155122017568</v>
       </c>
       <c r="E11" t="n">
-        <v>23.35474237129252</v>
+        <v>15.09427146553429</v>
       </c>
       <c r="F11" t="n">
-        <v>12.9348698032029</v>
+        <v>4.909034313938448</v>
       </c>
       <c r="G11" t="n">
-        <v>3.409168724541313</v>
+        <v>23.50259101183201</v>
       </c>
       <c r="H11" t="n">
-        <v>8.505366174229826</v>
+        <v>87.34274279416404</v>
       </c>
       <c r="I11" t="n">
-        <v>42.72774239409756</v>
+        <v>42.1408394297433</v>
       </c>
       <c r="J11" t="n">
-        <v>24.89989347902825</v>
+        <v>2.029300737241515</v>
       </c>
       <c r="K11" t="n">
-        <v>51.45345487066142</v>
+        <v>63.91416971724366</v>
       </c>
       <c r="L11" t="n">
-        <v>46.64565638659668</v>
+        <v>3.969741027352855</v>
       </c>
       <c r="M11" t="n">
-        <v>20.44834264424867</v>
+        <v>143.7814838027732</v>
       </c>
       <c r="N11" t="n">
-        <v>173.5124469744276</v>
+        <v>12.40824151014773</v>
       </c>
       <c r="O11" t="n">
-        <v>74.14214989677579</v>
+        <v>19.27483369148851</v>
       </c>
       <c r="P11" t="n">
-        <v>40.37920001505137</v>
+        <v>20.97019565505428</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.5819561094141</v>
+        <v>93.04162621970144</v>
       </c>
       <c r="R11" t="n">
-        <v>53.38824325723183</v>
+        <v>35.26200510497682</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.81356390450795</v>
       </c>
       <c r="T11" t="n">
-        <v>54.24303745206528</v>
+        <v>94.16118479065373</v>
       </c>
       <c r="U11" t="n">
-        <v>90.39105035161985</v>
+        <v>44.15081456515546</v>
       </c>
       <c r="V11" t="n">
-        <v>205.8231906252874</v>
+        <v>76.87642865688389</v>
       </c>
       <c r="W11" t="n">
-        <v>98.53030899592412</v>
+        <v>60.60510018089911</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>66.34642619613435</v>
       </c>
       <c r="Y11" t="n">
-        <v>30.29559804855188</v>
+        <v>16.30030608101196</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.81870386862481</v>
+        <v>42.95840724101107</v>
       </c>
       <c r="AA11" t="n">
-        <v>52.78279997403098</v>
+        <v>32.74404537519768</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.92513949169277</v>
+        <v>13.88871496799232</v>
       </c>
       <c r="AC11" t="n">
-        <v>38.05380441026409</v>
+        <v>9.905690512724512</v>
       </c>
       <c r="AD11" t="n">
-        <v>37.54365446444457</v>
+        <v>11.34278736720212</v>
       </c>
       <c r="AE11" t="n">
-        <v>56.00611485587429</v>
+        <v>21.50181364794874</v>
       </c>
       <c r="AF11" t="n">
-        <v>42.74966117542198</v>
+        <v>6.853063279211683</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.556215571304053</v>
+        <v>24.65060366162541</v>
       </c>
       <c r="AH11" t="n">
-        <v>13.96598956177769</v>
+        <v>10.98766649691757</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.07105450953631</v>
+        <v>79.94570809979703</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21.19821045287065</v>
+        <v>50.95467169510329</v>
       </c>
       <c r="AK11" t="n">
-        <v>32.72099033632853</v>
+        <v>41.71161953109483</v>
       </c>
       <c r="AL11" t="n">
-        <v>100.1345831222634</v>
+        <v>5.002319512470073</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.8738686287288582</v>
+        <v>2.557504082054812</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.67893300931658</v>
+        <v>12.53889534302785</v>
       </c>
       <c r="AO11" t="n">
-        <v>48.44364429147996</v>
+        <v>30.94368522653897</v>
       </c>
       <c r="AP11" t="n">
-        <v>54.49763497654616</v>
+        <v>35.92857535801774</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19.56074772619844</v>
+        <v>33.77662335693994</v>
       </c>
       <c r="AR11" t="n">
-        <v>20.37616819100092</v>
+        <v>21.31263234616131</v>
       </c>
       <c r="AS11" t="n">
-        <v>17.71092700159267</v>
+        <v>10.94055588079697</v>
       </c>
       <c r="AT11" t="n">
-        <v>22.48830447303459</v>
+        <v>26.32763503650445</v>
       </c>
       <c r="AU11" t="n">
-        <v>26.88168179659216</v>
+        <v>36.54583882131426</v>
       </c>
       <c r="AV11" t="n">
-        <v>30.18933768508498</v>
+        <v>57.56924240059178</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.3590762694402958</v>
+        <v>29.78680300692454</v>
       </c>
       <c r="AX11" t="n">
-        <v>22.43283314525872</v>
+        <v>27.22538050380896</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.285596728809409</v>
+        <v>2.836021391368174</v>
       </c>
       <c r="D12" t="n">
-        <v>2.094296463895533</v>
+        <v>2.536874107643635</v>
       </c>
       <c r="E12" t="n">
-        <v>1.916789449867477</v>
+        <v>1.45489561652566</v>
       </c>
       <c r="F12" t="n">
-        <v>2.88412043032138</v>
+        <v>4.188302765570516</v>
       </c>
       <c r="G12" t="n">
-        <v>4.577572722497683</v>
+        <v>32.32676879518259</v>
       </c>
       <c r="H12" t="n">
-        <v>5.103103642168317</v>
+        <v>1.162342063248026</v>
       </c>
       <c r="I12" t="n">
-        <v>64.50051551891758</v>
+        <v>5.963058549784548</v>
       </c>
       <c r="J12" t="n">
-        <v>3.696348957805383</v>
+        <v>60.08959925337842</v>
       </c>
       <c r="K12" t="n">
-        <v>4.03433981576254</v>
+        <v>15.99729511324003</v>
       </c>
       <c r="L12" t="n">
-        <v>29.72821642613385</v>
+        <v>27.1349925673284</v>
       </c>
       <c r="M12" t="n">
-        <v>8.787156003110578</v>
+        <v>22.33212256539945</v>
       </c>
       <c r="N12" t="n">
-        <v>43.23708835699691</v>
+        <v>38.305876655332</v>
       </c>
       <c r="O12" t="n">
-        <v>24.91813022643462</v>
+        <v>43.00615045980893</v>
       </c>
       <c r="P12" t="n">
-        <v>72.70191244700162</v>
+        <v>6.917651876184124</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.59281660449314</v>
+        <v>18.68930538987411</v>
       </c>
       <c r="R12" t="n">
-        <v>13.24885998078943</v>
+        <v>33.35827338443897</v>
       </c>
       <c r="S12" t="n">
-        <v>16.34295810335239</v>
+        <v>14.58305310301027</v>
       </c>
       <c r="T12" t="n">
-        <v>12.35458646822958</v>
+        <v>38.61112738404639</v>
       </c>
       <c r="U12" t="n">
-        <v>42.55530824749647</v>
+        <v>24.13443598513548</v>
       </c>
       <c r="V12" t="n">
-        <v>27.6976672</v>
+        <v>5.51151092229192</v>
       </c>
       <c r="W12" t="n">
-        <v>15.85714073389691</v>
+        <v>26.0811650223712</v>
       </c>
       <c r="X12" t="n">
-        <v>20.20989939476952</v>
+        <v>20.39194374116397</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.49408441629846</v>
+        <v>13.62784714787941</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.59061844056026</v>
+        <v>24.56343883666721</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.10001553476017</v>
+        <v>14.24032739529694</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.398293243313416</v>
+        <v>13.18591006219964</v>
       </c>
       <c r="AC12" t="n">
-        <v>15.90705756352656</v>
+        <v>6.573609665472834</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.06437382661162</v>
+        <v>16.75375450590422</v>
       </c>
       <c r="AE12" t="n">
-        <v>25.91807412013363</v>
+        <v>13.41253845823149</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.98888661760824</v>
+        <v>35.17660947216595</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.54144922999202</v>
+        <v>14.85931126520656</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.29153423998829</v>
+        <v>5.84626427569876</v>
       </c>
       <c r="AI12" t="n">
-        <v>23.35231607870538</v>
+        <v>16.56609744133791</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.316145000000001</v>
+        <v>9.030841943544406</v>
       </c>
       <c r="AK12" t="n">
-        <v>10.46363386947229</v>
+        <v>7.434652018486616</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.685159839098559</v>
+        <v>6.931221203329697</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.643594364415421</v>
+        <v>7.426522176953283</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.759104240047374</v>
+        <v>6.760718242107736</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.5430096785872</v>
+        <v>6.175068421143868</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.9369139730876361</v>
+        <v>2.042491461155167</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6.457387252030468</v>
+        <v>3.252977368788889</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.701183463556872</v>
+        <v>0.8905864647934922</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.369628301717304</v>
+        <v>0.589719523106224</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.827660450030497</v>
+        <v>3.783777184458661</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.807194064825623</v>
+        <v>1.667862170931713</v>
       </c>
       <c r="AV12" t="n">
-        <v>7.439831022174803</v>
+        <v>0.2390534425769573</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.331966566570977</v>
+        <v>2.338212999644633</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.517835969880804</v>
+        <v>5.076447162292903</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.43</v>
+        <v>7.332973210138918</v>
       </c>
       <c r="D13" t="n">
-        <v>17.9</v>
+        <v>6.259250653242834</v>
       </c>
       <c r="E13" t="n">
-        <v>7.87</v>
+        <v>3.826993874157743</v>
       </c>
       <c r="F13" t="n">
-        <v>4.2738095395</v>
+        <v>19.72328519178939</v>
       </c>
       <c r="G13" t="n">
-        <v>24.9</v>
+        <v>10.39235106307021</v>
       </c>
       <c r="H13" t="n">
-        <v>1.74</v>
+        <v>17.25715618661073</v>
       </c>
       <c r="I13" t="n">
-        <v>16.04</v>
+        <v>21.24964627245883</v>
       </c>
       <c r="J13" t="n">
-        <v>7.62</v>
+        <v>3.351327512847662</v>
       </c>
       <c r="K13" t="n">
-        <v>50.3</v>
+        <v>43.23284110961819</v>
       </c>
       <c r="L13" t="n">
-        <v>18.92</v>
+        <v>17.83752991638152</v>
       </c>
       <c r="M13" t="n">
-        <v>12.47</v>
+        <v>15.30575671491634</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7518699325025</v>
+        <v>30.44437513942332</v>
       </c>
       <c r="O13" t="n">
-        <v>24.42</v>
+        <v>28.76613289022185</v>
       </c>
       <c r="P13" t="n">
-        <v>43.94</v>
+        <v>43.08301112941415</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.58</v>
+        <v>37.73765349742073</v>
       </c>
       <c r="R13" t="n">
-        <v>81.89</v>
+        <v>37.30246109541566</v>
       </c>
       <c r="S13" t="n">
-        <v>16.23</v>
+        <v>6.85510329620605</v>
       </c>
       <c r="T13" t="n">
-        <v>21.94</v>
+        <v>47.55974571133078</v>
       </c>
       <c r="U13" t="n">
-        <v>30.65</v>
+        <v>11.17498007290472</v>
       </c>
       <c r="V13" t="n">
-        <v>32.13</v>
+        <v>225.9423439714711</v>
       </c>
       <c r="W13" t="n">
-        <v>34.27</v>
+        <v>2.993138545067686</v>
       </c>
       <c r="X13" t="n">
-        <v>8.605262771900051</v>
+        <v>16.3842068724324</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.42</v>
+        <v>16.71402934406782</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.57</v>
+        <v>8.828260530758744</v>
       </c>
       <c r="AA13" t="n">
-        <v>32.86</v>
+        <v>4.87866125087253</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.77</v>
+        <v>11.58851866781206</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.32</v>
+        <v>3.588786778141371</v>
       </c>
       <c r="AD13" t="n">
-        <v>32.86</v>
+        <v>3.257759459356503</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.472558342857146</v>
+        <v>33.13565981942622</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.98</v>
+        <v>24.99484325916745</v>
       </c>
       <c r="AG13" t="n">
-        <v>33.03</v>
+        <v>3.228959567880661</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.82</v>
+        <v>6.509321310176003</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.48</v>
+        <v>0.6896218087142053</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.36</v>
+        <v>1.070208312393492</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.6</v>
+        <v>2.64964190462988</v>
       </c>
       <c r="AL13" t="n">
-        <v>21.66</v>
+        <v>18.77216941325907</v>
       </c>
       <c r="AM13" t="n">
-        <v>14.85</v>
+        <v>30.46764381354305</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.89</v>
+        <v>0.5111117376234454</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.559932014833127</v>
+        <v>7.752817930753606</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.72</v>
+        <v>3.689068625176024</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.32</v>
+        <v>1.881918678721447</v>
       </c>
       <c r="AR13" t="n">
-        <v>10.34</v>
+        <v>4.575497154219787</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.39</v>
+        <v>12.68379945535666</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.56</v>
+        <v>23.9160099468175</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.17</v>
+        <v>2.732213452079784</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.93</v>
+        <v>2.935553328920529</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.37</v>
+        <v>4.330099382781635</v>
       </c>
       <c r="AX13" t="n">
-        <v>12.27</v>
+        <v>1.176851535190818</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>27.52896249863221</v>
+        <v>25.04994259783695</v>
       </c>
       <c r="D14" t="n">
-        <v>21.82747846353302</v>
+        <v>28.25059844568839</v>
       </c>
       <c r="E14" t="n">
-        <v>85.35658882311077</v>
+        <v>30.63095226549634</v>
       </c>
       <c r="F14" t="n">
-        <v>16.95448683722734</v>
+        <v>12.76218665979452</v>
       </c>
       <c r="G14" t="n">
-        <v>69.95025094795872</v>
+        <v>26.52821793162081</v>
       </c>
       <c r="H14" t="n">
-        <v>13.2982262174584</v>
+        <v>84.43272130897674</v>
       </c>
       <c r="I14" t="n">
-        <v>45.26134993168445</v>
+        <v>102.5156216754226</v>
       </c>
       <c r="J14" t="n">
-        <v>22.52186144174598</v>
+        <v>24.58062237547497</v>
       </c>
       <c r="K14" t="n">
-        <v>89.68605502359993</v>
+        <v>28.61419683835561</v>
       </c>
       <c r="L14" t="n">
-        <v>57.94513626193801</v>
+        <v>37.76276549576995</v>
       </c>
       <c r="M14" t="n">
-        <v>31.74511525335707</v>
+        <v>49.36027430155194</v>
       </c>
       <c r="N14" t="n">
-        <v>87.52760886357068</v>
+        <v>139.0808236847949</v>
       </c>
       <c r="O14" t="n">
-        <v>29.15813552107725</v>
+        <v>88.02028852359153</v>
       </c>
       <c r="P14" t="n">
-        <v>79.58970279803704</v>
+        <v>46.87464903925073</v>
       </c>
       <c r="Q14" t="n">
-        <v>61.41953496209345</v>
+        <v>21.99653273337599</v>
       </c>
       <c r="R14" t="n">
-        <v>77.73013832985794</v>
+        <v>84.52184813837312</v>
       </c>
       <c r="S14" t="n">
-        <v>80.34476243842261</v>
+        <v>91.11231862936594</v>
       </c>
       <c r="T14" t="n">
-        <v>101.735060858361</v>
+        <v>27.84272109586874</v>
       </c>
       <c r="U14" t="n">
-        <v>74.54148069806818</v>
+        <v>54.37121231706984</v>
       </c>
       <c r="V14" t="n">
-        <v>124.6428627365665</v>
+        <v>69.8623635678442</v>
       </c>
       <c r="W14" t="n">
-        <v>41.23427923269431</v>
+        <v>36.52863592284399</v>
       </c>
       <c r="X14" t="n">
-        <v>42.05204847705153</v>
+        <v>42.32283150049317</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.26384722796519</v>
+        <v>27.63834213636044</v>
       </c>
       <c r="Z14" t="n">
-        <v>63.39853502373153</v>
+        <v>65.05348903077193</v>
       </c>
       <c r="AA14" t="n">
-        <v>80.88958132148608</v>
+        <v>41.51192224752845</v>
       </c>
       <c r="AB14" t="n">
-        <v>74.5137836921857</v>
+        <v>133.0718072525276</v>
       </c>
       <c r="AC14" t="n">
-        <v>91.0724715863045</v>
+        <v>117.3268985688345</v>
       </c>
       <c r="AD14" t="n">
-        <v>98.02442351420467</v>
+        <v>102.8033623735523</v>
       </c>
       <c r="AE14" t="n">
-        <v>35.21752749433935</v>
+        <v>74.89908665717574</v>
       </c>
       <c r="AF14" t="n">
-        <v>103.6387653472024</v>
+        <v>236.0052652888519</v>
       </c>
       <c r="AG14" t="n">
-        <v>146.0925701244353</v>
+        <v>112.3345289672767</v>
       </c>
       <c r="AH14" t="n">
-        <v>77.57089468320135</v>
+        <v>70.52502110609672</v>
       </c>
       <c r="AI14" t="n">
-        <v>124.4404020507143</v>
+        <v>135.9016379854487</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28.40432694007472</v>
+        <v>35.03722191965877</v>
       </c>
       <c r="AK14" t="n">
-        <v>65.5152376460951</v>
+        <v>62.94262249823862</v>
       </c>
       <c r="AL14" t="n">
-        <v>32.01741944170095</v>
+        <v>34.19474210368345</v>
       </c>
       <c r="AM14" t="n">
-        <v>33.02210037841023</v>
+        <v>21.75007323712676</v>
       </c>
       <c r="AN14" t="n">
-        <v>28.6232182044697</v>
+        <v>34.710903384975</v>
       </c>
       <c r="AO14" t="n">
-        <v>55.43419201173796</v>
+        <v>48.22815028090123</v>
       </c>
       <c r="AP14" t="n">
-        <v>34.55071645601984</v>
+        <v>17.77863972149666</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26.83201216122492</v>
+        <v>23.39533331766853</v>
       </c>
       <c r="AR14" t="n">
-        <v>21.46019983640343</v>
+        <v>38.0767501801164</v>
       </c>
       <c r="AS14" t="n">
-        <v>23.12694965203845</v>
+        <v>24.19501486875327</v>
       </c>
       <c r="AT14" t="n">
-        <v>19.89908961481902</v>
+        <v>34.50598459013915</v>
       </c>
       <c r="AU14" t="n">
-        <v>26.86223994697329</v>
+        <v>18.10115436960813</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.36682396459591</v>
+        <v>30.93997383355504</v>
       </c>
       <c r="AW14" t="n">
-        <v>22.9192536563019</v>
+        <v>15.60668249037819</v>
       </c>
       <c r="AX14" t="n">
-        <v>27.43463615159352</v>
+        <v>13.66963323883033</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.779516167816639</v>
+        <v>0.3823253018130129</v>
       </c>
       <c r="D15" t="n">
-        <v>5.016109907693004</v>
+        <v>0.7175295082680641</v>
       </c>
       <c r="E15" t="n">
-        <v>3.941797333101681</v>
+        <v>45.11112056112474</v>
       </c>
       <c r="F15" t="n">
-        <v>2.126771020686189</v>
+        <v>16.83519765076297</v>
       </c>
       <c r="G15" t="n">
-        <v>4.387381393482813</v>
+        <v>9.933268061719781</v>
       </c>
       <c r="H15" t="n">
-        <v>2.519327618728611</v>
+        <v>3.381189598472596</v>
       </c>
       <c r="I15" t="n">
-        <v>2.763145502987228</v>
+        <v>7.203634049481487</v>
       </c>
       <c r="J15" t="n">
-        <v>5.262592489669444</v>
+        <v>4.663168139556399</v>
       </c>
       <c r="K15" t="n">
-        <v>3.978326982906282</v>
+        <v>0.3816690590979815</v>
       </c>
       <c r="L15" t="n">
-        <v>3.870120812672347</v>
+        <v>7.911045600912575</v>
       </c>
       <c r="M15" t="n">
-        <v>4.964242417962719</v>
+        <v>24.27574350156254</v>
       </c>
       <c r="N15" t="n">
-        <v>5.446956817409045</v>
+        <v>1.657186235066699</v>
       </c>
       <c r="O15" t="n">
-        <v>5.279097833613611</v>
+        <v>1.341739116878798</v>
       </c>
       <c r="P15" t="n">
-        <v>3.013693752023309</v>
+        <v>6.080665153554521</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.884298481435734</v>
+        <v>3.608240878598196</v>
       </c>
       <c r="R15" t="n">
-        <v>2.459589475393445</v>
+        <v>5.768259168831291</v>
       </c>
       <c r="S15" t="n">
-        <v>3.140796222603554</v>
+        <v>3.339918190852794</v>
       </c>
       <c r="T15" t="n">
-        <v>3.959066386982261</v>
+        <v>2.664660421627964</v>
       </c>
       <c r="U15" t="n">
-        <v>2.931381875597044</v>
+        <v>7.689193498530002</v>
       </c>
       <c r="V15" t="n">
-        <v>4.62754450876044</v>
+        <v>3.235272723326084</v>
       </c>
       <c r="W15" t="n">
-        <v>1.749107033503357</v>
+        <v>6.492692678201303</v>
       </c>
       <c r="X15" t="n">
-        <v>3.206742334406234</v>
+        <v>7.616122572883218</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.760341135364616</v>
+        <v>6.02361325537827</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.176997839157464</v>
+        <v>10.13879029304401</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.840334199837973</v>
+        <v>3.501022441099919</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.853924638714255</v>
+        <v>7.080399858805808</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.369137246382364</v>
+        <v>3.771635162655571</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.863887360632361</v>
+        <v>10.86811174602316</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.717884972170687</v>
+        <v>1.657610240065418</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.958653985518713</v>
+        <v>2.435933406566218</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.361897450689657</v>
+        <v>3.164919411654687</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.693543010880485</v>
+        <v>8.118572204829263</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.60086619398554</v>
+        <v>4.509728724803842</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4.075928147185971</v>
+        <v>2.262981899651551</v>
       </c>
       <c r="AK15" t="n">
-        <v>6.55699229983876</v>
+        <v>4.717193301800976</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.665656815847397</v>
+        <v>2.823336170297108</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.830954646368538</v>
+        <v>9.041861534520164</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.080796127723367</v>
+        <v>4.547883481788031</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.968162404945299</v>
+        <v>1.745946283163551</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.225427586206914</v>
+        <v>3.978659895515627</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.846249334988474</v>
+        <v>1.065305314395193</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.400346020761246</v>
+        <v>2.797084030403545</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.441340937270341</v>
+        <v>3.19467178227753</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.296406335736482</v>
+        <v>7.528921648650079</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.795880100366118</v>
+        <v>2.766289812814842</v>
       </c>
       <c r="AV15" t="n">
-        <v>5.413573827215961</v>
+        <v>9.719541493145121</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.111925805301603</v>
+        <v>17.84402445103704</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.763347199603951</v>
+        <v>17.48336666261694</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.44037703265586</v>
+        <v>7.257643071770737</v>
       </c>
       <c r="D16" t="n">
-        <v>14.80563016888553</v>
+        <v>19.31565824249452</v>
       </c>
       <c r="E16" t="n">
-        <v>6.998861464275683</v>
+        <v>26.73253260275986</v>
       </c>
       <c r="F16" t="n">
-        <v>10.53610108852165</v>
+        <v>35.46506894668247</v>
       </c>
       <c r="G16" t="n">
-        <v>15.72849217170038</v>
+        <v>13.78685448527773</v>
       </c>
       <c r="H16" t="n">
-        <v>80.06340898320275</v>
+        <v>21.33440651289633</v>
       </c>
       <c r="I16" t="n">
-        <v>10.83503113144456</v>
+        <v>53.53196126679858</v>
       </c>
       <c r="J16" t="n">
-        <v>19.25471224053858</v>
+        <v>34.8413432884763</v>
       </c>
       <c r="K16" t="n">
-        <v>146.4807927607629</v>
+        <v>60.81956999400545</v>
       </c>
       <c r="L16" t="n">
-        <v>52.61986297615785</v>
+        <v>25.38963637930805</v>
       </c>
       <c r="M16" t="n">
-        <v>53.16468774301322</v>
+        <v>61.2889609812872</v>
       </c>
       <c r="N16" t="n">
-        <v>54.97511314386883</v>
+        <v>64.78308727927347</v>
       </c>
       <c r="O16" t="n">
-        <v>32.21024019458802</v>
+        <v>100.5554663832245</v>
       </c>
       <c r="P16" t="n">
-        <v>81.93549353559828</v>
+        <v>61.58722630301224</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.89812220854156</v>
+        <v>55.27827694082583</v>
       </c>
       <c r="R16" t="n">
-        <v>21.47074454569487</v>
+        <v>79.00837340465326</v>
       </c>
       <c r="S16" t="n">
-        <v>41.05783973882244</v>
+        <v>158.9602114523919</v>
       </c>
       <c r="T16" t="n">
-        <v>53.54597980235411</v>
+        <v>27.49006413672243</v>
       </c>
       <c r="U16" t="n">
-        <v>14.63678783146336</v>
+        <v>91.83875561784042</v>
       </c>
       <c r="V16" t="n">
-        <v>123.1400744001784</v>
+        <v>89.74782686156054</v>
       </c>
       <c r="W16" t="n">
-        <v>41.5288001715433</v>
+        <v>109.0843460986188</v>
       </c>
       <c r="X16" t="n">
-        <v>60.43271712799333</v>
+        <v>28.52345920703015</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.4175498923105</v>
+        <v>70.67164224576499</v>
       </c>
       <c r="Z16" t="n">
-        <v>40.53064754932345</v>
+        <v>73.18644874063955</v>
       </c>
       <c r="AA16" t="n">
-        <v>62.48951421792134</v>
+        <v>45.33396145194275</v>
       </c>
       <c r="AB16" t="n">
-        <v>68.31742284099859</v>
+        <v>76.2678930874001</v>
       </c>
       <c r="AC16" t="n">
-        <v>58.27789563013951</v>
+        <v>115.8601267770732</v>
       </c>
       <c r="AD16" t="n">
-        <v>57.57183805214504</v>
+        <v>107.5023175228598</v>
       </c>
       <c r="AE16" t="n">
-        <v>80.2593943458305</v>
+        <v>65.37071875867989</v>
       </c>
       <c r="AF16" t="n">
-        <v>42.91479884518618</v>
+        <v>61.67680239670614</v>
       </c>
       <c r="AG16" t="n">
-        <v>60.16436477669398</v>
+        <v>68.04920460021374</v>
       </c>
       <c r="AH16" t="n">
-        <v>84.07589184656732</v>
+        <v>121.2124216029991</v>
       </c>
       <c r="AI16" t="n">
-        <v>53.52109273795536</v>
+        <v>51.2996712951084</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25.1346809216809</v>
+        <v>36.60820969088424</v>
       </c>
       <c r="AK16" t="n">
-        <v>71.38037290849492</v>
+        <v>21.36897791705137</v>
       </c>
       <c r="AL16" t="n">
-        <v>35.65084477116201</v>
+        <v>23.89308637572154</v>
       </c>
       <c r="AM16" t="n">
-        <v>21.11542965509068</v>
+        <v>21.23692923353881</v>
       </c>
       <c r="AN16" t="n">
-        <v>28.04017857848367</v>
+        <v>13.02763066277804</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.77706523992847</v>
+        <v>55.84454240250066</v>
       </c>
       <c r="AP16" t="n">
-        <v>14.32383340175245</v>
+        <v>30.66407105337072</v>
       </c>
       <c r="AQ16" t="n">
-        <v>16.32629524361647</v>
+        <v>9.348750721781439</v>
       </c>
       <c r="AR16" t="n">
-        <v>18.5796640161883</v>
+        <v>19.8957292674484</v>
       </c>
       <c r="AS16" t="n">
-        <v>12.05245816821552</v>
+        <v>19.57154800551664</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.446824119131481</v>
+        <v>21.47015954598131</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.935495785241866</v>
+        <v>18.98175833886284</v>
       </c>
       <c r="AV16" t="n">
-        <v>11.00478508303758</v>
+        <v>13.94314387239629</v>
       </c>
       <c r="AW16" t="n">
-        <v>10.28429767440474</v>
+        <v>11.89543503104622</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.61867133565767</v>
+        <v>10.93610422285022</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>8.66651833421165</v>
+        <v>4.844139449950936</v>
       </c>
       <c r="D17" t="n">
-        <v>27.74125602974767</v>
+        <v>1.417351540334504</v>
       </c>
       <c r="E17" t="n">
-        <v>24.01359576318333</v>
+        <v>30.71377295980554</v>
       </c>
       <c r="F17" t="n">
-        <v>26.05604231121387</v>
+        <v>14.98568758430807</v>
       </c>
       <c r="G17" t="n">
-        <v>25.89123532008167</v>
+        <v>37.19000985495031</v>
       </c>
       <c r="H17" t="n">
-        <v>19.01531071869286</v>
+        <v>21.71228842933293</v>
       </c>
       <c r="I17" t="n">
-        <v>81.08529585665055</v>
+        <v>68.61494719836479</v>
       </c>
       <c r="J17" t="n">
-        <v>20.5264906540526</v>
+        <v>55.00586529521985</v>
       </c>
       <c r="K17" t="n">
-        <v>17.11471186850777</v>
+        <v>55.03275927762619</v>
       </c>
       <c r="L17" t="n">
-        <v>27.19043047834219</v>
+        <v>12.09122931645913</v>
       </c>
       <c r="M17" t="n">
-        <v>27.35990187619836</v>
+        <v>48.20726823649643</v>
       </c>
       <c r="N17" t="n">
-        <v>257.567439148551</v>
+        <v>33.94454508676669</v>
       </c>
       <c r="O17" t="n">
-        <v>34.71436586807306</v>
+        <v>41.27582614590872</v>
       </c>
       <c r="P17" t="n">
-        <v>35.31619227487598</v>
+        <v>48.52207573850566</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.45523313112498</v>
+        <v>225.3268474667253</v>
       </c>
       <c r="R17" t="n">
-        <v>22.11794171986429</v>
+        <v>87.14100816243975</v>
       </c>
       <c r="S17" t="n">
-        <v>192.4792092988507</v>
+        <v>48.11785718346159</v>
       </c>
       <c r="T17" t="n">
-        <v>33.77211873000567</v>
+        <v>13.27900958839976</v>
       </c>
       <c r="U17" t="n">
-        <v>46.66882764257494</v>
+        <v>71.53488713145985</v>
       </c>
       <c r="V17" t="n">
-        <v>43.96018278478242</v>
+        <v>10.41462679647526</v>
       </c>
       <c r="W17" t="n">
-        <v>62.28300528513677</v>
+        <v>39.8954210868784</v>
       </c>
       <c r="X17" t="n">
-        <v>127.5888413838607</v>
+        <v>63.40004605947131</v>
       </c>
       <c r="Y17" t="n">
-        <v>111.9437745277478</v>
+        <v>30.78429801237952</v>
       </c>
       <c r="Z17" t="n">
-        <v>48.87082147474354</v>
+        <v>33.26309005616222</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.45062895884138</v>
+        <v>38.290234105696</v>
       </c>
       <c r="AB17" t="n">
-        <v>40.44474677529694</v>
+        <v>23.67562104182721</v>
       </c>
       <c r="AC17" t="n">
-        <v>39.0700425830581</v>
+        <v>55.29834699742958</v>
       </c>
       <c r="AD17" t="n">
-        <v>48.7051176612222</v>
+        <v>70.0744612107201</v>
       </c>
       <c r="AE17" t="n">
-        <v>53.6987096740019</v>
+        <v>123.0431766068407</v>
       </c>
       <c r="AF17" t="n">
-        <v>25.22461427375798</v>
+        <v>18.34986334903063</v>
       </c>
       <c r="AG17" t="n">
-        <v>31.86288461137043</v>
+        <v>6.607476517894812</v>
       </c>
       <c r="AH17" t="n">
-        <v>25.82179550536056</v>
+        <v>16.70502406230794</v>
       </c>
       <c r="AI17" t="n">
-        <v>22.99519767074919</v>
+        <v>47.22265321559902</v>
       </c>
       <c r="AJ17" t="n">
-        <v>31.07639916503323</v>
+        <v>32.57393087229401</v>
       </c>
       <c r="AK17" t="n">
-        <v>11.79216861852461</v>
+        <v>23.00424526986789</v>
       </c>
       <c r="AL17" t="n">
-        <v>21.90701384865629</v>
+        <v>33.81421168907</v>
       </c>
       <c r="AM17" t="n">
-        <v>18.32891737399859</v>
+        <v>16.35222544715952</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.49215299999998</v>
+        <v>27.4576070864044</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.108026687203711</v>
+        <v>11.32899539028312</v>
       </c>
       <c r="AP17" t="n">
-        <v>29.23149053447698</v>
+        <v>25.82877504406969</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.895617798486692</v>
+        <v>23.12974949956974</v>
       </c>
       <c r="AR17" t="n">
-        <v>17.04281732118273</v>
+        <v>69.15793307481266</v>
       </c>
       <c r="AS17" t="n">
-        <v>8.88544145884768</v>
+        <v>16.56241055027423</v>
       </c>
       <c r="AT17" t="n">
-        <v>39.19250125188457</v>
+        <v>50.53444181192294</v>
       </c>
       <c r="AU17" t="n">
-        <v>18.9423751724461</v>
+        <v>12.09119531845943</v>
       </c>
       <c r="AV17" t="n">
-        <v>20.40849445306873</v>
+        <v>5.885517716569063</v>
       </c>
       <c r="AW17" t="n">
-        <v>47.49435520894452</v>
+        <v>12.95271512801879</v>
       </c>
       <c r="AX17" t="n">
-        <v>28.32246120574264</v>
+        <v>10.16716825303058</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.572182885744538</v>
+        <v>2.897539965150821</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5563394</v>
+        <v>1.212076381796127</v>
       </c>
       <c r="E18" t="n">
-        <v>3.262416640210022</v>
+        <v>1.768924280329156</v>
       </c>
       <c r="F18" t="n">
-        <v>4.671696718811277</v>
+        <v>8.066641783413427</v>
       </c>
       <c r="G18" t="n">
-        <v>56.56078839886536</v>
+        <v>1.751920077569576</v>
       </c>
       <c r="H18" t="n">
-        <v>9.466843493461454</v>
+        <v>2.042983937198338</v>
       </c>
       <c r="I18" t="n">
-        <v>11.87455194596577</v>
+        <v>20.41030648272269</v>
       </c>
       <c r="J18" t="n">
-        <v>8.607431564584648</v>
+        <v>25.13218937840541</v>
       </c>
       <c r="K18" t="n">
-        <v>61.73830583832513</v>
+        <v>10.17947241565193</v>
       </c>
       <c r="L18" t="n">
-        <v>17.485288610814</v>
+        <v>30.16596817997678</v>
       </c>
       <c r="M18" t="n">
-        <v>17.56139170626299</v>
+        <v>39.05647419134748</v>
       </c>
       <c r="N18" t="n">
-        <v>43.23708835699691</v>
+        <v>27.05190617331893</v>
       </c>
       <c r="O18" t="n">
-        <v>48.29785098318243</v>
+        <v>39.88835091651608</v>
       </c>
       <c r="P18" t="n">
-        <v>42.5173492681461</v>
+        <v>26.02235624461855</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.74236155803107</v>
+        <v>84.20564296887902</v>
       </c>
       <c r="R18" t="n">
-        <v>13.74201289906177</v>
+        <v>8.719627019128176</v>
       </c>
       <c r="S18" t="n">
-        <v>25.06539627473515</v>
+        <v>6.196273291591805</v>
       </c>
       <c r="T18" t="n">
-        <v>10.58866526320664</v>
+        <v>25.6347739589717</v>
       </c>
       <c r="U18" t="n">
-        <v>10.68775616077597</v>
+        <v>14.71015235181247</v>
       </c>
       <c r="V18" t="n">
-        <v>8.24334086448482</v>
+        <v>14.25913470306763</v>
       </c>
       <c r="W18" t="n">
-        <v>16.19772389708459</v>
+        <v>16.30613063118186</v>
       </c>
       <c r="X18" t="n">
-        <v>19.36335973731846</v>
+        <v>37.42767801064824</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.19550283564383</v>
+        <v>20.7211865604139</v>
       </c>
       <c r="Z18" t="n">
-        <v>35.43841056975278</v>
+        <v>35.33606282331479</v>
       </c>
       <c r="AA18" t="n">
-        <v>16.60541067045193</v>
+        <v>12.42269237480776</v>
       </c>
       <c r="AB18" t="n">
-        <v>25.17987198230157</v>
+        <v>13.04200835459474</v>
       </c>
       <c r="AC18" t="n">
-        <v>23.66388484748139</v>
+        <v>9.976752979112975</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5295496</v>
+        <v>10.71943677273421</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.46195030885933</v>
+        <v>69.75737487163782</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.608277594762026</v>
+        <v>13.3099806434275</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.063721704857175</v>
+        <v>6.944754430411533</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.82790910415051</v>
+        <v>16.27672897720772</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.635046025644257</v>
+        <v>10.115568276438</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4.21653503965605</v>
+        <v>5.875492445747564</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.005897142737795</v>
+        <v>22.90053763627369</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.078331127366268</v>
+        <v>3.230329404703527</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.643594364415421</v>
+        <v>2.431042774939434</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.333258246036128</v>
+        <v>2.254729834998952</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.22693946557478</v>
+        <v>3.18218533709443</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.263995062230071</v>
+        <v>5.168802864743071</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.876412893569343</v>
+        <v>1.727464524330961</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.489840264641628</v>
+        <v>0.8254680194796622</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.047142857142858</v>
+        <v>0.8016021046616633</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.908308265292157</v>
+        <v>2.029630199458683</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.84531905159745</v>
+        <v>1.205052854602148</v>
       </c>
       <c r="AV18" t="n">
-        <v>11.95964589529054</v>
+        <v>2.957244437024797</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.314822376480195</v>
+        <v>4.831936837674127</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.469731321432719</v>
+        <v>5.222697787028259</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1.83</v>
+        <v>25.64071054777462</v>
       </c>
       <c r="D19" t="n">
-        <v>2.62</v>
+        <v>7.711779891643347</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>1.55159410115044</v>
       </c>
       <c r="F19" t="n">
-        <v>9.51</v>
+        <v>14.89292961482771</v>
       </c>
       <c r="G19" t="n">
-        <v>1.77</v>
+        <v>24.22149941555771</v>
       </c>
       <c r="H19" t="n">
-        <v>21.92</v>
+        <v>19.91052778585269</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1.831257375805063</v>
       </c>
       <c r="J19" t="n">
-        <v>5.125001074468384</v>
+        <v>7.233480362938747</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>17.12988107855765</v>
       </c>
       <c r="L19" t="n">
-        <v>33.7</v>
+        <v>41.29675375918492</v>
       </c>
       <c r="M19" t="n">
-        <v>47.37</v>
+        <v>35.04049850097712</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7518699325025</v>
+        <v>32.45497887955</v>
       </c>
       <c r="O19" t="n">
-        <v>60.1</v>
+        <v>35.05912174664559</v>
       </c>
       <c r="P19" t="n">
-        <v>105.42</v>
+        <v>41.28424819813353</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.71</v>
+        <v>38.47767521991452</v>
       </c>
       <c r="R19" t="n">
-        <v>20.33852</v>
+        <v>2.827937170824101</v>
       </c>
       <c r="S19" t="n">
-        <v>28.39</v>
+        <v>11.69893562640955</v>
       </c>
       <c r="T19" t="n">
-        <v>12.39</v>
+        <v>6.219916935851645</v>
       </c>
       <c r="U19" t="n">
-        <v>24.33</v>
+        <v>21.60646258870868</v>
       </c>
       <c r="V19" t="n">
-        <v>81.77</v>
+        <v>26.25453968609395</v>
       </c>
       <c r="W19" t="n">
-        <v>51.13</v>
+        <v>11.87953187395461</v>
       </c>
       <c r="X19" t="n">
-        <v>35.47</v>
+        <v>4.879985554435277</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.06</v>
+        <v>6.080102501366295</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.37</v>
+        <v>14.01537981019323</v>
       </c>
       <c r="AA19" t="n">
-        <v>14.77</v>
+        <v>2.45536277571095</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.04</v>
+        <v>1.077156911565252</v>
       </c>
       <c r="AC19" t="n">
-        <v>72.67</v>
+        <v>1.220346936321953</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.354894747245893</v>
+        <v>3.776614537919557</v>
       </c>
       <c r="AE19" t="n">
-        <v>3.5</v>
+        <v>6.498755973456234</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.82625</v>
+        <v>9.531857047253737</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.23</v>
+        <v>17.45736358080246</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.98</v>
+        <v>14.22758900358065</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.07</v>
+        <v>4.510265999036507</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.65</v>
+        <v>16.17975952657583</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.54</v>
+        <v>4.40126113207663</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.16</v>
+        <v>13.73690036753706</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.64</v>
+        <v>7.184251713493921</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.64</v>
+        <v>36.39244313783317</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.77</v>
+        <v>1.565885012442191</v>
       </c>
       <c r="AP19" t="n">
-        <v>19.21</v>
+        <v>3.150534060395264</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.4720833565745357</v>
+        <v>8.574808444867589</v>
       </c>
       <c r="AR19" t="n">
-        <v>20.15</v>
+        <v>3.638634626495316</v>
       </c>
       <c r="AS19" t="n">
-        <v>13.45</v>
+        <v>1.248521936383454</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.13</v>
+        <v>18.23427313374059</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.91</v>
+        <v>37.05805567268779</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.03</v>
+        <v>2.474734565484341</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.34</v>
+        <v>13.3842896190332</v>
       </c>
       <c r="AX19" t="n">
-        <v>1</v>
+        <v>2.471220736496087</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.88326804286853</v>
+        <v>7.957242472083516</v>
       </c>
       <c r="D20" t="n">
-        <v>14.84531291662529</v>
+        <v>15.86449557967578</v>
       </c>
       <c r="E20" t="n">
-        <v>17.19838162853501</v>
+        <v>27.889936159727</v>
       </c>
       <c r="F20" t="n">
-        <v>21.84560624055791</v>
+        <v>14.31003238977308</v>
       </c>
       <c r="G20" t="n">
-        <v>21.63151823416296</v>
+        <v>12.44657799331855</v>
       </c>
       <c r="H20" t="n">
-        <v>22.01487024507726</v>
+        <v>14.24269118737877</v>
       </c>
       <c r="I20" t="n">
-        <v>17.79239309998971</v>
+        <v>49.173125061738</v>
       </c>
       <c r="J20" t="n">
-        <v>20.84966794807252</v>
+        <v>51.91929326767444</v>
       </c>
       <c r="K20" t="n">
-        <v>22.84446344472943</v>
+        <v>28.95755815583301</v>
       </c>
       <c r="L20" t="n">
-        <v>70.68906617049535</v>
+        <v>18.78271198542502</v>
       </c>
       <c r="M20" t="n">
-        <v>92.93796910011537</v>
+        <v>32.76728955504343</v>
       </c>
       <c r="N20" t="n">
-        <v>65.64747223624279</v>
+        <v>63.96726525926154</v>
       </c>
       <c r="O20" t="n">
-        <v>46.62795852732841</v>
+        <v>45.36918473102845</v>
       </c>
       <c r="P20" t="n">
-        <v>104.9415949660436</v>
+        <v>108.7242164282069</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.97309839550778</v>
+        <v>51.11107870593427</v>
       </c>
       <c r="R20" t="n">
-        <v>34.3101088105911</v>
+        <v>49.90274180619355</v>
       </c>
       <c r="S20" t="n">
-        <v>38.26659797724854</v>
+        <v>49.54344451328247</v>
       </c>
       <c r="T20" t="n">
-        <v>101.2686187328924</v>
+        <v>14.73383329113255</v>
       </c>
       <c r="U20" t="n">
-        <v>68.0726055353468</v>
+        <v>108.461738528854</v>
       </c>
       <c r="V20" t="n">
-        <v>229.4985106012884</v>
+        <v>70.79542433428706</v>
       </c>
       <c r="W20" t="n">
-        <v>119.4744337389496</v>
+        <v>96.67608682366942</v>
       </c>
       <c r="X20" t="n">
-        <v>43.79328963107638</v>
+        <v>38.84794140870315</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.53430660786527</v>
+        <v>39.93316029015052</v>
       </c>
       <c r="Z20" t="n">
-        <v>63.38385059932082</v>
+        <v>46.46809884570452</v>
       </c>
       <c r="AA20" t="n">
-        <v>83.06156034211689</v>
+        <v>49.17164506375612</v>
       </c>
       <c r="AB20" t="n">
-        <v>107.3578136001761</v>
+        <v>87.78554292252815</v>
       </c>
       <c r="AC20" t="n">
-        <v>98.77136343528912</v>
+        <v>48.21247221307866</v>
       </c>
       <c r="AD20" t="n">
-        <v>129.8259350572564</v>
+        <v>94.70167186509936</v>
       </c>
       <c r="AE20" t="n">
-        <v>162.2448769826934</v>
+        <v>77.81302908524829</v>
       </c>
       <c r="AF20" t="n">
-        <v>135.5253582154923</v>
+        <v>52.4252868045903</v>
       </c>
       <c r="AG20" t="n">
-        <v>145.3820631532647</v>
+        <v>114.4850922442324</v>
       </c>
       <c r="AH20" t="n">
-        <v>74.66783152448959</v>
+        <v>59.51122231800967</v>
       </c>
       <c r="AI20" t="n">
-        <v>53.47976307602451</v>
+        <v>84.31993754092295</v>
       </c>
       <c r="AJ20" t="n">
-        <v>133.8798431889718</v>
+        <v>99.88497310193337</v>
       </c>
       <c r="AK20" t="n">
-        <v>44.14096697127349</v>
+        <v>31.89298445922559</v>
       </c>
       <c r="AL20" t="n">
-        <v>43.09505931489174</v>
+        <v>40.90557553593137</v>
       </c>
       <c r="AM20" t="n">
-        <v>29.84023175287217</v>
+        <v>41.13406329812793</v>
       </c>
       <c r="AN20" t="n">
-        <v>26.86470316118513</v>
+        <v>42.10015521116456</v>
       </c>
       <c r="AO20" t="n">
-        <v>18.94705774413028</v>
+        <v>29.87267045504527</v>
       </c>
       <c r="AP20" t="n">
-        <v>17.9339457548214</v>
+        <v>14.13588439445369</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26.52692096094843</v>
+        <v>14.75696555901454</v>
       </c>
       <c r="AR20" t="n">
-        <v>18.01704232932832</v>
+        <v>17.92857581074634</v>
       </c>
       <c r="AS20" t="n">
-        <v>20.08404544920135</v>
+        <v>14.06256841686631</v>
       </c>
       <c r="AT20" t="n">
-        <v>26.74733367654105</v>
+        <v>13.84909861811541</v>
       </c>
       <c r="AU20" t="n">
-        <v>16.73518576205965</v>
+        <v>22.37200792781018</v>
       </c>
       <c r="AV20" t="n">
-        <v>17.60769317718852</v>
+        <v>29.79541159431379</v>
       </c>
       <c r="AW20" t="n">
-        <v>28.14043619152397</v>
+        <v>16.30597502615809</v>
       </c>
       <c r="AX20" t="n">
-        <v>11.17355255822896</v>
+        <v>27.28394726463026</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2.937559213740322</v>
+        <v>5.022293456472355</v>
       </c>
       <c r="D21" t="n">
-        <v>2.333963114311148</v>
+        <v>0.7340713570991414</v>
       </c>
       <c r="E21" t="n">
-        <v>3.426552643647642</v>
+        <v>7.295200842004723</v>
       </c>
       <c r="F21" t="n">
-        <v>1.870202522518312</v>
+        <v>3.189965700734563</v>
       </c>
       <c r="G21" t="n">
-        <v>2.807858807898236</v>
+        <v>0.4881660822366001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5493824462295952</v>
+        <v>1.132181707646144</v>
       </c>
       <c r="I21" t="n">
-        <v>4.35688142863432</v>
+        <v>0.1611449741616971</v>
       </c>
       <c r="J21" t="n">
-        <v>11.70182050576049</v>
+        <v>1.441269417466537</v>
       </c>
       <c r="K21" t="n">
-        <v>3.990676001499326</v>
+        <v>3.258770807697005</v>
       </c>
       <c r="L21" t="n">
-        <v>4.768393167077738</v>
+        <v>7.164307490587733</v>
       </c>
       <c r="M21" t="n">
-        <v>2.962306429469763</v>
+        <v>1.581112794141272</v>
       </c>
       <c r="N21" t="n">
-        <v>2.579556042751439</v>
+        <v>1.375328562239341</v>
       </c>
       <c r="O21" t="n">
-        <v>5.573963956604876</v>
+        <v>13.07950986079293</v>
       </c>
       <c r="P21" t="n">
-        <v>3.013693752023309</v>
+        <v>9.616854443776347</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.462987494527456</v>
+        <v>4.139462144426761</v>
       </c>
       <c r="R21" t="n">
-        <v>1.232596147845855</v>
+        <v>1.421156586396341</v>
       </c>
       <c r="S21" t="n">
-        <v>4.192076698062586</v>
+        <v>3.504445523621488</v>
       </c>
       <c r="T21" t="n">
-        <v>2.433633362627368</v>
+        <v>4.550958162594139</v>
       </c>
       <c r="U21" t="n">
-        <v>4.568915267150778</v>
+        <v>4.191514234536011</v>
       </c>
       <c r="V21" t="n">
-        <v>4.62754450876044</v>
+        <v>3.449648476692627</v>
       </c>
       <c r="W21" t="n">
-        <v>2.973636211190892</v>
+        <v>5.172359750550375</v>
       </c>
       <c r="X21" t="n">
-        <v>4.263836039436418</v>
+        <v>2.595632238182942</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.889608280461662</v>
+        <v>1.856569108119012</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.560202088717883</v>
+        <v>4.386365863846657</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.133211135563637</v>
+        <v>4.430466809787849</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.049668497205403</v>
+        <v>5.256255284510791</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.137018741670428</v>
+        <v>3.836822796549748</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.413137470823195</v>
+        <v>10.19089262761847</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.089648751917565</v>
+        <v>8.091982076864134</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.30069507510132</v>
+        <v>9.81995886680763</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.866421151775322</v>
+        <v>6.660249389406799</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.735885759113999</v>
+        <v>6.5289294574357</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.363497716534675</v>
+        <v>5.083507188167254</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.900918879330263</v>
+        <v>1.726437150928376</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.410824209139877</v>
+        <v>2.713484602232923</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.827631627534989</v>
+        <v>6.052839285640526</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.856058529042379</v>
+        <v>18.12119544627269</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.458907031765116</v>
+        <v>5.405315666298813</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.647313268697371</v>
+        <v>4.092696448201293</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.373244797684777</v>
+        <v>1.539178662676616</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.342153846153846</v>
+        <v>12.99671364255595</v>
       </c>
       <c r="AR21" t="n">
-        <v>7.33049472450176</v>
+        <v>3.106181137696882</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.860053943234414</v>
+        <v>1.23383150095743</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.414878530598665</v>
+        <v>2.64283033007919</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.690060005217846</v>
+        <v>3.121538299024932</v>
       </c>
       <c r="AV21" t="n">
-        <v>2.83766866763952</v>
+        <v>9.451850370813045</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.667219936186436</v>
+        <v>0.2835162145026933</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.686924348579075</v>
+        <v>0.7528858999586714</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.25425384455895</v>
+        <v>13.98838636025554</v>
       </c>
       <c r="D22" t="n">
-        <v>8.691988742635022</v>
+        <v>12.10392453384043</v>
       </c>
       <c r="E22" t="n">
-        <v>7.528599055543063</v>
+        <v>14.30234109071534</v>
       </c>
       <c r="F22" t="n">
-        <v>10.41578446730119</v>
+        <v>7.98532284294498</v>
       </c>
       <c r="G22" t="n">
-        <v>11.48694345663919</v>
+        <v>10.10627135465722</v>
       </c>
       <c r="H22" t="n">
-        <v>12.03030271572849</v>
+        <v>16.54004262540923</v>
       </c>
       <c r="I22" t="n">
-        <v>10.83503113144456</v>
+        <v>31.92499034112479</v>
       </c>
       <c r="J22" t="n">
-        <v>15.08685366053283</v>
+        <v>129.6219423835086</v>
       </c>
       <c r="K22" t="n">
-        <v>9.546328009016548</v>
+        <v>25.43000421681399</v>
       </c>
       <c r="L22" t="n">
-        <v>11.36699081944917</v>
+        <v>120.6931292923218</v>
       </c>
       <c r="M22" t="n">
-        <v>11.71859394425071</v>
+        <v>105.4350353089863</v>
       </c>
       <c r="N22" t="n">
-        <v>74.70166709787156</v>
+        <v>40.39821075203618</v>
       </c>
       <c r="O22" t="n">
-        <v>38.15050350923667</v>
+        <v>73.86409717658748</v>
       </c>
       <c r="P22" t="n">
-        <v>115.8721874009379</v>
+        <v>38.30589641663406</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.62821749320698</v>
+        <v>71.93106841019576</v>
       </c>
       <c r="R22" t="n">
-        <v>35.74589921717254</v>
+        <v>55.85735000536459</v>
       </c>
       <c r="S22" t="n">
-        <v>46.28776586157654</v>
+        <v>30.22856528730729</v>
       </c>
       <c r="T22" t="n">
-        <v>175.0194782608696</v>
+        <v>40.95398029307202</v>
       </c>
       <c r="U22" t="n">
-        <v>35.19223968976218</v>
+        <v>98.32844927101219</v>
       </c>
       <c r="V22" t="n">
-        <v>30.89558087262656</v>
+        <v>180.1428709193887</v>
       </c>
       <c r="W22" t="n">
-        <v>57.08322295805739</v>
+        <v>38.39969249686715</v>
       </c>
       <c r="X22" t="n">
-        <v>41.67732820232404</v>
+        <v>95.2714052829986</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.79377151342005</v>
+        <v>57.76801434762825</v>
       </c>
       <c r="Z22" t="n">
-        <v>35.65264381278764</v>
+        <v>34.80411244528356</v>
       </c>
       <c r="AA22" t="n">
-        <v>77.44805807079247</v>
+        <v>68.39272733324256</v>
       </c>
       <c r="AB22" t="n">
-        <v>39.41743937975652</v>
+        <v>100.3234930493779</v>
       </c>
       <c r="AC22" t="n">
-        <v>59.07118599050234</v>
+        <v>51.13071661707675</v>
       </c>
       <c r="AD22" t="n">
-        <v>79.70009654826677</v>
+        <v>92.01859022344803</v>
       </c>
       <c r="AE22" t="n">
-        <v>127.7792726339478</v>
+        <v>60.65392558837108</v>
       </c>
       <c r="AF22" t="n">
-        <v>37.09933162938256</v>
+        <v>82.74054941775179</v>
       </c>
       <c r="AG22" t="n">
-        <v>58.44107180338209</v>
+        <v>60.55250759556335</v>
       </c>
       <c r="AH22" t="n">
-        <v>86.82461656853947</v>
+        <v>141.5539750823546</v>
       </c>
       <c r="AI22" t="n">
-        <v>71.79771858634884</v>
+        <v>118.9306194172592</v>
       </c>
       <c r="AJ22" t="n">
-        <v>77.33643818862816</v>
+        <v>40.27583299819182</v>
       </c>
       <c r="AK22" t="n">
-        <v>28.13900949013459</v>
+        <v>27.89430480681952</v>
       </c>
       <c r="AL22" t="n">
-        <v>21.17109282036428</v>
+        <v>84.76963271648775</v>
       </c>
       <c r="AM22" t="n">
-        <v>12.00409238877693</v>
+        <v>36.80400502984576</v>
       </c>
       <c r="AN22" t="n">
-        <v>20.3640289583001</v>
+        <v>22.4385041435133</v>
       </c>
       <c r="AO22" t="n">
-        <v>40.75132610508756</v>
+        <v>18.23943002295083</v>
       </c>
       <c r="AP22" t="n">
-        <v>12.41422865935075</v>
+        <v>19.04031636724067</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14.03201053970132</v>
+        <v>26.5278518875934</v>
       </c>
       <c r="AR22" t="n">
-        <v>15.53701625949774</v>
+        <v>11.04836670721616</v>
       </c>
       <c r="AS22" t="n">
-        <v>27.91477138643068</v>
+        <v>13.79079043395673</v>
       </c>
       <c r="AT22" t="n">
-        <v>13.28308420264558</v>
+        <v>19.07668077097394</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.946910569498304</v>
+        <v>15.00776393179809</v>
       </c>
       <c r="AV22" t="n">
-        <v>17.47766249442389</v>
+        <v>10.13388470745883</v>
       </c>
       <c r="AW22" t="n">
-        <v>11.3743656113574</v>
+        <v>20.95637780433061</v>
       </c>
       <c r="AX22" t="n">
-        <v>12.49364675984752</v>
+        <v>8.888034318943978</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>17.00938635740853</v>
+        <v>9.3251945972372</v>
       </c>
       <c r="D23" t="n">
-        <v>22.57106780357692</v>
+        <v>17.84600197571594</v>
       </c>
       <c r="E23" t="n">
-        <v>8.76989549114686</v>
+        <v>6.185490579750351</v>
       </c>
       <c r="F23" t="n">
-        <v>14.28156002863329</v>
+        <v>6.561882327959794</v>
       </c>
       <c r="G23" t="n">
-        <v>36.63553913068191</v>
+        <v>27.72651974198356</v>
       </c>
       <c r="H23" t="n">
-        <v>5.880980241468812</v>
+        <v>34.78728954168682</v>
       </c>
       <c r="I23" t="n">
-        <v>46.98540873673792</v>
+        <v>3.499392011019109</v>
       </c>
       <c r="J23" t="n">
-        <v>8.196749020265884</v>
+        <v>19.36751652725437</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2575145671507</v>
+        <v>17.04961200868376</v>
       </c>
       <c r="L23" t="n">
-        <v>44.44318452737321</v>
+        <v>30.85510812026567</v>
       </c>
       <c r="M23" t="n">
-        <v>8.331352764440481</v>
+        <v>37.38036406592764</v>
       </c>
       <c r="N23" t="n">
-        <v>58.58027335178807</v>
+        <v>8.368960154160781</v>
       </c>
       <c r="O23" t="n">
-        <v>33.24608227138971</v>
+        <v>63.39021736350078</v>
       </c>
       <c r="P23" t="n">
-        <v>91.76832725597359</v>
+        <v>44.3053012439438</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.350128985354333</v>
+        <v>43.25755313729649</v>
       </c>
       <c r="R23" t="n">
-        <v>75.89076145375176</v>
+        <v>86.06208924947214</v>
       </c>
       <c r="S23" t="n">
-        <v>19.83458451093909</v>
+        <v>20.08089559296643</v>
       </c>
       <c r="T23" t="n">
-        <v>36.2804493052009</v>
+        <v>56.81646644882464</v>
       </c>
       <c r="U23" t="n">
-        <v>47.66701368294945</v>
+        <v>49.71677589450354</v>
       </c>
       <c r="V23" t="n">
-        <v>32.7198425881347</v>
+        <v>35.75466002174158</v>
       </c>
       <c r="W23" t="n">
-        <v>54.60197855784568</v>
+        <v>33.91329198143491</v>
       </c>
       <c r="X23" t="n">
-        <v>81.74406613650072</v>
+        <v>129.8548366293849</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.483271974450947</v>
+        <v>14.97369864080317</v>
       </c>
       <c r="Z23" t="n">
-        <v>41.58092183883856</v>
+        <v>54.1943104629843</v>
       </c>
       <c r="AA23" t="n">
-        <v>27.93809578334321</v>
+        <v>109.2430749363001</v>
       </c>
       <c r="AB23" t="n">
-        <v>56.28976533436583</v>
+        <v>49.33855885173846</v>
       </c>
       <c r="AC23" t="n">
-        <v>18.20031596203234</v>
+        <v>80.5412764948284</v>
       </c>
       <c r="AD23" t="n">
-        <v>32.6356602216527</v>
+        <v>61.82795138353865</v>
       </c>
       <c r="AE23" t="n">
-        <v>41.86511120145605</v>
+        <v>29.16545405745627</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.18705234500246</v>
+        <v>57.17549864855322</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.556215571304053</v>
+        <v>5.648595537711284</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.05646058708142</v>
+        <v>24.13546918773372</v>
       </c>
       <c r="AI23" t="n">
-        <v>25.88185674488487</v>
+        <v>54.07654414095228</v>
       </c>
       <c r="AJ23" t="n">
-        <v>96.36428467608329</v>
+        <v>3.670981811988169</v>
       </c>
       <c r="AK23" t="n">
-        <v>83.94705527562154</v>
+        <v>44.75596257055226</v>
       </c>
       <c r="AL23" t="n">
-        <v>40.40664440340616</v>
+        <v>20.65711273510546</v>
       </c>
       <c r="AM23" t="n">
-        <v>40.44590434715042</v>
+        <v>46.93002646240195</v>
       </c>
       <c r="AN23" t="n">
-        <v>23.63199467028964</v>
+        <v>20.51096457333903</v>
       </c>
       <c r="AO23" t="n">
-        <v>34.89950356439252</v>
+        <v>62.48507276430073</v>
       </c>
       <c r="AP23" t="n">
-        <v>42.97267974904655</v>
+        <v>31.34672996581398</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23.91594567886962</v>
+        <v>36.89651595348902</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.522090238304814</v>
+        <v>54.82303993594915</v>
       </c>
       <c r="AS23" t="n">
-        <v>33.64504822890758</v>
+        <v>26.56489837103123</v>
       </c>
       <c r="AT23" t="n">
-        <v>6.411003021477278</v>
+        <v>73.14741993959474</v>
       </c>
       <c r="AU23" t="n">
-        <v>13.56445511291479</v>
+        <v>8.676017361565389</v>
       </c>
       <c r="AV23" t="n">
-        <v>22.34922887983099</v>
+        <v>38.32595832998211</v>
       </c>
       <c r="AW23" t="n">
-        <v>19.21794784041575</v>
+        <v>8.67510561803749</v>
       </c>
       <c r="AX23" t="n">
-        <v>25.55060612429203</v>
+        <v>20.6165800680358</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>1.054526554888262</v>
+        <v>3.732446579252974</v>
       </c>
       <c r="D24" t="n">
-        <v>2.368862227382126</v>
+        <v>1.893227941390818</v>
       </c>
       <c r="E24" t="n">
-        <v>1.014810588316861</v>
+        <v>2.314698781213719</v>
       </c>
       <c r="F24" t="n">
-        <v>8.594782936403734</v>
+        <v>2.402360505967994</v>
       </c>
       <c r="G24" t="n">
-        <v>6.051370044858343</v>
+        <v>6.054877938924195</v>
       </c>
       <c r="H24" t="n">
-        <v>4.816098725692564</v>
+        <v>5.858570771811626</v>
       </c>
       <c r="I24" t="n">
-        <v>7.519001361881096</v>
+        <v>1.5813671357047</v>
       </c>
       <c r="J24" t="n">
-        <v>66.44075439917766</v>
+        <v>3.297292276730497</v>
       </c>
       <c r="K24" t="n">
-        <v>13.58714285714285</v>
+        <v>20.73759977928134</v>
       </c>
       <c r="L24" t="n">
-        <v>19.263321</v>
+        <v>7.829483904907467</v>
       </c>
       <c r="M24" t="n">
-        <v>8.787156003110578</v>
+        <v>5.18233546545942</v>
       </c>
       <c r="N24" t="n">
-        <v>52.84651781005982</v>
+        <v>47.1187835097581</v>
       </c>
       <c r="O24" t="n">
-        <v>1.96436867909644</v>
+        <v>15.37481990553418</v>
       </c>
       <c r="P24" t="n">
-        <v>14.93270078536829</v>
+        <v>9.843844516936803</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.67680783939209</v>
+        <v>6.655585190977214</v>
       </c>
       <c r="R24" t="n">
-        <v>9.916864995541987</v>
+        <v>46.22681765831427</v>
       </c>
       <c r="S24" t="n">
-        <v>28.3301436366003</v>
+        <v>11.60829875140027</v>
       </c>
       <c r="T24" t="n">
-        <v>21.85043199058503</v>
+        <v>49.58919732226424</v>
       </c>
       <c r="U24" t="n">
-        <v>16.56924054113901</v>
+        <v>14.93997778834904</v>
       </c>
       <c r="V24" t="n">
-        <v>38.33735109208019</v>
+        <v>46.70441941099068</v>
       </c>
       <c r="W24" t="n">
-        <v>42.44638768565888</v>
+        <v>6.290755679415399</v>
       </c>
       <c r="X24" t="n">
-        <v>13.54743713227856</v>
+        <v>14.34032572433449</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.3236648445194</v>
+        <v>22.76963240459251</v>
       </c>
       <c r="Z24" t="n">
-        <v>33.20348607634264</v>
+        <v>52.34831881499797</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.30888301689879</v>
+        <v>8.673898900593358</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.488364250023819</v>
+        <v>17.68173068781796</v>
       </c>
       <c r="AC24" t="n">
-        <v>12.95495142785901</v>
+        <v>38.81751659225409</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.38606798101104</v>
+        <v>16.4920930490791</v>
       </c>
       <c r="AE24" t="n">
-        <v>20.9549791044597</v>
+        <v>20.63428695618365</v>
       </c>
       <c r="AF24" t="n">
-        <v>5.044638636920816</v>
+        <v>11.84150591005149</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.10745424321262</v>
+        <v>24.29686965660104</v>
       </c>
       <c r="AH24" t="n">
-        <v>25.28125241900159</v>
+        <v>8.81821138851832</v>
       </c>
       <c r="AI24" t="n">
-        <v>4.796460056867949</v>
+        <v>7.875075993552533</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18.47328255964707</v>
+        <v>13.12653084085233</v>
       </c>
       <c r="AK24" t="n">
-        <v>11.22599977312835</v>
+        <v>4.10011260564928</v>
       </c>
       <c r="AL24" t="n">
-        <v>2.234888844384822</v>
+        <v>5.035164730158735</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.443568483873078</v>
+        <v>5.11561162086359</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.1419797</v>
+        <v>4.54664168358177</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.28621993823715</v>
+        <v>3.324727039683008</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.025325447247496</v>
+        <v>2.592839028991548</v>
       </c>
       <c r="AQ24" t="n">
-        <v>10.13673242413673</v>
+        <v>2.671183795539749</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.450528626274699</v>
+        <v>1.459592919987858</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.284698189134203</v>
+        <v>1.730333971310241</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.391339447627787</v>
+        <v>2.380726702680415</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.297440100086939</v>
+        <v>10.76611493296713</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.414534991225016</v>
+        <v>0.279025733332856</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.844294545703373</v>
+        <v>0.7591359971534521</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.09807574879458</v>
+        <v>3.046660140321308</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>19.07</v>
+        <v>2.188422783617125</v>
       </c>
       <c r="D25" t="n">
-        <v>29.66</v>
+        <v>1.246149052928107</v>
       </c>
       <c r="E25" t="n">
-        <v>9.390000000000001</v>
+        <v>3.285532703237624</v>
       </c>
       <c r="F25" t="n">
-        <v>16.16</v>
+        <v>90.99103421081209</v>
       </c>
       <c r="G25" t="n">
-        <v>4.762486051014248</v>
+        <v>55.96692027342408</v>
       </c>
       <c r="H25" t="n">
-        <v>8.949999999999999</v>
+        <v>9.838736051198627</v>
       </c>
       <c r="I25" t="n">
-        <v>16.04</v>
+        <v>4.803464533984747</v>
       </c>
       <c r="J25" t="n">
-        <v>14.97</v>
+        <v>5.884373205738317</v>
       </c>
       <c r="K25" t="n">
-        <v>18.92</v>
+        <v>16.22649804054258</v>
       </c>
       <c r="L25" t="n">
-        <v>47.33</v>
+        <v>24.90075337982238</v>
       </c>
       <c r="M25" t="n">
-        <v>32.47</v>
+        <v>52.38037454785106</v>
       </c>
       <c r="N25" t="n">
-        <v>97.33</v>
+        <v>27.96660088761706</v>
       </c>
       <c r="O25" t="n">
-        <v>30.52</v>
+        <v>38.83196598037262</v>
       </c>
       <c r="P25" t="n">
-        <v>5.74349613321257</v>
+        <v>41.86766516787549</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.299999999999999</v>
+        <v>5.539868444754638</v>
       </c>
       <c r="R25" t="n">
-        <v>31.83</v>
+        <v>95.43898037911843</v>
       </c>
       <c r="S25" t="n">
-        <v>40.97</v>
+        <v>22.90855456470238</v>
       </c>
       <c r="T25" t="n">
-        <v>8.12090823520324</v>
+        <v>25.67468195448193</v>
       </c>
       <c r="U25" t="n">
-        <v>1.58</v>
+        <v>14.59008928032335</v>
       </c>
       <c r="V25" t="n">
-        <v>2.1</v>
+        <v>13.03985597424158</v>
       </c>
       <c r="W25" t="n">
-        <v>9.93</v>
+        <v>17.95033636422228</v>
       </c>
       <c r="X25" t="n">
-        <v>6.17</v>
+        <v>36.22694027767641</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.42</v>
+        <v>6.1276993744106</v>
       </c>
       <c r="Z25" t="n">
-        <v>39.69</v>
+        <v>8.898859919550718</v>
       </c>
       <c r="AA25" t="n">
-        <v>17.87</v>
+        <v>23.81046392791574</v>
       </c>
       <c r="AB25" t="n">
-        <v>50.79</v>
+        <v>2.681299189040272</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>14.75667832003966</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.74</v>
+        <v>14.28638617006139</v>
       </c>
       <c r="AE25" t="n">
-        <v>45.35</v>
+        <v>2.932664257057632</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.31</v>
+        <v>73.44629560552607</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.91</v>
+        <v>5.820727220117706</v>
       </c>
       <c r="AH25" t="n">
-        <v>7.6</v>
+        <v>34.52570409022616</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.23</v>
+        <v>17.75304427374207</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.54</v>
+        <v>10.34420497245601</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.776809016999999</v>
+        <v>3.262596020384683</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>2.77313280033607</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>1.05606068833297</v>
       </c>
       <c r="AN25" t="n">
-        <v>23.87</v>
+        <v>1.658385655773978</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.7991375</v>
+        <v>20.63857485813115</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.62</v>
+        <v>6.321228527407873</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11.02</v>
+        <v>10.11571421075815</v>
       </c>
       <c r="AR25" t="n">
-        <v>12.5</v>
+        <v>6.83289939904715</v>
       </c>
       <c r="AS25" t="n">
-        <v>15.17</v>
+        <v>1.409001235032182</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>2.14077523972025</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.207142857142856</v>
+        <v>4.449211435149869</v>
       </c>
       <c r="AV25" t="n">
-        <v>15.02</v>
+        <v>5.433005056653054</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.77</v>
+        <v>2.957906676481913</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>9.388860738113308</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>13.41429446078774</v>
+        <v>19.97073253953515</v>
       </c>
       <c r="D26" t="n">
-        <v>14.84531291662529</v>
+        <v>18.6726566690292</v>
       </c>
       <c r="E26" t="n">
-        <v>19.69897481145991</v>
+        <v>14.13522780870802</v>
       </c>
       <c r="F26" t="n">
-        <v>19.31302276737841</v>
+        <v>16.03057071797332</v>
       </c>
       <c r="G26" t="n">
-        <v>23.24598072089393</v>
+        <v>26.55053382852548</v>
       </c>
       <c r="H26" t="n">
-        <v>49.73046805434587</v>
+        <v>45.82480359180663</v>
       </c>
       <c r="I26" t="n">
-        <v>44.9151744566925</v>
+        <v>334.2404852669694</v>
       </c>
       <c r="J26" t="n">
-        <v>36.73146943086953</v>
+        <v>16.47333101932261</v>
       </c>
       <c r="K26" t="n">
-        <v>42.16014302902299</v>
+        <v>74.38369596808978</v>
       </c>
       <c r="L26" t="n">
-        <v>57.94513626193801</v>
+        <v>33.61122422830373</v>
       </c>
       <c r="M26" t="n">
-        <v>28.31573840580975</v>
+        <v>86.26327693345753</v>
       </c>
       <c r="N26" t="n">
-        <v>237.5474013449129</v>
+        <v>43.28673788361347</v>
       </c>
       <c r="O26" t="n">
-        <v>79.50316743854826</v>
+        <v>92.06511432845753</v>
       </c>
       <c r="P26" t="n">
-        <v>26.13697440847281</v>
+        <v>87.6292636653731</v>
       </c>
       <c r="Q26" t="n">
-        <v>75.54431302692377</v>
+        <v>42.46561797847089</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0901513236458</v>
+        <v>62.26841762880292</v>
       </c>
       <c r="S26" t="n">
-        <v>49.00399241598829</v>
+        <v>23.32115160426742</v>
       </c>
       <c r="T26" t="n">
-        <v>82.88016274171343</v>
+        <v>54.04904247271389</v>
       </c>
       <c r="U26" t="n">
-        <v>77.22040788686741</v>
+        <v>44.33202548381659</v>
       </c>
       <c r="V26" t="n">
-        <v>56.35789417589447</v>
+        <v>57.59204311317946</v>
       </c>
       <c r="W26" t="n">
-        <v>87.5675199177789</v>
+        <v>62.08384174590885</v>
       </c>
       <c r="X26" t="n">
-        <v>41.62396695454537</v>
+        <v>112.7662491551596</v>
       </c>
       <c r="Y26" t="n">
-        <v>53.73460026775242</v>
+        <v>48.05235309840258</v>
       </c>
       <c r="Z26" t="n">
-        <v>65.91966100585276</v>
+        <v>58.89149038959443</v>
       </c>
       <c r="AA26" t="n">
-        <v>102.6109615011749</v>
+        <v>84.55540398339633</v>
       </c>
       <c r="AB26" t="n">
-        <v>132.1782586981354</v>
+        <v>63.62031610574182</v>
       </c>
       <c r="AC26" t="n">
-        <v>130.7325405629171</v>
+        <v>83.45558890240292</v>
       </c>
       <c r="AD26" t="n">
-        <v>92.3406486074246</v>
+        <v>262.3218834435668</v>
       </c>
       <c r="AE26" t="n">
-        <v>42.83654231026856</v>
+        <v>177.6116057473572</v>
       </c>
       <c r="AF26" t="n">
-        <v>85.30209116564708</v>
+        <v>171.6858535028034</v>
       </c>
       <c r="AG26" t="n">
-        <v>84.74143576446197</v>
+        <v>124.0711300204513</v>
       </c>
       <c r="AH26" t="n">
-        <v>74.66783152448959</v>
+        <v>73.59037520042902</v>
       </c>
       <c r="AI26" t="n">
-        <v>54.66689043840482</v>
+        <v>39.03725915824231</v>
       </c>
       <c r="AJ26" t="n">
-        <v>123.7876095714259</v>
+        <v>49.55582043029344</v>
       </c>
       <c r="AK26" t="n">
-        <v>35.09270039066865</v>
+        <v>69.74329109927352</v>
       </c>
       <c r="AL26" t="n">
-        <v>21.39306689115794</v>
+        <v>30.62438204601568</v>
       </c>
       <c r="AM26" t="n">
-        <v>29.84023175287217</v>
+        <v>31.92708051296217</v>
       </c>
       <c r="AN26" t="n">
-        <v>21.89653942825609</v>
+        <v>73.21373565892414</v>
       </c>
       <c r="AO26" t="n">
-        <v>37.22636560346952</v>
+        <v>11.02936159237256</v>
       </c>
       <c r="AP26" t="n">
-        <v>25.52981027534267</v>
+        <v>29.82043790015848</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18.61562513143539</v>
+        <v>48.99158758452163</v>
       </c>
       <c r="AR26" t="n">
-        <v>16.90132661573738</v>
+        <v>50.82841757071515</v>
       </c>
       <c r="AS26" t="n">
-        <v>17.00169237205202</v>
+        <v>20.81708662347321</v>
       </c>
       <c r="AT26" t="n">
-        <v>28.92167253773035</v>
+        <v>19.53360068270449</v>
       </c>
       <c r="AU26" t="n">
-        <v>13.06634568327597</v>
+        <v>15.35069036574656</v>
       </c>
       <c r="AV26" t="n">
-        <v>26.30945061906687</v>
+        <v>24.19687622560738</v>
       </c>
       <c r="AW26" t="n">
-        <v>13.42479418786247</v>
+        <v>21.27716038196702</v>
       </c>
       <c r="AX26" t="n">
-        <v>17.28807817926321</v>
+        <v>18.2271982247389</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.561038532715246</v>
+        <v>0.6491907685056273</v>
       </c>
       <c r="D27" t="n">
-        <v>2.831772001077958</v>
+        <v>0.8713568251273776</v>
       </c>
       <c r="E27" t="n">
-        <v>3.71238670694864</v>
+        <v>26.38569956813889</v>
       </c>
       <c r="F27" t="n">
-        <v>2.612266666666667</v>
+        <v>2.935479896660689</v>
       </c>
       <c r="G27" t="n">
-        <v>1.991216970599181</v>
+        <v>0.7531650674868776</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001</v>
+        <v>0.3855346099218893</v>
       </c>
       <c r="I27" t="n">
-        <v>2.726334943200301</v>
+        <v>21.54953948303658</v>
       </c>
       <c r="J27" t="n">
-        <v>2.29567249042505</v>
+        <v>6.944008428134879</v>
       </c>
       <c r="K27" t="n">
-        <v>3.888283164499752</v>
+        <v>6.538944879950254</v>
       </c>
       <c r="L27" t="n">
-        <v>5.558283994022898</v>
+        <v>2.738965237899672</v>
       </c>
       <c r="M27" t="n">
-        <v>4.85317856669678</v>
+        <v>2.297495289799425</v>
       </c>
       <c r="N27" t="n">
-        <v>3.957831633579663</v>
+        <v>1.104492093042016</v>
       </c>
       <c r="O27" t="n">
-        <v>3.432186729296433</v>
+        <v>1.328963575021868</v>
       </c>
       <c r="P27" t="n">
-        <v>1.491521454219487</v>
+        <v>7.179387093243898</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.929367435422197</v>
+        <v>5.164358930239962</v>
       </c>
       <c r="R27" t="n">
-        <v>2.607976867056926</v>
+        <v>5.894451785422891</v>
       </c>
       <c r="S27" t="n">
-        <v>1.928190355300656</v>
+        <v>3.7177172031064</v>
       </c>
       <c r="T27" t="n">
-        <v>3.967455827086142</v>
+        <v>6.170896777753366</v>
       </c>
       <c r="U27" t="n">
-        <v>4.684364243311745</v>
+        <v>1.601885064791926</v>
       </c>
       <c r="V27" t="n">
-        <v>9.775136065027855</v>
+        <v>2.823384984648499</v>
       </c>
       <c r="W27" t="n">
-        <v>5.045682187891497</v>
+        <v>2.835437528378988</v>
       </c>
       <c r="X27" t="n">
-        <v>3.289663602071757</v>
+        <v>11.126474098647</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.139761781998858</v>
+        <v>2.919874227038766</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.445506557977633</v>
+        <v>2.302996543585643</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.628920977124161</v>
+        <v>5.916203363599426</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.594872694728523</v>
+        <v>5.595165800995607</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.708331249432795</v>
+        <v>5.706748361961817</v>
       </c>
       <c r="AD27" t="n">
-        <v>17.00024245235066</v>
+        <v>4.90258167345446</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.377885204602711</v>
+        <v>6.022868327817037</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.1481142633088</v>
+        <v>3.391188412703314</v>
       </c>
       <c r="AG27" t="n">
-        <v>3.844802402562661</v>
+        <v>6.386420414028125</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.140001715577728</v>
+        <v>3.765232963396779</v>
       </c>
       <c r="AI27" t="n">
-        <v>4.34694049796036</v>
+        <v>6.321018904751404</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5.764563036385098</v>
+        <v>7.280494222076642</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.410824209139877</v>
+        <v>2.398157566891198</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.182064204349326</v>
+        <v>5.386063335753042</v>
       </c>
       <c r="AM27" t="n">
-        <v>2.137595591788946</v>
+        <v>2.345068555473975</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.057852706039793</v>
+        <v>3.778334798510871</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.637007723017381</v>
+        <v>4.624957124349319</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.170644820469181</v>
+        <v>7.36005408344674</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.496868196523854</v>
+        <v>15.68616820737492</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.791543250847024</v>
+        <v>2.024054879630161</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.365187402811427</v>
+        <v>2.427454547271838</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.172801908159014</v>
+        <v>4.165034132894975</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.943309594219016</v>
+        <v>13.23674376801627</v>
       </c>
       <c r="AV27" t="n">
-        <v>6.820174573777388</v>
+        <v>9.776434372619356</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.8966785719222997</v>
+        <v>1.148785506121802</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.929296044236495</v>
+        <v>6.517318487971569</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>8.590806966804978</v>
+        <v>10.56935859348736</v>
       </c>
       <c r="D28" t="n">
-        <v>8.862244736485771</v>
+        <v>12.15445141520941</v>
       </c>
       <c r="E28" t="n">
-        <v>11.63366432992976</v>
+        <v>10.71095659666863</v>
       </c>
       <c r="F28" t="n">
-        <v>11.31832487309645</v>
+        <v>5.689855914091826</v>
       </c>
       <c r="G28" t="n">
-        <v>15.74428420737594</v>
+        <v>9.515568315433871</v>
       </c>
       <c r="H28" t="n">
-        <v>73.09518767268456</v>
+        <v>43.12917103262861</v>
       </c>
       <c r="I28" t="n">
-        <v>39.98310906657591</v>
+        <v>20.91853119880351</v>
       </c>
       <c r="J28" t="n">
-        <v>18.21624602294076</v>
+        <v>59.92249240507216</v>
       </c>
       <c r="K28" t="n">
-        <v>8.695339580288906</v>
+        <v>144.2300549248144</v>
       </c>
       <c r="L28" t="n">
-        <v>69.97234809654063</v>
+        <v>18.94873988601854</v>
       </c>
       <c r="M28" t="n">
-        <v>59.29029816590972</v>
+        <v>58.30628734824614</v>
       </c>
       <c r="N28" t="n">
-        <v>134.956399054051</v>
+        <v>124.5765985243342</v>
       </c>
       <c r="O28" t="n">
-        <v>74.31704444047831</v>
+        <v>100.9927225351309</v>
       </c>
       <c r="P28" t="n">
-        <v>60.03051660248492</v>
+        <v>182.9151128697188</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.84706301315659</v>
+        <v>126.1784353161234</v>
       </c>
       <c r="R28" t="n">
-        <v>204.3641052618143</v>
+        <v>58.44821660514905</v>
       </c>
       <c r="S28" t="n">
-        <v>100.1688837002555</v>
+        <v>37.218536717599</v>
       </c>
       <c r="T28" t="n">
-        <v>32.01697556895935</v>
+        <v>70.04331002241275</v>
       </c>
       <c r="U28" t="n">
-        <v>80.54459587421388</v>
+        <v>69.80675844265288</v>
       </c>
       <c r="V28" t="n">
-        <v>59.31332604660039</v>
+        <v>26.81291582883855</v>
       </c>
       <c r="W28" t="n">
-        <v>87.5616863729924</v>
+        <v>42.24928439855541</v>
       </c>
       <c r="X28" t="n">
-        <v>42.17092815136034</v>
+        <v>22.0487593900281</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.28875157057293</v>
+        <v>150.3582756250729</v>
       </c>
       <c r="Z28" t="n">
-        <v>63.38809613870798</v>
+        <v>44.22530271465532</v>
       </c>
       <c r="AA28" t="n">
-        <v>88.73100520645698</v>
+        <v>54.09359153964901</v>
       </c>
       <c r="AB28" t="n">
-        <v>45.06089020312138</v>
+        <v>76.30893191891661</v>
       </c>
       <c r="AC28" t="n">
-        <v>65.3718203801192</v>
+        <v>65.9869517318579</v>
       </c>
       <c r="AD28" t="n">
-        <v>213.8417838985551</v>
+        <v>38.60081554056269</v>
       </c>
       <c r="AE28" t="n">
-        <v>131.0415941790247</v>
+        <v>55.46292936805182</v>
       </c>
       <c r="AF28" t="n">
-        <v>97.4631592709777</v>
+        <v>79.3756467481318</v>
       </c>
       <c r="AG28" t="n">
-        <v>63.3445141236612</v>
+        <v>50.20547967146133</v>
       </c>
       <c r="AH28" t="n">
-        <v>28.81754921357876</v>
+        <v>52.46387922321307</v>
       </c>
       <c r="AI28" t="n">
-        <v>47.17268539564824</v>
+        <v>31.31760526872142</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17.04380591085023</v>
+        <v>96.57746147556645</v>
       </c>
       <c r="AK28" t="n">
-        <v>41.70072783325514</v>
+        <v>30.80439783591734</v>
       </c>
       <c r="AL28" t="n">
-        <v>16.99182791034438</v>
+        <v>90.95293763592771</v>
       </c>
       <c r="AM28" t="n">
-        <v>61.17288857832195</v>
+        <v>27.89647940607323</v>
       </c>
       <c r="AN28" t="n">
-        <v>14.99034758352275</v>
+        <v>22.63907034424315</v>
       </c>
       <c r="AO28" t="n">
-        <v>22.02450135117745</v>
+        <v>26.64381710447812</v>
       </c>
       <c r="AP28" t="n">
-        <v>17.99227134357979</v>
+        <v>36.00477257578089</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14.03201053970132</v>
+        <v>10.43078465328105</v>
       </c>
       <c r="AR28" t="n">
-        <v>17.53315081652258</v>
+        <v>6.194944968376103</v>
       </c>
       <c r="AS28" t="n">
-        <v>9.588996728221034</v>
+        <v>8.85151555851065</v>
       </c>
       <c r="AT28" t="n">
-        <v>10.82885958145083</v>
+        <v>15.01444350743763</v>
       </c>
       <c r="AU28" t="n">
-        <v>12.84587510062031</v>
+        <v>14.17818975074379</v>
       </c>
       <c r="AV28" t="n">
-        <v>15.70295329908779</v>
+        <v>7.08284465736825</v>
       </c>
       <c r="AW28" t="n">
-        <v>13.6064500373109</v>
+        <v>13.54271998649269</v>
       </c>
       <c r="AX28" t="n">
-        <v>7.472890382807634</v>
+        <v>12.31324391804654</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>28.75881152734535</v>
+        <v>25.7426526509494</v>
       </c>
       <c r="D29" t="n">
-        <v>22.21903307563236</v>
+        <v>39.41701057848312</v>
       </c>
       <c r="E29" t="n">
-        <v>0.328890450258382</v>
+        <v>41.93487053461882</v>
       </c>
       <c r="F29" t="n">
-        <v>13.18762292251087</v>
+        <v>3.034225735521422</v>
       </c>
       <c r="G29" t="n">
-        <v>20.09490025694517</v>
+        <v>154.1042595037222</v>
       </c>
       <c r="H29" t="n">
-        <v>37.47128954967683</v>
+        <v>17.56777601191592</v>
       </c>
       <c r="I29" t="n">
-        <v>16.27287449962725</v>
+        <v>16.25428283048806</v>
       </c>
       <c r="J29" t="n">
-        <v>24.89989347902825</v>
+        <v>12.94196635184229</v>
       </c>
       <c r="K29" t="n">
-        <v>25.74807597053178</v>
+        <v>35.18320483637731</v>
       </c>
       <c r="L29" t="n">
-        <v>51.02500090085516</v>
+        <v>6.493255615793033</v>
       </c>
       <c r="M29" t="n">
-        <v>32.53689569613599</v>
+        <v>14.26931530887687</v>
       </c>
       <c r="N29" t="n">
-        <v>10.22929661018557</v>
+        <v>153.7304610301933</v>
       </c>
       <c r="O29" t="n">
-        <v>51.14386730774099</v>
+        <v>48.40129872694529</v>
       </c>
       <c r="P29" t="n">
-        <v>67.97154142480402</v>
+        <v>63.28935617156981</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.61688979622853</v>
+        <v>19.83787306701273</v>
       </c>
       <c r="R29" t="n">
-        <v>32.27590376367789</v>
+        <v>60.40818789089192</v>
       </c>
       <c r="S29" t="n">
-        <v>89.15480856032535</v>
+        <v>45.3269515449977</v>
       </c>
       <c r="T29" t="n">
-        <v>46.58633058442337</v>
+        <v>172.785563508755</v>
       </c>
       <c r="U29" t="n">
-        <v>90.23020283291582</v>
+        <v>25.59748713150774</v>
       </c>
       <c r="V29" t="n">
-        <v>58.68057595449501</v>
+        <v>19.20921489538527</v>
       </c>
       <c r="W29" t="n">
-        <v>40.23531411619826</v>
+        <v>29.38170151617384</v>
       </c>
       <c r="X29" t="n">
-        <v>50.72388956711487</v>
+        <v>60.63469607705038</v>
       </c>
       <c r="Y29" t="n">
-        <v>26.62343692352887</v>
+        <v>30.41525328768011</v>
       </c>
       <c r="Z29" t="n">
-        <v>55.15401522813539</v>
+        <v>82.36760912395086</v>
       </c>
       <c r="AA29" t="n">
-        <v>114.0697929112154</v>
+        <v>20.54795360317412</v>
       </c>
       <c r="AB29" t="n">
-        <v>30.34873601122809</v>
+        <v>41.5546220750463</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.49001823840945</v>
+        <v>9.326651597698595</v>
       </c>
       <c r="AD29" t="n">
-        <v>18.42555190608127</v>
+        <v>95.18220565541101</v>
       </c>
       <c r="AE29" t="n">
-        <v>41.94143782015224</v>
+        <v>23.36871775260743</v>
       </c>
       <c r="AF29" t="n">
-        <v>60.42366985188999</v>
+        <v>6.955662557651129</v>
       </c>
       <c r="AG29" t="n">
-        <v>6.805368354055481</v>
+        <v>20.59253683256258</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.8301975279533</v>
+        <v>85.25890743483892</v>
       </c>
       <c r="AI29" t="n">
-        <v>75.25470466089766</v>
+        <v>7.784732813823137</v>
       </c>
       <c r="AJ29" t="n">
-        <v>31.07639916503323</v>
+        <v>11.72392586286974</v>
       </c>
       <c r="AK29" t="n">
-        <v>34.45980698553127</v>
+        <v>7.417823205627195</v>
       </c>
       <c r="AL29" t="n">
-        <v>2.21501031946435</v>
+        <v>25.18097651419061</v>
       </c>
       <c r="AM29" t="n">
-        <v>23.92633970118326</v>
+        <v>50.0579621309538</v>
       </c>
       <c r="AN29" t="n">
-        <v>36.03325960302521</v>
+        <v>7.930801846117436</v>
       </c>
       <c r="AO29" t="n">
-        <v>49.21936203113695</v>
+        <v>20.22981119451222</v>
       </c>
       <c r="AP29" t="n">
-        <v>17.99122942963874</v>
+        <v>8.56310831772119</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.883817748610538</v>
+        <v>60.85991622463745</v>
       </c>
       <c r="AR29" t="n">
-        <v>19.79217067152018</v>
+        <v>43.0073315117551</v>
       </c>
       <c r="AS29" t="n">
-        <v>24.53919899064042</v>
+        <v>13.99704668778323</v>
       </c>
       <c r="AT29" t="n">
-        <v>36.0280009829571</v>
+        <v>20.85846546320623</v>
       </c>
       <c r="AU29" t="n">
-        <v>38.29305841637846</v>
+        <v>51.81728902189903</v>
       </c>
       <c r="AV29" t="n">
-        <v>53.9147633818375</v>
+        <v>108.4096313155072</v>
       </c>
       <c r="AW29" t="n">
-        <v>24.90673664067865</v>
+        <v>227.4976734746033</v>
       </c>
       <c r="AX29" t="n">
-        <v>18.20169826769144</v>
+        <v>20.07163461777188</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.28916713479831</v>
+        <v>4.080535947004789</v>
       </c>
       <c r="D30" t="n">
-        <v>1.022011032308905</v>
+        <v>5.465913620387107</v>
       </c>
       <c r="E30" t="n">
-        <v>1.541428571428572</v>
+        <v>1.915098684005601</v>
       </c>
       <c r="F30" t="n">
-        <v>2.207154949882882</v>
+        <v>9.325912169473282</v>
       </c>
       <c r="G30" t="n">
-        <v>3.117696765540964</v>
+        <v>8.126876627480826</v>
       </c>
       <c r="H30" t="n">
-        <v>10.75617172717107</v>
+        <v>3.715232194560478</v>
       </c>
       <c r="I30" t="n">
-        <v>14.04415020096817</v>
+        <v>35.85154042619632</v>
       </c>
       <c r="J30" t="n">
-        <v>7.769163687038245</v>
+        <v>10.58280190778374</v>
       </c>
       <c r="K30" t="n">
-        <v>8.301217596032092</v>
+        <v>6.832277956253931</v>
       </c>
       <c r="L30" t="n">
-        <v>4.536812135915582</v>
+        <v>23.08025563964474</v>
       </c>
       <c r="M30" t="n">
-        <v>12.7697830027809</v>
+        <v>18.55862763838255</v>
       </c>
       <c r="N30" t="n">
-        <v>22.35842591443852</v>
+        <v>10.24789092361827</v>
       </c>
       <c r="O30" t="n">
-        <v>32.78761539245821</v>
+        <v>20.54091286885534</v>
       </c>
       <c r="P30" t="n">
-        <v>14.93234399157022</v>
+        <v>20.39756168354664</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.03843463009224</v>
+        <v>102.0171907904731</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66437427147395</v>
+        <v>21.44521584454956</v>
       </c>
       <c r="S30" t="n">
-        <v>29.295376</v>
+        <v>11.99202605431248</v>
       </c>
       <c r="T30" t="n">
-        <v>7.100897905397166</v>
+        <v>7.211228343232579</v>
       </c>
       <c r="U30" t="n">
-        <v>35.91946864063272</v>
+        <v>24.40398384286243</v>
       </c>
       <c r="V30" t="n">
-        <v>8.24334086448482</v>
+        <v>21.30985932341644</v>
       </c>
       <c r="W30" t="n">
-        <v>22.44903897782189</v>
+        <v>9.909379211013093</v>
       </c>
       <c r="X30" t="n">
-        <v>40.03719783274039</v>
+        <v>36.57131476159731</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.210477185515135</v>
+        <v>23.09500513050074</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.80675</v>
+        <v>21.06720130747483</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.32619526849935</v>
+        <v>8.326891935966675</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.61753009481441</v>
+        <v>25.6835365154621</v>
       </c>
       <c r="AC30" t="n">
-        <v>27.11262234759266</v>
+        <v>31.92801724794501</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.3511432261881</v>
+        <v>13.00128875745513</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.71852469872128</v>
+        <v>29.23721693098881</v>
       </c>
       <c r="AF30" t="n">
-        <v>21.69964669303208</v>
+        <v>8.465311591025085</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.9110882068889</v>
+        <v>10.25092416675591</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.17947159588238</v>
+        <v>7.228953221254271</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.483859996295754</v>
+        <v>17.05648647867137</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13.4026874830199</v>
+        <v>13.50659189879764</v>
       </c>
       <c r="AK30" t="n">
-        <v>12.2477806648253</v>
+        <v>5.683387584584119</v>
       </c>
       <c r="AL30" t="n">
-        <v>5.743854599357975</v>
+        <v>10.72028902269543</v>
       </c>
       <c r="AM30" t="n">
-        <v>14.15428571428571</v>
+        <v>5.813639504376362</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.759104240047374</v>
+        <v>2.349916831799391</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.287292380299102</v>
+        <v>3.115576647759608</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.13575424051234</v>
+        <v>3.217628412424855</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.160890248046212</v>
+        <v>4.255976948068603</v>
       </c>
       <c r="AR30" t="n">
-        <v>7.795734628676653</v>
+        <v>2.011913578816607</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.66</v>
+        <v>8.582812306882538</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.54</v>
+        <v>2.483221295449869</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.5079468267125036</v>
+        <v>0.5490229523864556</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.135785377872447</v>
+        <v>15.08382973224696</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.16631</v>
+        <v>2.241402884448084</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.809379846812713</v>
+        <v>0.794025402486817</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>76.56</v>
+        <v>6.213807887156991</v>
       </c>
       <c r="D31" t="n">
-        <v>19.81</v>
+        <v>4.919455575729889</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>27.1749145212689</v>
       </c>
       <c r="F31" t="n">
-        <v>9.390000000000001</v>
+        <v>22.26386131828119</v>
       </c>
       <c r="G31" t="n">
-        <v>3.84</v>
+        <v>5.377939282670973</v>
       </c>
       <c r="H31" t="n">
-        <v>27.08</v>
+        <v>26.63291797594733</v>
       </c>
       <c r="I31" t="n">
-        <v>19.62</v>
+        <v>100.2109126941482</v>
       </c>
       <c r="J31" t="n">
-        <v>7.9</v>
+        <v>14.39887008940458</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>20.14241785861361</v>
       </c>
       <c r="L31" t="n">
-        <v>15.23</v>
+        <v>16.15257709780907</v>
       </c>
       <c r="M31" t="n">
-        <v>97.33</v>
+        <v>42.61261875524707</v>
       </c>
       <c r="N31" t="n">
-        <v>18.92</v>
+        <v>16.69492270977275</v>
       </c>
       <c r="O31" t="n">
-        <v>94.81</v>
+        <v>55.81091823646182</v>
       </c>
       <c r="P31" t="n">
-        <v>30.52</v>
+        <v>46.20205241369169</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.06</v>
+        <v>126.2582054252085</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>14.97571287494934</v>
       </c>
       <c r="S31" t="n">
-        <v>83.54000000000001</v>
+        <v>107.9294249780065</v>
       </c>
       <c r="T31" t="n">
-        <v>35.77</v>
+        <v>13.37989808858779</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9</v>
+        <v>28.85675698427877</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>15.27975875011336</v>
       </c>
       <c r="W31" t="n">
-        <v>35.2</v>
+        <v>3.860141609619944</v>
       </c>
       <c r="X31" t="n">
-        <v>5.1</v>
+        <v>19.65108233317198</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.470000000000001</v>
+        <v>63.90014552872199</v>
       </c>
       <c r="Z31" t="n">
-        <v>34.63</v>
+        <v>44.96101933672956</v>
       </c>
       <c r="AA31" t="n">
-        <v>14.77</v>
+        <v>19.25042467127421</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.21456384710123</v>
+        <v>61.97925963055225</v>
       </c>
       <c r="AC31" t="n">
-        <v>35.87</v>
+        <v>9.557061682830406</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.04</v>
+        <v>53.87084264293053</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.65571428571429</v>
+        <v>25.86903541009127</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.03</v>
+        <v>8.611670152607301</v>
       </c>
       <c r="AG31" t="n">
-        <v>15.31</v>
+        <v>13.52230060474777</v>
       </c>
       <c r="AH31" t="n">
-        <v>4.79</v>
+        <v>1.774556697723771</v>
       </c>
       <c r="AI31" t="n">
-        <v>10.97</v>
+        <v>0.5285746729924199</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2.47</v>
+        <v>24.39163019156801</v>
       </c>
       <c r="AK31" t="n">
-        <v>6.15</v>
+        <v>35.05293009702913</v>
       </c>
       <c r="AL31" t="n">
-        <v>4.815879017013232</v>
+        <v>1.613023585922196</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.41</v>
+        <v>9.655470684966145</v>
       </c>
       <c r="AN31" t="n">
-        <v>19.66</v>
+        <v>24.17625093479924</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.04</v>
+        <v>1.656996376892654</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.41</v>
+        <v>0.7457188891531406</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6.61</v>
+        <v>3.925139992876257</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.94</v>
+        <v>6.096762934723099</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.99</v>
+        <v>1.859504910714646</v>
       </c>
       <c r="AT31" t="n">
-        <v>11.02</v>
+        <v>4.69874910885747</v>
       </c>
       <c r="AU31" t="n">
-        <v>2.52</v>
+        <v>17.59742528992163</v>
       </c>
       <c r="AV31" t="n">
-        <v>3.28</v>
+        <v>4.955726180536376</v>
       </c>
       <c r="AW31" t="n">
-        <v>20.58</v>
+        <v>5.819623195394806</v>
       </c>
       <c r="AX31" t="n">
-        <v>19.69</v>
+        <v>21.1055806455863</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_004.xlsx
+++ b/escenarios_montecarlo/escenario_004.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.67743749334205</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>24.89520719059885</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59.56100606086449</v>
+        <v>18.19370111212999</v>
       </c>
       <c r="F2" t="n">
-        <v>16.77491823726769</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>93.96018460378848</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25.55527791126812</v>
+        <v>20.13065054532726</v>
       </c>
       <c r="I2" t="n">
-        <v>24.55906614745106</v>
+        <v>5.680697781951739</v>
       </c>
       <c r="J2" t="n">
-        <v>38.21930654260806</v>
+        <v>19.9032931017741</v>
       </c>
       <c r="K2" t="n">
-        <v>36.1215306579882</v>
+        <v>57.89247833801821</v>
       </c>
       <c r="L2" t="n">
-        <v>45.64462275308068</v>
+        <v>51.83626842451102</v>
       </c>
       <c r="M2" t="n">
-        <v>185.6062433205706</v>
+        <v>114.6654680185785</v>
       </c>
       <c r="N2" t="n">
-        <v>43.92220063784154</v>
+        <v>173.0940788493298</v>
       </c>
       <c r="O2" t="n">
-        <v>139.2468649852607</v>
+        <v>48.87467824870291</v>
       </c>
       <c r="P2" t="n">
-        <v>87.92676518252988</v>
+        <v>40.19899401086285</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.19728124103897</v>
+        <v>88.49101603615082</v>
       </c>
       <c r="R2" t="n">
-        <v>60.45362858872597</v>
+        <v>48.86868931596761</v>
       </c>
       <c r="S2" t="n">
-        <v>25.47614738506614</v>
+        <v>61.62580476545187</v>
       </c>
       <c r="T2" t="n">
-        <v>46.03539619393783</v>
+        <v>38.23046679220694</v>
       </c>
       <c r="U2" t="n">
-        <v>31.47122631247088</v>
+        <v>41.61907047922116</v>
       </c>
       <c r="V2" t="n">
-        <v>25.07333565543689</v>
+        <v>48.22869590558803</v>
       </c>
       <c r="W2" t="n">
-        <v>90.34247320743472</v>
+        <v>90.75884703148439</v>
       </c>
       <c r="X2" t="n">
-        <v>53.13196096097193</v>
+        <v>51.23931135240234</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.4428232737605</v>
+        <v>45.0597450626824</v>
       </c>
       <c r="Z2" t="n">
-        <v>135.7733987091454</v>
+        <v>50.72063024069932</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.11049645547673</v>
+        <v>67.69793798541153</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2574771368382</v>
+        <v>72.16762277506061</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.58528757131678</v>
+        <v>81.22344421396367</v>
       </c>
       <c r="AD2" t="n">
-        <v>58.84610549283893</v>
+        <v>187.7444359484209</v>
       </c>
       <c r="AE2" t="n">
-        <v>195.5592042333396</v>
+        <v>148.5412893218701</v>
       </c>
       <c r="AF2" t="n">
-        <v>60.80337403127774</v>
+        <v>103.6472058078196</v>
       </c>
       <c r="AG2" t="n">
-        <v>133.9546109044554</v>
+        <v>10.48403448346239</v>
       </c>
       <c r="AH2" t="n">
-        <v>66.88618369715111</v>
+        <v>129.6158921751626</v>
       </c>
       <c r="AI2" t="n">
-        <v>68.24492934031129</v>
+        <v>51.11713067737463</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44.28964151253334</v>
+        <v>102.139741387212</v>
       </c>
       <c r="AK2" t="n">
-        <v>79.07941810400253</v>
+        <v>90.54776788277334</v>
       </c>
       <c r="AL2" t="n">
-        <v>49.99500444873242</v>
+        <v>21.378585914142</v>
       </c>
       <c r="AM2" t="n">
-        <v>35.82625904162211</v>
+        <v>46.02731238755528</v>
       </c>
       <c r="AN2" t="n">
-        <v>60.93950153535454</v>
+        <v>37.77427213661465</v>
       </c>
       <c r="AO2" t="n">
-        <v>35.95619635619656</v>
+        <v>27.97511404612207</v>
       </c>
       <c r="AP2" t="n">
-        <v>21.20059821393246</v>
+        <v>23.58192468009731</v>
       </c>
       <c r="AQ2" t="n">
-        <v>14.26478620773833</v>
+        <v>20.30329006555799</v>
       </c>
       <c r="AR2" t="n">
-        <v>18.49015562742499</v>
+        <v>28.02961970363503</v>
       </c>
       <c r="AS2" t="n">
-        <v>16.77096711273875</v>
+        <v>30.63400462794619</v>
       </c>
       <c r="AT2" t="n">
-        <v>27.01730386336948</v>
+        <v>18.21501285595566</v>
       </c>
       <c r="AU2" t="n">
-        <v>16.55615310766027</v>
+        <v>20.51995446026788</v>
       </c>
       <c r="AV2" t="n">
-        <v>16.23420330001595</v>
+        <v>22.14751873690671</v>
       </c>
       <c r="AW2" t="n">
-        <v>12.88770806922004</v>
+        <v>27.78407483343236</v>
       </c>
       <c r="AX2" t="n">
-        <v>15.47521885202666</v>
+        <v>24.78788358961091</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.826309474596212</v>
+        <v>3.022194416626923</v>
       </c>
       <c r="D3" t="n">
-        <v>1.067900453209351</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.330955019046363</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4777103045691721</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.823838134797636</v>
+        <v>2.021185266183569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6551166647987512</v>
+        <v>3.817123007103476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5199350530475034</v>
+        <v>2.875719629377677</v>
       </c>
       <c r="J3" t="n">
-        <v>1.136242071859904</v>
+        <v>8.778601157285244</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3185925914649564</v>
+        <v>4.193627421722682</v>
       </c>
       <c r="L3" t="n">
-        <v>1.369659863594842</v>
+        <v>2.771235564694307</v>
       </c>
       <c r="M3" t="n">
-        <v>2.372482619305436</v>
+        <v>3.716208072487283</v>
       </c>
       <c r="N3" t="n">
-        <v>5.823887836536144</v>
+        <v>8.20121966553948</v>
       </c>
       <c r="O3" t="n">
-        <v>7.148414903592483</v>
+        <v>5.801583741237414</v>
       </c>
       <c r="P3" t="n">
-        <v>2.133947868098123</v>
+        <v>0.8811980862308877</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.579097513201336</v>
+        <v>5.15740831312212</v>
       </c>
       <c r="R3" t="n">
-        <v>3.3187635180666</v>
+        <v>7.826800569250665</v>
       </c>
       <c r="S3" t="n">
-        <v>11.37575255794685</v>
+        <v>4.32874901224287</v>
       </c>
       <c r="T3" t="n">
-        <v>3.934990799540282</v>
+        <v>0.3645261671829036</v>
       </c>
       <c r="U3" t="n">
-        <v>3.056351698917564</v>
+        <v>5.367296186217453</v>
       </c>
       <c r="V3" t="n">
-        <v>7.406999057700981</v>
+        <v>2.684727743681838</v>
       </c>
       <c r="W3" t="n">
-        <v>5.802271689856425</v>
+        <v>4.739884733194994</v>
       </c>
       <c r="X3" t="n">
-        <v>15.84218094275417</v>
+        <v>11.68493602608554</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.411663339489828</v>
+        <v>5.808651111468846</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.143681770566214</v>
+        <v>3.807685437296069</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.33843506523863</v>
+        <v>2.671453940656476</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.576967319471446</v>
+        <v>6.678256923642599</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.567313625798383</v>
+        <v>4.176148159617671</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.774032432828554</v>
+        <v>2.744277345876627</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.595433939379835</v>
+        <v>4.290795094124615</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.16320043924229</v>
+        <v>5.1725568787071</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.23004615710046</v>
+        <v>4.278203889386666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.812437605141432</v>
+        <v>1.994921711407467</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.04464791192224</v>
+        <v>2.692132814713369</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.091164897053516</v>
+        <v>4.591905589111525</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.49114539112407</v>
+        <v>1.504980575443453</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.973616374838625</v>
+        <v>1.924150940208367</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.524025189536924</v>
+        <v>10.06416310203088</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.951212458224422</v>
+        <v>3.791822534183309</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.038283970946111</v>
+        <v>6.330182791785701</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.959459129517267</v>
+        <v>3.369300135541596</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.933837469125551</v>
+        <v>3.747203223193763</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.798205905528028</v>
+        <v>4.813122946699522</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.946099768790472</v>
+        <v>2.470638829481298</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.364499413961768</v>
+        <v>2.52516742047143</v>
       </c>
       <c r="AU3" t="n">
-        <v>14.04832866533808</v>
+        <v>3.923756801700874</v>
       </c>
       <c r="AV3" t="n">
-        <v>43.19835535863636</v>
+        <v>3.614701884850609</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.481325540675886</v>
+        <v>2.473973233189096</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.804142738409706</v>
+        <v>2.110032851356621</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.40167420150976</v>
+        <v>11.95598516892701</v>
       </c>
       <c r="D4" t="n">
-        <v>15.15904005600509</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.46552544345867</v>
+        <v>11.04992335381662</v>
       </c>
       <c r="F4" t="n">
-        <v>28.01080163959842</v>
+        <v>92.81709428209444</v>
       </c>
       <c r="G4" t="n">
-        <v>17.81030814998641</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.325952688005343</v>
+        <v>175.3111854423795</v>
       </c>
       <c r="I4" t="n">
-        <v>30.27313207377579</v>
+        <v>131.1796162935267</v>
       </c>
       <c r="J4" t="n">
-        <v>24.5825104919539</v>
+        <v>30.57674703502523</v>
       </c>
       <c r="K4" t="n">
-        <v>26.9128733070668</v>
+        <v>4.82242921972097</v>
       </c>
       <c r="L4" t="n">
-        <v>17.53276808660632</v>
+        <v>163.9237187833517</v>
       </c>
       <c r="M4" t="n">
-        <v>27.14768457023617</v>
+        <v>34.30622575120478</v>
       </c>
       <c r="N4" t="n">
-        <v>51.38734599764222</v>
+        <v>9.891544491689654</v>
       </c>
       <c r="O4" t="n">
-        <v>125.9188917271695</v>
+        <v>66.65696120144081</v>
       </c>
       <c r="P4" t="n">
-        <v>34.39371878689254</v>
+        <v>29.13272906158257</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.46103949480188</v>
+        <v>23.21690566978799</v>
       </c>
       <c r="R4" t="n">
-        <v>86.99927495573419</v>
+        <v>101.6640270138545</v>
       </c>
       <c r="S4" t="n">
-        <v>113.2769148792159</v>
+        <v>25.9984205573956</v>
       </c>
       <c r="T4" t="n">
-        <v>45.07814028048685</v>
+        <v>60.69880547191163</v>
       </c>
       <c r="U4" t="n">
-        <v>37.86661241351224</v>
+        <v>40.56583372401772</v>
       </c>
       <c r="V4" t="n">
-        <v>103.9620952204981</v>
+        <v>53.53991426449633</v>
       </c>
       <c r="W4" t="n">
-        <v>90.38430429575665</v>
+        <v>64.77888774526217</v>
       </c>
       <c r="X4" t="n">
-        <v>116.1012668769324</v>
+        <v>67.34017928131027</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.66854469011311</v>
+        <v>131.3591391816926</v>
       </c>
       <c r="Z4" t="n">
-        <v>38.99046051635398</v>
+        <v>61.62058768955876</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.529952400217</v>
+        <v>59.39121918191945</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.71825893937158</v>
+        <v>84.11863595580118</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.60322253553137</v>
+        <v>101.998954569695</v>
       </c>
       <c r="AD4" t="n">
-        <v>81.00724097181487</v>
+        <v>78.91427323175085</v>
       </c>
       <c r="AE4" t="n">
-        <v>55.35618515533474</v>
+        <v>25.49365390303143</v>
       </c>
       <c r="AF4" t="n">
-        <v>52.01736918389065</v>
+        <v>83.49851918978062</v>
       </c>
       <c r="AG4" t="n">
-        <v>51.55950874891017</v>
+        <v>76.96681155925697</v>
       </c>
       <c r="AH4" t="n">
-        <v>81.56237503290805</v>
+        <v>61.66972097276287</v>
       </c>
       <c r="AI4" t="n">
-        <v>145.9138614804032</v>
+        <v>7.884507866626383</v>
       </c>
       <c r="AJ4" t="n">
-        <v>61.07530909285671</v>
+        <v>73.34052468803937</v>
       </c>
       <c r="AK4" t="n">
-        <v>35.95906453268125</v>
+        <v>19.14860967479094</v>
       </c>
       <c r="AL4" t="n">
-        <v>21.81504475428767</v>
+        <v>35.99976226314619</v>
       </c>
       <c r="AM4" t="n">
-        <v>46.26555063663945</v>
+        <v>13.51108839643057</v>
       </c>
       <c r="AN4" t="n">
-        <v>25.4332253738855</v>
+        <v>26.93126773561287</v>
       </c>
       <c r="AO4" t="n">
-        <v>21.05340228622327</v>
+        <v>19.45353595906848</v>
       </c>
       <c r="AP4" t="n">
-        <v>11.35656846200899</v>
+        <v>21.07217813718454</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12.89526142963555</v>
+        <v>13.90385370084186</v>
       </c>
       <c r="AR4" t="n">
-        <v>16.30479023579158</v>
+        <v>16.2793371593113</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.271206254722451</v>
+        <v>10.71224671715443</v>
       </c>
       <c r="AT4" t="n">
-        <v>11.65727181997176</v>
+        <v>16.27477658675264</v>
       </c>
       <c r="AU4" t="n">
-        <v>18.79649503534878</v>
+        <v>7.146476411364323</v>
       </c>
       <c r="AV4" t="n">
-        <v>11.53422818871307</v>
+        <v>5.707645438090604</v>
       </c>
       <c r="AW4" t="n">
-        <v>18.95628255656671</v>
+        <v>10.57586011874829</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.49251818825016</v>
+        <v>10.86893224506876</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.466447111329325</v>
+        <v>53.60420669613483</v>
       </c>
       <c r="D5" t="n">
-        <v>26.75997982166924</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>32.71620138985254</v>
+        <v>23.36873013198004</v>
       </c>
       <c r="F5" t="n">
-        <v>11.24861582966255</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.13209101273151</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>22.35851223001592</v>
+        <v>11.01588132145096</v>
       </c>
       <c r="I5" t="n">
-        <v>34.37268589002136</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.926497970346997</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.26510522740821</v>
+        <v>12.76284198543864</v>
       </c>
       <c r="L5" t="n">
-        <v>89.64047845626988</v>
+        <v>80.7432968854614</v>
       </c>
       <c r="M5" t="n">
-        <v>13.4592571709615</v>
+        <v>110.2992651958826</v>
       </c>
       <c r="N5" t="n">
-        <v>30.23907754510964</v>
+        <v>67.15424271394903</v>
       </c>
       <c r="O5" t="n">
-        <v>21.37614367236511</v>
+        <v>66.33448117186339</v>
       </c>
       <c r="P5" t="n">
-        <v>80.99034958050999</v>
+        <v>36.74331027907181</v>
       </c>
       <c r="Q5" t="n">
-        <v>68.46415950646691</v>
+        <v>6.37420365343003</v>
       </c>
       <c r="R5" t="n">
-        <v>30.09040083625201</v>
+        <v>68.09605510988851</v>
       </c>
       <c r="S5" t="n">
-        <v>53.55441386505275</v>
+        <v>43.60278616383452</v>
       </c>
       <c r="T5" t="n">
-        <v>50.57060390977979</v>
+        <v>45.83799414365679</v>
       </c>
       <c r="U5" t="n">
-        <v>56.3537341147628</v>
+        <v>31.97313129243763</v>
       </c>
       <c r="V5" t="n">
-        <v>44.7448402226696</v>
+        <v>47.46765170063338</v>
       </c>
       <c r="W5" t="n">
-        <v>43.17378456559735</v>
+        <v>49.17738665452165</v>
       </c>
       <c r="X5" t="n">
-        <v>27.64392986866124</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.54937906731088</v>
+        <v>40.20618168418985</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.8924456932202</v>
+        <v>18.93078265959156</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.33683510165579</v>
+        <v>66.67193775039451</v>
       </c>
       <c r="AB5" t="n">
-        <v>31.74621740256374</v>
+        <v>61.11760284481598</v>
       </c>
       <c r="AC5" t="n">
-        <v>31.96753431579323</v>
+        <v>25.88078422799757</v>
       </c>
       <c r="AD5" t="n">
-        <v>50.78527771421472</v>
+        <v>28.4447875755821</v>
       </c>
       <c r="AE5" t="n">
-        <v>22.9848443475042</v>
+        <v>13.51370358198431</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.59665883699316</v>
+        <v>27.969747525976</v>
       </c>
       <c r="AG5" t="n">
-        <v>21.43879943614377</v>
+        <v>150.343634232521</v>
       </c>
       <c r="AH5" t="n">
-        <v>56.07871429652013</v>
+        <v>64.05482421006764</v>
       </c>
       <c r="AI5" t="n">
-        <v>42.57347331875147</v>
+        <v>54.11265867390326</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.569413592284022</v>
+        <v>19.16980998481153</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.41269197870693</v>
+        <v>8.737350373554534</v>
       </c>
       <c r="AL5" t="n">
-        <v>6.096544700069673</v>
+        <v>38.45389357008762</v>
       </c>
       <c r="AM5" t="n">
-        <v>21.11126595603173</v>
+        <v>32.15227016232939</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.94175125303525</v>
+        <v>32.53225521802073</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.96681968272076</v>
+        <v>25.70673408934083</v>
       </c>
       <c r="AP5" t="n">
-        <v>16.70061809843621</v>
+        <v>31.85787342643875</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22.80018677472759</v>
+        <v>22.40779638831492</v>
       </c>
       <c r="AR5" t="n">
-        <v>35.78906114193785</v>
+        <v>5.375448300578803</v>
       </c>
       <c r="AS5" t="n">
-        <v>14.15125599072443</v>
+        <v>17.24138567560141</v>
       </c>
       <c r="AT5" t="n">
-        <v>22.81119101280352</v>
+        <v>10.13048529927776</v>
       </c>
       <c r="AU5" t="n">
-        <v>10.94876923178204</v>
+        <v>35.45302074431861</v>
       </c>
       <c r="AV5" t="n">
-        <v>10.82145862523867</v>
+        <v>13.28944848003967</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.323631584283039</v>
+        <v>28.29527989860879</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.824988791252844</v>
+        <v>22.17313824217758</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.466720395062389</v>
+        <v>3.365173949175976</v>
       </c>
       <c r="D6" t="n">
-        <v>8.028224861766773</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.509745739517638</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.022780925868739</v>
+        <v>8.984079525722024</v>
       </c>
       <c r="G6" t="n">
-        <v>2.635424538751582</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14.43532329913705</v>
+        <v>1.242945761940838</v>
       </c>
       <c r="I6" t="n">
-        <v>18.16911024843956</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>87.86261703677961</v>
+        <v>12.8638797877011</v>
       </c>
       <c r="K6" t="n">
-        <v>11.61239249580815</v>
+        <v>14.21394707193383</v>
       </c>
       <c r="L6" t="n">
-        <v>6.612470754544413</v>
+        <v>22.08915065557186</v>
       </c>
       <c r="M6" t="n">
-        <v>62.32536401560053</v>
+        <v>36.43901951603303</v>
       </c>
       <c r="N6" t="n">
-        <v>20.53709000985965</v>
+        <v>15.25294754847814</v>
       </c>
       <c r="O6" t="n">
-        <v>14.42351053423066</v>
+        <v>14.24670875442906</v>
       </c>
       <c r="P6" t="n">
-        <v>16.16986174359893</v>
+        <v>8.003284951704787</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.38689873825267</v>
+        <v>40.5224131490234</v>
       </c>
       <c r="R6" t="n">
-        <v>21.85694642366695</v>
+        <v>10.12997085046182</v>
       </c>
       <c r="S6" t="n">
-        <v>15.39271765990071</v>
+        <v>16.01483776573388</v>
       </c>
       <c r="T6" t="n">
-        <v>10.65845514962489</v>
+        <v>21.53321130830227</v>
       </c>
       <c r="U6" t="n">
-        <v>13.1200265384322</v>
+        <v>21.58809498523386</v>
       </c>
       <c r="V6" t="n">
-        <v>13.5321405948022</v>
+        <v>8.715824332174417</v>
       </c>
       <c r="W6" t="n">
-        <v>17.87874057968529</v>
+        <v>19.47917629049934</v>
       </c>
       <c r="X6" t="n">
-        <v>13.65620101967474</v>
+        <v>15.88473445094737</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.06229366942303</v>
+        <v>25.60298632086912</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.68161592349698</v>
+        <v>32.87611864421397</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.25591260960024</v>
+        <v>8.345516138087788</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.75595800947443</v>
+        <v>14.76142907736624</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.41194704519377</v>
+        <v>29.27568927757674</v>
       </c>
       <c r="AD6" t="n">
-        <v>47.29295408610232</v>
+        <v>20.54564228187381</v>
       </c>
       <c r="AE6" t="n">
-        <v>32.76026591161095</v>
+        <v>7.479455540443343</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.289908249361525</v>
+        <v>17.96202504575396</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.901232132263564</v>
+        <v>12.32648448956614</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.866340483797639</v>
+        <v>10.30383081005148</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.790132796153386</v>
+        <v>6.927604720237827</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.809074605257292</v>
+        <v>7.348142326592471</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.372349211162902</v>
+        <v>5.462312882278903</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.519051906061746</v>
+        <v>4.955115416593424</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.531408482456313</v>
+        <v>5.573422331738073</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.427131983980747</v>
+        <v>2.25170267364674</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.697371392962861</v>
+        <v>4.136458175536359</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.204348100424071</v>
+        <v>2.395499647696698</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.244110887595769</v>
+        <v>2.584912454630904</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.369503003568143</v>
+        <v>2.509047541291388</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.363074071635411</v>
+        <v>3.887764380558076</v>
       </c>
       <c r="AT6" t="n">
-        <v>13.90578244087635</v>
+        <v>1.835483438086173</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.536170142307913</v>
+        <v>2.877614645937914</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.116766873627404</v>
+        <v>3.953907194119344</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.031221561228757</v>
+        <v>0.4707373616621781</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.832454390751071</v>
+        <v>3.3100308338301</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.992639721907949</v>
+        <v>12.90386460123714</v>
       </c>
       <c r="D7" t="n">
-        <v>28.15212093629151</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.86184699735368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11.93561361906085</v>
+        <v>7.056656010465698</v>
       </c>
       <c r="G7" t="n">
-        <v>13.35015028117173</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>23.25706305938373</v>
+        <v>1.062540555689855</v>
       </c>
       <c r="I7" t="n">
-        <v>62.49393938279858</v>
+        <v>8.179700358172951</v>
       </c>
       <c r="J7" t="n">
-        <v>3.603146731229353</v>
+        <v>73.84246391102234</v>
       </c>
       <c r="K7" t="n">
-        <v>45.51728064240787</v>
+        <v>47.44252888205211</v>
       </c>
       <c r="L7" t="n">
-        <v>102.1739928566609</v>
+        <v>123.9026531497422</v>
       </c>
       <c r="M7" t="n">
-        <v>62.26071533915558</v>
+        <v>15.14744618646465</v>
       </c>
       <c r="N7" t="n">
-        <v>40.53390286383484</v>
+        <v>46.7144070495814</v>
       </c>
       <c r="O7" t="n">
-        <v>15.09630620823385</v>
+        <v>81.59265539831772</v>
       </c>
       <c r="P7" t="n">
-        <v>9.317976785902919</v>
+        <v>9.188622639268893</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.40724456350703</v>
+        <v>65.36223833814346</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9002541097974</v>
+        <v>59.03261647703167</v>
       </c>
       <c r="S7" t="n">
-        <v>12.75094872961958</v>
+        <v>7.162136693561578</v>
       </c>
       <c r="T7" t="n">
-        <v>49.07838982474345</v>
+        <v>62.61363883467928</v>
       </c>
       <c r="U7" t="n">
-        <v>7.038232087056039</v>
+        <v>44.88703011963265</v>
       </c>
       <c r="V7" t="n">
-        <v>6.079628573110262</v>
+        <v>41.04758085103533</v>
       </c>
       <c r="W7" t="n">
-        <v>3.304188039852324</v>
+        <v>2.343670990080255</v>
       </c>
       <c r="X7" t="n">
-        <v>5.755053238013701</v>
+        <v>15.58035536444784</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.168205069267612</v>
+        <v>1.351155724533023</v>
       </c>
       <c r="Z7" t="n">
-        <v>78.71769821582838</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.436393227373</v>
+        <v>19.54549535394951</v>
       </c>
       <c r="AB7" t="n">
-        <v>35.2518731182256</v>
+        <v>4.388748894531416</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.411630239578443</v>
+        <v>13.65589152014488</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.375015746755374</v>
+        <v>1.870137439454111</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.668322176501472</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.52804923378402</v>
+        <v>5.90127931707908</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.19149547351213</v>
+        <v>7.993078263969496</v>
       </c>
       <c r="AH7" t="n">
-        <v>35.9902498807519</v>
+        <v>15.01807674060883</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.477342149768166</v>
+        <v>0.1422472341870465</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.810712778673111</v>
+        <v>3.50904912987906</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.46870111129698</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.64946694242519</v>
+        <v>17.22895792156568</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.865427347015418</v>
+        <v>4.734465327924212</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.434891289999823</v>
+        <v>5.64589825627495</v>
       </c>
       <c r="AO7" t="n">
-        <v>26.60127355805308</v>
+        <v>12.03504273590217</v>
       </c>
       <c r="AP7" t="n">
-        <v>4.586716279984626</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.368883700801323</v>
+        <v>3.09884274089763</v>
       </c>
       <c r="AR7" t="n">
-        <v>9.220681858928929</v>
+        <v>13.40407406178657</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.797227743036398</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.103598073437812</v>
+        <v>14.17955748411647</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.590370764539862</v>
+        <v>3.595352831400294</v>
       </c>
       <c r="AV7" t="n">
-        <v>12.38141646840261</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>13.48194180996492</v>
+        <v>12.95325657120836</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.29341498758909</v>
+        <v>11.85445839424775</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>22.34144523494489</v>
+        <v>16.55743706034146</v>
       </c>
       <c r="D8" t="n">
-        <v>10.69132233717693</v>
+        <v>22.307011689207</v>
       </c>
       <c r="E8" t="n">
-        <v>38.00665288142137</v>
+        <v>18.05965358709116</v>
       </c>
       <c r="F8" t="n">
-        <v>24.93238714533293</v>
+        <v>28.07122712960657</v>
       </c>
       <c r="G8" t="n">
-        <v>52.64923864955473</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>96.01488653935094</v>
+        <v>96.00644737874802</v>
       </c>
       <c r="I8" t="n">
-        <v>18.09101267139762</v>
+        <v>86.33636516064311</v>
       </c>
       <c r="J8" t="n">
-        <v>20.27806712893166</v>
+        <v>9.969991881918471</v>
       </c>
       <c r="K8" t="n">
-        <v>19.7090534413639</v>
+        <v>23.58464782189336</v>
       </c>
       <c r="L8" t="n">
-        <v>48.03737229738499</v>
+        <v>165.7542105126531</v>
       </c>
       <c r="M8" t="n">
-        <v>23.95893765997355</v>
+        <v>91.65534585748304</v>
       </c>
       <c r="N8" t="n">
-        <v>75.47038656950294</v>
+        <v>96.72577727938803</v>
       </c>
       <c r="O8" t="n">
-        <v>49.90437585980812</v>
+        <v>199.3820987297086</v>
       </c>
       <c r="P8" t="n">
-        <v>151.7867274068955</v>
+        <v>53.83090348508009</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.05606121301981</v>
+        <v>14.72550273362283</v>
       </c>
       <c r="R8" t="n">
-        <v>38.62643436464149</v>
+        <v>54.80329468184975</v>
       </c>
       <c r="S8" t="n">
-        <v>56.22680301344489</v>
+        <v>36.92681015851961</v>
       </c>
       <c r="T8" t="n">
-        <v>90.27299025541573</v>
+        <v>32.37340240042352</v>
       </c>
       <c r="U8" t="n">
-        <v>27.44600555918548</v>
+        <v>50.27933322173078</v>
       </c>
       <c r="V8" t="n">
-        <v>16.59318186577906</v>
+        <v>103.1255352443704</v>
       </c>
       <c r="W8" t="n">
-        <v>85.73987948178979</v>
+        <v>80.88777045285323</v>
       </c>
       <c r="X8" t="n">
-        <v>37.25317781674077</v>
+        <v>52.29471843072352</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.31314002532865</v>
+        <v>69.58229607352773</v>
       </c>
       <c r="Z8" t="n">
-        <v>65.63404630238419</v>
+        <v>111.2129822431085</v>
       </c>
       <c r="AA8" t="n">
-        <v>109.3785585287073</v>
+        <v>40.73540342406004</v>
       </c>
       <c r="AB8" t="n">
-        <v>67.29460651701761</v>
+        <v>118.8541507202731</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.1895796240154</v>
+        <v>157.3004767912634</v>
       </c>
       <c r="AD8" t="n">
-        <v>108.7138394990061</v>
+        <v>89.94362343664464</v>
       </c>
       <c r="AE8" t="n">
-        <v>126.6068091443651</v>
+        <v>60.06449917450352</v>
       </c>
       <c r="AF8" t="n">
-        <v>116.6428764684625</v>
+        <v>139.4523410831647</v>
       </c>
       <c r="AG8" t="n">
-        <v>116.6081961334205</v>
+        <v>82.72124793891223</v>
       </c>
       <c r="AH8" t="n">
-        <v>112.1536960349225</v>
+        <v>219.673619330612</v>
       </c>
       <c r="AI8" t="n">
-        <v>185.2037869627463</v>
+        <v>83.922486330989</v>
       </c>
       <c r="AJ8" t="n">
-        <v>168.7389620819818</v>
+        <v>44.6750799506225</v>
       </c>
       <c r="AK8" t="n">
-        <v>62.29631285450843</v>
+        <v>30.26273743545698</v>
       </c>
       <c r="AL8" t="n">
-        <v>46.28058422638472</v>
+        <v>48.33044390924584</v>
       </c>
       <c r="AM8" t="n">
-        <v>51.09615885478735</v>
+        <v>81.26047797377896</v>
       </c>
       <c r="AN8" t="n">
-        <v>30.62188147648629</v>
+        <v>38.17959619568219</v>
       </c>
       <c r="AO8" t="n">
-        <v>77.14505658824667</v>
+        <v>28.87108435934918</v>
       </c>
       <c r="AP8" t="n">
-        <v>34.00185552582248</v>
+        <v>9.732690960981815</v>
       </c>
       <c r="AQ8" t="n">
-        <v>25.85607984938606</v>
+        <v>14.04390143441948</v>
       </c>
       <c r="AR8" t="n">
-        <v>33.93829967365535</v>
+        <v>22.73567460711664</v>
       </c>
       <c r="AS8" t="n">
-        <v>21.25843555043455</v>
+        <v>12.04194685523754</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.15954872992761</v>
+        <v>13.04460822036684</v>
       </c>
       <c r="AU8" t="n">
-        <v>14.13223243886855</v>
+        <v>21.309042325546</v>
       </c>
       <c r="AV8" t="n">
-        <v>23.03351909824325</v>
+        <v>24.51768338101887</v>
       </c>
       <c r="AW8" t="n">
-        <v>13.68661794275456</v>
+        <v>18.28201670970388</v>
       </c>
       <c r="AX8" t="n">
-        <v>21.66473045846107</v>
+        <v>19.56901327455264</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2.127911977651975</v>
+        <v>4.695355702876626</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1755042472702377</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.319752472378022</v>
+        <v>5.314617476417133</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15408330756186</v>
+        <v>0.5743596626309225</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2798177227011918</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.298723430110116</v>
+        <v>2.607423989151804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.118481312031976</v>
+        <v>3.211372055998949</v>
       </c>
       <c r="J9" t="n">
-        <v>5.875303514094592</v>
+        <v>4.378727313364293</v>
       </c>
       <c r="K9" t="n">
-        <v>2.953143913238753</v>
+        <v>1.4480306308909</v>
       </c>
       <c r="L9" t="n">
-        <v>52.24501824635708</v>
+        <v>3.785612778797497</v>
       </c>
       <c r="M9" t="n">
-        <v>10.68052240333722</v>
+        <v>20.58847417190734</v>
       </c>
       <c r="N9" t="n">
-        <v>13.99838540383293</v>
+        <v>4.227097469938539</v>
       </c>
       <c r="O9" t="n">
-        <v>7.099208777428566</v>
+        <v>4.2949059716983</v>
       </c>
       <c r="P9" t="n">
-        <v>1.376153094661935</v>
+        <v>2.670040685671208</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.944487945064501</v>
+        <v>8.425883235556903</v>
       </c>
       <c r="R9" t="n">
-        <v>2.618316323675516</v>
+        <v>2.138533097003311</v>
       </c>
       <c r="S9" t="n">
-        <v>2.748209503772921</v>
+        <v>4.052964466541155</v>
       </c>
       <c r="T9" t="n">
-        <v>3.541829416696339</v>
+        <v>3.392523770079025</v>
       </c>
       <c r="U9" t="n">
-        <v>2.258431184074662</v>
+        <v>3.185556534877342</v>
       </c>
       <c r="V9" t="n">
-        <v>2.097864693039335</v>
+        <v>2.686618361786532</v>
       </c>
       <c r="W9" t="n">
-        <v>9.228513277152015</v>
+        <v>1.882949430204402</v>
       </c>
       <c r="X9" t="n">
-        <v>4.961785945074629</v>
+        <v>3.488807010478985</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.48912189594955</v>
+        <v>3.309251753432813</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.352300209521138</v>
+        <v>7.537171159496835</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.973714543163368</v>
+        <v>4.063529000113194</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.721012618733805</v>
+        <v>7.61192934967681</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.601839266887831</v>
+        <v>2.447340503482936</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.808515019554147</v>
+        <v>6.712186300011136</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.374343294645148</v>
+        <v>5.989487159643495</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.4435128887733</v>
+        <v>7.121055934031714</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.528826102204604</v>
+        <v>3.12876789934496</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.613538779753847</v>
+        <v>7.554747490366923</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.640617146373056</v>
+        <v>12.70317277349046</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.254412188598852</v>
+        <v>5.156015114131756</v>
       </c>
       <c r="AK9" t="n">
-        <v>13.8052762322575</v>
+        <v>7.261157791293833</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.982337646265106</v>
+        <v>5.255974805455542</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.78788906284411</v>
+        <v>5.975033599174266</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.023033322616356</v>
+        <v>4.29783642203025</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.058595108628909</v>
+        <v>2.108723987697577</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.843348337912756</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.360506129794403</v>
+        <v>2.278682527334803</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.357685446804564</v>
+        <v>2.862489116192751</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.003702915647797</v>
+        <v>3.172436430535969</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.339534239018339</v>
+        <v>3.958903322385232</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.687826912203549</v>
+        <v>3.48855061124341</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.880776018411726</v>
+        <v>2.287460709130011</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.592324062860308</v>
+        <v>0.452608275680022</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.8018486972333704</v>
+        <v>3.924822986462063</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>14.50320603075757</v>
+        <v>13.48556381129099</v>
       </c>
       <c r="D10" t="n">
-        <v>16.37792727577938</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.33658956408446</v>
+        <v>10.48044481412873</v>
       </c>
       <c r="F10" t="n">
-        <v>23.63774242017853</v>
+        <v>14.05708826571821</v>
       </c>
       <c r="G10" t="n">
-        <v>4.020807371890255</v>
+        <v>8.174093781028706</v>
       </c>
       <c r="H10" t="n">
-        <v>25.05562194025957</v>
+        <v>62.17329610723597</v>
       </c>
       <c r="I10" t="n">
-        <v>30.69891672123028</v>
+        <v>98.87308247021787</v>
       </c>
       <c r="J10" t="n">
-        <v>10.30838769799492</v>
+        <v>19.61822232451103</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81440314301736</v>
+        <v>31.1617166731553</v>
       </c>
       <c r="L10" t="n">
-        <v>49.71685744061077</v>
+        <v>37.82132244032173</v>
       </c>
       <c r="M10" t="n">
-        <v>347.1398295121593</v>
+        <v>25.76985088302911</v>
       </c>
       <c r="N10" t="n">
-        <v>110.3616202136389</v>
+        <v>140.6750826347154</v>
       </c>
       <c r="O10" t="n">
-        <v>98.60102705030864</v>
+        <v>98.70174187164251</v>
       </c>
       <c r="P10" t="n">
-        <v>75.64606896472988</v>
+        <v>156.6807285346524</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.81748728538805</v>
+        <v>124.0540065954458</v>
       </c>
       <c r="R10" t="n">
-        <v>72.5412494230869</v>
+        <v>37.9885035773306</v>
       </c>
       <c r="S10" t="n">
-        <v>186.4367706591689</v>
+        <v>41.13233963140096</v>
       </c>
       <c r="T10" t="n">
-        <v>68.8868704384725</v>
+        <v>9.853988990977076</v>
       </c>
       <c r="U10" t="n">
-        <v>71.44880480186318</v>
+        <v>122.2751711449957</v>
       </c>
       <c r="V10" t="n">
-        <v>33.25960322826912</v>
+        <v>60.44563709944597</v>
       </c>
       <c r="W10" t="n">
-        <v>74.25972119288197</v>
+        <v>83.55709088411028</v>
       </c>
       <c r="X10" t="n">
-        <v>28.32423268805545</v>
+        <v>57.37917420362513</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.82900929040134</v>
+        <v>99.76797060373826</v>
       </c>
       <c r="Z10" t="n">
-        <v>56.11284992204892</v>
+        <v>91.70240009608713</v>
       </c>
       <c r="AA10" t="n">
-        <v>60.42277237899889</v>
+        <v>78.85124051663185</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.6015247923309</v>
+        <v>54.91792252825064</v>
       </c>
       <c r="AC10" t="n">
-        <v>72.92535061636657</v>
+        <v>108.1508621858615</v>
       </c>
       <c r="AD10" t="n">
-        <v>43.10925725608086</v>
+        <v>102.8626040364631</v>
       </c>
       <c r="AE10" t="n">
-        <v>37.65094417621498</v>
+        <v>104.8237503299698</v>
       </c>
       <c r="AF10" t="n">
-        <v>45.27454172940007</v>
+        <v>57.85654002121335</v>
       </c>
       <c r="AG10" t="n">
-        <v>27.69030758089375</v>
+        <v>110.1788812984882</v>
       </c>
       <c r="AH10" t="n">
-        <v>98.28644574157869</v>
+        <v>59.06549442381136</v>
       </c>
       <c r="AI10" t="n">
-        <v>39.82684160536837</v>
+        <v>55.50408298038548</v>
       </c>
       <c r="AJ10" t="n">
-        <v>86.89426013209264</v>
+        <v>103.4806420370548</v>
       </c>
       <c r="AK10" t="n">
-        <v>31.6039215074935</v>
+        <v>86.04142425536864</v>
       </c>
       <c r="AL10" t="n">
-        <v>76.52788205256641</v>
+        <v>24.64484955957088</v>
       </c>
       <c r="AM10" t="n">
-        <v>23.46154879489724</v>
+        <v>31.22192896336551</v>
       </c>
       <c r="AN10" t="n">
-        <v>41.78920405063608</v>
+        <v>23.53225134956499</v>
       </c>
       <c r="AO10" t="n">
-        <v>29.4177500820965</v>
+        <v>35.87003360247331</v>
       </c>
       <c r="AP10" t="n">
-        <v>17.73586296970248</v>
+        <v>18.79845505499211</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18.33758769412098</v>
+        <v>8.805912513135929</v>
       </c>
       <c r="AR10" t="n">
-        <v>35.86836210425894</v>
+        <v>14.53877059091407</v>
       </c>
       <c r="AS10" t="n">
-        <v>16.92842808692777</v>
+        <v>8.199175035598572</v>
       </c>
       <c r="AT10" t="n">
-        <v>11.90029716257547</v>
+        <v>7.972416311744041</v>
       </c>
       <c r="AU10" t="n">
-        <v>14.14747493669661</v>
+        <v>19.0392640033466</v>
       </c>
       <c r="AV10" t="n">
-        <v>24.83592959209212</v>
+        <v>36.45647051571346</v>
       </c>
       <c r="AW10" t="n">
-        <v>10.10221552263706</v>
+        <v>7.117358294689343</v>
       </c>
       <c r="AX10" t="n">
-        <v>12.23265126300781</v>
+        <v>10.08977639812007</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>13.26555055986209</v>
+        <v>20.09686124083046</v>
       </c>
       <c r="D11" t="n">
-        <v>29.29155122017568</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.09427146553429</v>
+        <v>23.10845459321806</v>
       </c>
       <c r="F11" t="n">
-        <v>4.909034313938448</v>
+        <v>58.01678144423583</v>
       </c>
       <c r="G11" t="n">
-        <v>23.50259101183201</v>
+        <v>58.79341050583853</v>
       </c>
       <c r="H11" t="n">
-        <v>87.34274279416404</v>
+        <v>23.58615167994539</v>
       </c>
       <c r="I11" t="n">
-        <v>42.1408394297433</v>
+        <v>2.082295417408039</v>
       </c>
       <c r="J11" t="n">
-        <v>2.029300737241515</v>
+        <v>18.39374486221288</v>
       </c>
       <c r="K11" t="n">
-        <v>63.91416971724366</v>
+        <v>54.03310576828341</v>
       </c>
       <c r="L11" t="n">
-        <v>3.969741027352855</v>
+        <v>80.42401050938483</v>
       </c>
       <c r="M11" t="n">
-        <v>143.7814838027732</v>
+        <v>0.6766585676576966</v>
       </c>
       <c r="N11" t="n">
-        <v>12.40824151014773</v>
+        <v>45.8416127652272</v>
       </c>
       <c r="O11" t="n">
-        <v>19.27483369148851</v>
+        <v>16.23506728094835</v>
       </c>
       <c r="P11" t="n">
-        <v>20.97019565505428</v>
+        <v>21.88754257722853</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.04162621970144</v>
+        <v>139.6207948239755</v>
       </c>
       <c r="R11" t="n">
-        <v>35.26200510497682</v>
+        <v>12.785786738635</v>
       </c>
       <c r="S11" t="n">
-        <v>38.81356390450795</v>
+        <v>50.55780366831655</v>
       </c>
       <c r="T11" t="n">
-        <v>94.16118479065373</v>
+        <v>37.07118435778503</v>
       </c>
       <c r="U11" t="n">
-        <v>44.15081456515546</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>76.87642865688389</v>
+        <v>65.62075438898862</v>
       </c>
       <c r="W11" t="n">
-        <v>60.60510018089911</v>
+        <v>89.09583644202526</v>
       </c>
       <c r="X11" t="n">
-        <v>66.34642619613435</v>
+        <v>40.06183195826156</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.30030608101196</v>
+        <v>20.85612714425708</v>
       </c>
       <c r="Z11" t="n">
-        <v>42.95840724101107</v>
+        <v>59.07258127274035</v>
       </c>
       <c r="AA11" t="n">
-        <v>32.74404537519768</v>
+        <v>83.6983488804221</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.88871496799232</v>
+        <v>142.122857174551</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.905690512724512</v>
+        <v>7.071276258061668</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.34278736720212</v>
+        <v>35.05309571607386</v>
       </c>
       <c r="AE11" t="n">
-        <v>21.50181364794874</v>
+        <v>29.77818570563895</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.853063279211683</v>
+        <v>113.2273052233998</v>
       </c>
       <c r="AG11" t="n">
-        <v>24.65060366162541</v>
+        <v>38.67503644899157</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.98766649691757</v>
+        <v>35.33805403964297</v>
       </c>
       <c r="AI11" t="n">
-        <v>79.94570809979703</v>
+        <v>30.46812491074776</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50.95467169510329</v>
+        <v>36.82698528823968</v>
       </c>
       <c r="AK11" t="n">
-        <v>41.71161953109483</v>
+        <v>18.8774366887089</v>
       </c>
       <c r="AL11" t="n">
-        <v>5.002319512470073</v>
+        <v>22.90331620296968</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.557504082054812</v>
+        <v>9.670312812413773</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.53889534302785</v>
+        <v>23.81949888101679</v>
       </c>
       <c r="AO11" t="n">
-        <v>30.94368522653897</v>
+        <v>16.31425725929005</v>
       </c>
       <c r="AP11" t="n">
-        <v>35.92857535801774</v>
+        <v>9.793846997343438</v>
       </c>
       <c r="AQ11" t="n">
-        <v>33.77662335693994</v>
+        <v>17.75676985521771</v>
       </c>
       <c r="AR11" t="n">
-        <v>21.31263234616131</v>
+        <v>29.16413485606486</v>
       </c>
       <c r="AS11" t="n">
-        <v>10.94055588079697</v>
+        <v>0.316660615015062</v>
       </c>
       <c r="AT11" t="n">
-        <v>26.32763503650445</v>
+        <v>42.73484979462837</v>
       </c>
       <c r="AU11" t="n">
-        <v>36.54583882131426</v>
+        <v>24.70241383593879</v>
       </c>
       <c r="AV11" t="n">
-        <v>57.56924240059178</v>
+        <v>15.42474008286918</v>
       </c>
       <c r="AW11" t="n">
-        <v>29.78680300692454</v>
+        <v>21.3829844647167</v>
       </c>
       <c r="AX11" t="n">
-        <v>27.22538050380896</v>
+        <v>37.27045486951356</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.836021391368174</v>
+        <v>2.456021879870978</v>
       </c>
       <c r="D12" t="n">
-        <v>2.536874107643635</v>
+        <v>8.148747037422488</v>
       </c>
       <c r="E12" t="n">
-        <v>1.45489561652566</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.188302765570516</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>32.32676879518259</v>
+        <v>0.4987303642454961</v>
       </c>
       <c r="H12" t="n">
-        <v>1.162342063248026</v>
+        <v>10.43601203560944</v>
       </c>
       <c r="I12" t="n">
-        <v>5.963058549784548</v>
+        <v>10.00261565233524</v>
       </c>
       <c r="J12" t="n">
-        <v>60.08959925337842</v>
+        <v>60.444904169432</v>
       </c>
       <c r="K12" t="n">
-        <v>15.99729511324003</v>
+        <v>26.89746606429219</v>
       </c>
       <c r="L12" t="n">
-        <v>27.1349925673284</v>
+        <v>7.639524407956433</v>
       </c>
       <c r="M12" t="n">
-        <v>22.33212256539945</v>
+        <v>113.2369165769615</v>
       </c>
       <c r="N12" t="n">
-        <v>38.305876655332</v>
+        <v>24.40598365046155</v>
       </c>
       <c r="O12" t="n">
-        <v>43.00615045980893</v>
+        <v>27.70977111046173</v>
       </c>
       <c r="P12" t="n">
-        <v>6.917651876184124</v>
+        <v>20.87295101141605</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.68930538987411</v>
+        <v>3.470335269383932</v>
       </c>
       <c r="R12" t="n">
-        <v>33.35827338443897</v>
+        <v>41.64169041592127</v>
       </c>
       <c r="S12" t="n">
-        <v>14.58305310301027</v>
+        <v>28.13584699555052</v>
       </c>
       <c r="T12" t="n">
-        <v>38.61112738404639</v>
+        <v>19.74048046919964</v>
       </c>
       <c r="U12" t="n">
-        <v>24.13443598513548</v>
+        <v>43.22391298645713</v>
       </c>
       <c r="V12" t="n">
-        <v>5.51151092229192</v>
+        <v>22.94653213606363</v>
       </c>
       <c r="W12" t="n">
-        <v>26.0811650223712</v>
+        <v>12.72822490081211</v>
       </c>
       <c r="X12" t="n">
-        <v>20.39194374116397</v>
+        <v>9.290694673388414</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.62784714787941</v>
+        <v>24.26251137023003</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.56343883666721</v>
+        <v>3.2332816907878</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.24032739529694</v>
+        <v>14.35645926551947</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.18591006219964</v>
+        <v>11.62135349874817</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.573609665472834</v>
+        <v>25.34415642096576</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.75375450590422</v>
+        <v>49.5628787929956</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.41253845823149</v>
+        <v>2.867645880728777</v>
       </c>
       <c r="AF12" t="n">
-        <v>35.17660947216595</v>
+        <v>14.87691969411897</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.85931126520656</v>
+        <v>8.842510518200568</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.84626427569876</v>
+        <v>8.471760342715649</v>
       </c>
       <c r="AI12" t="n">
-        <v>16.56609744133791</v>
+        <v>10.86560800008855</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.030841943544406</v>
+        <v>20.63078801085299</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.434652018486616</v>
+        <v>8.567933694637576</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.931221203329697</v>
+        <v>9.130467305788176</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.426522176953283</v>
+        <v>5.494011617807541</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.760718242107736</v>
+        <v>0.589609089037941</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.175068421143868</v>
+        <v>3.603957696144462</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.042491461155167</v>
+        <v>2.232026578561685</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.252977368788889</v>
+        <v>8.802655060308226</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.8905864647934922</v>
+        <v>3.41450244279495</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.589719523106224</v>
+        <v>1.32327820137094</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.783777184458661</v>
+        <v>4.005363359423656</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.667862170931713</v>
+        <v>2.57372175054996</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.2390534425769573</v>
+        <v>0.5178119938641649</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.338212999644633</v>
+        <v>4.966603670540863</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.076447162292903</v>
+        <v>4.169642310757844</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.332973210138918</v>
+        <v>71.93058068117486</v>
       </c>
       <c r="D13" t="n">
-        <v>6.259250653242834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.826993874157743</v>
+        <v>19.00244408951639</v>
       </c>
       <c r="F13" t="n">
-        <v>19.72328519178939</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.39235106307021</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17.25715618661073</v>
+        <v>7.180231658189827</v>
       </c>
       <c r="I13" t="n">
-        <v>21.24964627245883</v>
+        <v>2.991649685313538</v>
       </c>
       <c r="J13" t="n">
-        <v>3.351327512847662</v>
+        <v>6.875023125648477</v>
       </c>
       <c r="K13" t="n">
-        <v>43.23284110961819</v>
+        <v>20.38104509354622</v>
       </c>
       <c r="L13" t="n">
-        <v>17.83752991638152</v>
+        <v>62.89931765393476</v>
       </c>
       <c r="M13" t="n">
-        <v>15.30575671491634</v>
+        <v>37.18543154486803</v>
       </c>
       <c r="N13" t="n">
-        <v>30.44437513942332</v>
+        <v>12.57130784516468</v>
       </c>
       <c r="O13" t="n">
-        <v>28.76613289022185</v>
+        <v>89.7700079080108</v>
       </c>
       <c r="P13" t="n">
-        <v>43.08301112941415</v>
+        <v>3.813954833184024</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.73765349742073</v>
+        <v>41.06583752750578</v>
       </c>
       <c r="R13" t="n">
-        <v>37.30246109541566</v>
+        <v>6.504381159787712</v>
       </c>
       <c r="S13" t="n">
-        <v>6.85510329620605</v>
+        <v>22.6333054268852</v>
       </c>
       <c r="T13" t="n">
-        <v>47.55974571133078</v>
+        <v>9.712408726783288</v>
       </c>
       <c r="U13" t="n">
-        <v>11.17498007290472</v>
+        <v>32.7621649790111</v>
       </c>
       <c r="V13" t="n">
-        <v>225.9423439714711</v>
+        <v>23.4526695543787</v>
       </c>
       <c r="W13" t="n">
-        <v>2.993138545067686</v>
+        <v>50.42372420118171</v>
       </c>
       <c r="X13" t="n">
-        <v>16.3842068724324</v>
+        <v>18.43510567099525</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.71402934406782</v>
+        <v>39.43071610425113</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.828260530758744</v>
+        <v>36.93580187813517</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.87866125087253</v>
+        <v>6.608245111802653</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.58851866781206</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.588786778141371</v>
+        <v>21.26592878059248</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.257759459356503</v>
+        <v>7.162640808398132</v>
       </c>
       <c r="AE13" t="n">
-        <v>33.13565981942622</v>
+        <v>17.27807663205656</v>
       </c>
       <c r="AF13" t="n">
-        <v>24.99484325916745</v>
+        <v>6.158477081310989</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.228959567880661</v>
+        <v>10.42348715253794</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.509321310176003</v>
+        <v>25.70116868539074</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.6896218087142053</v>
+        <v>3.687847539873904</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.070208312393492</v>
+        <v>5.923360905563399</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.64964190462988</v>
+        <v>2.296410959283423</v>
       </c>
       <c r="AL13" t="n">
-        <v>18.77216941325907</v>
+        <v>15.29348475431839</v>
       </c>
       <c r="AM13" t="n">
-        <v>30.46764381354305</v>
+        <v>12.60953333902589</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.5111117376234454</v>
+        <v>12.97454685612305</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.752817930753606</v>
+        <v>21.25324625609647</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.689068625176024</v>
+        <v>13.22927239776882</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.881918678721447</v>
+        <v>6.064973359004128</v>
       </c>
       <c r="AR13" t="n">
-        <v>4.575497154219787</v>
+        <v>5.047927792478648</v>
       </c>
       <c r="AS13" t="n">
-        <v>12.68379945535666</v>
+        <v>4.90969135032041</v>
       </c>
       <c r="AT13" t="n">
-        <v>23.9160099468175</v>
+        <v>3.505031634153956</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.732213452079784</v>
+        <v>18.83280150276634</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.935553328920529</v>
+        <v>4.538320435088107</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.330099382781635</v>
+        <v>2.818274888227762</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.176851535190818</v>
+        <v>12.9592118272753</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>25.04994259783695</v>
+        <v>24.4066399892786</v>
       </c>
       <c r="D14" t="n">
-        <v>28.25059844568839</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>30.63095226549634</v>
+        <v>18.82876989918454</v>
       </c>
       <c r="F14" t="n">
-        <v>12.76218665979452</v>
+        <v>26.20515227104089</v>
       </c>
       <c r="G14" t="n">
-        <v>26.52821793162081</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>84.43272130897674</v>
+        <v>8.97832189314558</v>
       </c>
       <c r="I14" t="n">
-        <v>102.5156216754226</v>
+        <v>52.11862239271188</v>
       </c>
       <c r="J14" t="n">
-        <v>24.58062237547497</v>
+        <v>16.74589521766439</v>
       </c>
       <c r="K14" t="n">
-        <v>28.61419683835561</v>
+        <v>66.73222077183735</v>
       </c>
       <c r="L14" t="n">
-        <v>37.76276549576995</v>
+        <v>69.62706510232107</v>
       </c>
       <c r="M14" t="n">
-        <v>49.36027430155194</v>
+        <v>174.1277114480178</v>
       </c>
       <c r="N14" t="n">
-        <v>139.0808236847949</v>
+        <v>29.19055011516863</v>
       </c>
       <c r="O14" t="n">
-        <v>88.02028852359153</v>
+        <v>5.475265806151334</v>
       </c>
       <c r="P14" t="n">
-        <v>46.87464903925073</v>
+        <v>75.69576763340606</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.99653273337599</v>
+        <v>62.66864384632438</v>
       </c>
       <c r="R14" t="n">
-        <v>84.52184813837312</v>
+        <v>94.97770201653249</v>
       </c>
       <c r="S14" t="n">
-        <v>91.11231862936594</v>
+        <v>69.95207875614655</v>
       </c>
       <c r="T14" t="n">
-        <v>27.84272109586874</v>
+        <v>38.95839796890392</v>
       </c>
       <c r="U14" t="n">
-        <v>54.37121231706984</v>
+        <v>124.5127761009663</v>
       </c>
       <c r="V14" t="n">
-        <v>69.8623635678442</v>
+        <v>82.12419450181027</v>
       </c>
       <c r="W14" t="n">
-        <v>36.52863592284399</v>
+        <v>25.59646116067294</v>
       </c>
       <c r="X14" t="n">
-        <v>42.32283150049317</v>
+        <v>62.97871975559745</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.63834213636044</v>
+        <v>56.07574238014023</v>
       </c>
       <c r="Z14" t="n">
-        <v>65.05348903077193</v>
+        <v>66.09867125480235</v>
       </c>
       <c r="AA14" t="n">
-        <v>41.51192224752845</v>
+        <v>58.31981467941151</v>
       </c>
       <c r="AB14" t="n">
-        <v>133.0718072525276</v>
+        <v>70.69991240239432</v>
       </c>
       <c r="AC14" t="n">
-        <v>117.3268985688345</v>
+        <v>158.852148421885</v>
       </c>
       <c r="AD14" t="n">
-        <v>102.8033623735523</v>
+        <v>93.42126678581394</v>
       </c>
       <c r="AE14" t="n">
-        <v>74.89908665717574</v>
+        <v>122.9652040027055</v>
       </c>
       <c r="AF14" t="n">
-        <v>236.0052652888519</v>
+        <v>167.1244029975745</v>
       </c>
       <c r="AG14" t="n">
-        <v>112.3345289672767</v>
+        <v>153.0919817544556</v>
       </c>
       <c r="AH14" t="n">
-        <v>70.52502110609672</v>
+        <v>107.721921069186</v>
       </c>
       <c r="AI14" t="n">
-        <v>135.9016379854487</v>
+        <v>99.58324977822247</v>
       </c>
       <c r="AJ14" t="n">
-        <v>35.03722191965877</v>
+        <v>54.18140278958592</v>
       </c>
       <c r="AK14" t="n">
-        <v>62.94262249823862</v>
+        <v>56.51951701892879</v>
       </c>
       <c r="AL14" t="n">
-        <v>34.19474210368345</v>
+        <v>45.44389870446055</v>
       </c>
       <c r="AM14" t="n">
-        <v>21.75007323712676</v>
+        <v>29.33425577407761</v>
       </c>
       <c r="AN14" t="n">
-        <v>34.710903384975</v>
+        <v>12.55416775411689</v>
       </c>
       <c r="AO14" t="n">
-        <v>48.22815028090123</v>
+        <v>47.01016427887424</v>
       </c>
       <c r="AP14" t="n">
-        <v>17.77863972149666</v>
+        <v>19.66782010080057</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23.39533331766853</v>
+        <v>20.56230811287842</v>
       </c>
       <c r="AR14" t="n">
-        <v>38.0767501801164</v>
+        <v>21.60276552754915</v>
       </c>
       <c r="AS14" t="n">
-        <v>24.19501486875327</v>
+        <v>14.36920694694153</v>
       </c>
       <c r="AT14" t="n">
-        <v>34.50598459013915</v>
+        <v>17.7958229262229</v>
       </c>
       <c r="AU14" t="n">
-        <v>18.10115436960813</v>
+        <v>17.73316354730091</v>
       </c>
       <c r="AV14" t="n">
-        <v>30.93997383355504</v>
+        <v>13.07201793830523</v>
       </c>
       <c r="AW14" t="n">
-        <v>15.60668249037819</v>
+        <v>7.846153842305275</v>
       </c>
       <c r="AX14" t="n">
-        <v>13.66963323883033</v>
+        <v>19.84606753976774</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3823253018130129</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7175295082680641</v>
+        <v>2.78670181730376</v>
       </c>
       <c r="E15" t="n">
-        <v>45.11112056112474</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>16.83519765076297</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9.933268061719781</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.381189598472596</v>
+        <v>0.9579258671012196</v>
       </c>
       <c r="I15" t="n">
-        <v>7.203634049481487</v>
+        <v>3.86679096127852</v>
       </c>
       <c r="J15" t="n">
-        <v>4.663168139556399</v>
+        <v>2.85714555006076</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3816690590979815</v>
+        <v>6.243507756414393</v>
       </c>
       <c r="L15" t="n">
-        <v>7.911045600912575</v>
+        <v>5.058247429902172</v>
       </c>
       <c r="M15" t="n">
-        <v>24.27574350156254</v>
+        <v>2.651211282482772</v>
       </c>
       <c r="N15" t="n">
-        <v>1.657186235066699</v>
+        <v>1.313792393630805</v>
       </c>
       <c r="O15" t="n">
-        <v>1.341739116878798</v>
+        <v>4.275345910354797</v>
       </c>
       <c r="P15" t="n">
-        <v>6.080665153554521</v>
+        <v>6.14481275867522</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.608240878598196</v>
+        <v>3.778636281560379</v>
       </c>
       <c r="R15" t="n">
-        <v>5.768259168831291</v>
+        <v>21.26502672141083</v>
       </c>
       <c r="S15" t="n">
-        <v>3.339918190852794</v>
+        <v>1.64579802221027</v>
       </c>
       <c r="T15" t="n">
-        <v>2.664660421627964</v>
+        <v>6.045255755431233</v>
       </c>
       <c r="U15" t="n">
-        <v>7.689193498530002</v>
+        <v>4.165031055651655</v>
       </c>
       <c r="V15" t="n">
-        <v>3.235272723326084</v>
+        <v>4.157557439538529</v>
       </c>
       <c r="W15" t="n">
-        <v>6.492692678201303</v>
+        <v>2.978095164244951</v>
       </c>
       <c r="X15" t="n">
-        <v>7.616122572883218</v>
+        <v>3.787523678578543</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.02361325537827</v>
+        <v>1.479859188980658</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.13879029304401</v>
+        <v>4.603359697857623</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.501022441099919</v>
+        <v>1.694411513863431</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.080399858805808</v>
+        <v>2.9743152101268</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.771635162655571</v>
+        <v>5.673831306414315</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.86811174602316</v>
+        <v>10.00593095864902</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.657610240065418</v>
+        <v>6.189835436515859</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.435933406566218</v>
+        <v>4.275983248902971</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.164919411654687</v>
+        <v>6.323302822679988</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.118572204829263</v>
+        <v>8.317601700902255</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.509728724803842</v>
+        <v>9.577281975710749</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.262981899651551</v>
+        <v>6.03014842724727</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.717193301800976</v>
+        <v>1.545853716311702</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.823336170297108</v>
+        <v>4.062232943936272</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.041861534520164</v>
+        <v>5.034289898321124</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.547883481788031</v>
+        <v>2.669177327973427</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.745946283163551</v>
+        <v>5.146401607693988</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.978659895515627</v>
+        <v>2.890044973674064</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.065305314395193</v>
+        <v>6.498818554452087</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.797084030403545</v>
+        <v>2.436525984883167</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.19467178227753</v>
+        <v>5.130262887228673</v>
       </c>
       <c r="AT15" t="n">
-        <v>7.528921648650079</v>
+        <v>2.48119531655206</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.766289812814842</v>
+        <v>1.068283613317758</v>
       </c>
       <c r="AV15" t="n">
-        <v>9.719541493145121</v>
+        <v>0.3158559278015339</v>
       </c>
       <c r="AW15" t="n">
-        <v>17.84402445103704</v>
+        <v>6.840947142096736</v>
       </c>
       <c r="AX15" t="n">
-        <v>17.48336666261694</v>
+        <v>6.241995744294107</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>7.257643071770737</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>19.31565824249452</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.73253260275986</v>
+        <v>6.519583739801933</v>
       </c>
       <c r="F16" t="n">
-        <v>35.46506894668247</v>
+        <v>14.42593330639448</v>
       </c>
       <c r="G16" t="n">
-        <v>13.78685448527773</v>
+        <v>19.25157708009865</v>
       </c>
       <c r="H16" t="n">
-        <v>21.33440651289633</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>53.53196126679858</v>
+        <v>37.18243546410504</v>
       </c>
       <c r="J16" t="n">
-        <v>34.8413432884763</v>
+        <v>28.17196418155006</v>
       </c>
       <c r="K16" t="n">
-        <v>60.81956999400545</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>25.38963637930805</v>
+        <v>52.54447987420374</v>
       </c>
       <c r="M16" t="n">
-        <v>61.2889609812872</v>
+        <v>37.91577714065049</v>
       </c>
       <c r="N16" t="n">
-        <v>64.78308727927347</v>
+        <v>110.210063818089</v>
       </c>
       <c r="O16" t="n">
-        <v>100.5554663832245</v>
+        <v>54.20667371030082</v>
       </c>
       <c r="P16" t="n">
-        <v>61.58722630301224</v>
+        <v>171.4870887442108</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.27827694082583</v>
+        <v>38.70533215164836</v>
       </c>
       <c r="R16" t="n">
-        <v>79.00837340465326</v>
+        <v>54.11055632664942</v>
       </c>
       <c r="S16" t="n">
-        <v>158.9602114523919</v>
+        <v>81.98248967605403</v>
       </c>
       <c r="T16" t="n">
-        <v>27.49006413672243</v>
+        <v>57.33066104304731</v>
       </c>
       <c r="U16" t="n">
-        <v>91.83875561784042</v>
+        <v>24.59964665160518</v>
       </c>
       <c r="V16" t="n">
-        <v>89.74782686156054</v>
+        <v>1.145336993859001</v>
       </c>
       <c r="W16" t="n">
-        <v>109.0843460986188</v>
+        <v>30.14511849255799</v>
       </c>
       <c r="X16" t="n">
-        <v>28.52345920703015</v>
+        <v>56.75637779365366</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.67164224576499</v>
+        <v>52.83876486668436</v>
       </c>
       <c r="Z16" t="n">
-        <v>73.18644874063955</v>
+        <v>57.15620472861679</v>
       </c>
       <c r="AA16" t="n">
-        <v>45.33396145194275</v>
+        <v>58.76436193759375</v>
       </c>
       <c r="AB16" t="n">
-        <v>76.2678930874001</v>
+        <v>46.41376334064194</v>
       </c>
       <c r="AC16" t="n">
-        <v>115.8601267770732</v>
+        <v>79.30799758433032</v>
       </c>
       <c r="AD16" t="n">
-        <v>107.5023175228598</v>
+        <v>59.43784906033611</v>
       </c>
       <c r="AE16" t="n">
-        <v>65.37071875867989</v>
+        <v>72.99968986219403</v>
       </c>
       <c r="AF16" t="n">
-        <v>61.67680239670614</v>
+        <v>42.9080798203821</v>
       </c>
       <c r="AG16" t="n">
-        <v>68.04920460021374</v>
+        <v>48.30325473189298</v>
       </c>
       <c r="AH16" t="n">
-        <v>121.2124216029991</v>
+        <v>31.00172782544924</v>
       </c>
       <c r="AI16" t="n">
-        <v>51.2996712951084</v>
+        <v>29.81621465111473</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36.60820969088424</v>
+        <v>200.3736386090101</v>
       </c>
       <c r="AK16" t="n">
-        <v>21.36897791705137</v>
+        <v>38.68956447526384</v>
       </c>
       <c r="AL16" t="n">
-        <v>23.89308637572154</v>
+        <v>33.73951492032532</v>
       </c>
       <c r="AM16" t="n">
-        <v>21.23692923353881</v>
+        <v>9.630763357502211</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.02763066277804</v>
+        <v>33.5786874092649</v>
       </c>
       <c r="AO16" t="n">
-        <v>55.84454240250066</v>
+        <v>22.33597122192141</v>
       </c>
       <c r="AP16" t="n">
-        <v>30.66407105337072</v>
+        <v>10.70316143641503</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9.348750721781439</v>
+        <v>28.93491007446504</v>
       </c>
       <c r="AR16" t="n">
-        <v>19.8957292674484</v>
+        <v>14.79460894643319</v>
       </c>
       <c r="AS16" t="n">
-        <v>19.57154800551664</v>
+        <v>5.660649647476871</v>
       </c>
       <c r="AT16" t="n">
-        <v>21.47015954598131</v>
+        <v>12.13273391020725</v>
       </c>
       <c r="AU16" t="n">
-        <v>18.98175833886284</v>
+        <v>22.76918900978395</v>
       </c>
       <c r="AV16" t="n">
-        <v>13.94314387239629</v>
+        <v>15.09464895855914</v>
       </c>
       <c r="AW16" t="n">
-        <v>11.89543503104622</v>
+        <v>8.930783539500174</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.93610422285022</v>
+        <v>7.703267802948455</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>4.844139449950936</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.417351540334504</v>
+        <v>25.3761144076488</v>
       </c>
       <c r="E17" t="n">
-        <v>30.71377295980554</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>14.98568758430807</v>
+        <v>11.42010913351303</v>
       </c>
       <c r="G17" t="n">
-        <v>37.19000985495031</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>21.71228842933293</v>
+        <v>6.069851481454107</v>
       </c>
       <c r="I17" t="n">
-        <v>68.61494719836479</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.00586529521985</v>
+        <v>146.3445717087729</v>
       </c>
       <c r="K17" t="n">
-        <v>55.03275927762619</v>
+        <v>6.093925599205009</v>
       </c>
       <c r="L17" t="n">
-        <v>12.09122931645913</v>
+        <v>47.3266674911989</v>
       </c>
       <c r="M17" t="n">
-        <v>48.20726823649643</v>
+        <v>28.43686859590194</v>
       </c>
       <c r="N17" t="n">
-        <v>33.94454508676669</v>
+        <v>94.99928084792433</v>
       </c>
       <c r="O17" t="n">
-        <v>41.27582614590872</v>
+        <v>36.28756999910595</v>
       </c>
       <c r="P17" t="n">
-        <v>48.52207573850566</v>
+        <v>20.11397015637926</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.3268474667253</v>
+        <v>61.50677034004338</v>
       </c>
       <c r="R17" t="n">
-        <v>87.14100816243975</v>
+        <v>135.3610934549395</v>
       </c>
       <c r="S17" t="n">
-        <v>48.11785718346159</v>
+        <v>36.45259824063016</v>
       </c>
       <c r="T17" t="n">
-        <v>13.27900958839976</v>
+        <v>31.5890173844506</v>
       </c>
       <c r="U17" t="n">
-        <v>71.53488713145985</v>
+        <v>63.20351929911976</v>
       </c>
       <c r="V17" t="n">
-        <v>10.41462679647526</v>
+        <v>43.02037893750704</v>
       </c>
       <c r="W17" t="n">
-        <v>39.8954210868784</v>
+        <v>88.4560107137232</v>
       </c>
       <c r="X17" t="n">
-        <v>63.40004605947131</v>
+        <v>20.06562088454197</v>
       </c>
       <c r="Y17" t="n">
-        <v>30.78429801237952</v>
+        <v>157.5343212207875</v>
       </c>
       <c r="Z17" t="n">
-        <v>33.26309005616222</v>
+        <v>49.19209271919615</v>
       </c>
       <c r="AA17" t="n">
-        <v>38.290234105696</v>
+        <v>38.30149560247563</v>
       </c>
       <c r="AB17" t="n">
-        <v>23.67562104182721</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>55.29834699742958</v>
+        <v>38.81397159193871</v>
       </c>
       <c r="AD17" t="n">
-        <v>70.0744612107201</v>
+        <v>36.12802484118137</v>
       </c>
       <c r="AE17" t="n">
-        <v>123.0431766068407</v>
+        <v>13.98121534327449</v>
       </c>
       <c r="AF17" t="n">
-        <v>18.34986334903063</v>
+        <v>22.53137965016694</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.607476517894812</v>
+        <v>2.551282382394574</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.70502406230794</v>
+        <v>28.25922573501456</v>
       </c>
       <c r="AI17" t="n">
-        <v>47.22265321559902</v>
+        <v>43.95395189433066</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32.57393087229401</v>
+        <v>3.146967348671282</v>
       </c>
       <c r="AK17" t="n">
-        <v>23.00424526986789</v>
+        <v>29.7414433446228</v>
       </c>
       <c r="AL17" t="n">
-        <v>33.81421168907</v>
+        <v>36.65352125963062</v>
       </c>
       <c r="AM17" t="n">
-        <v>16.35222544715952</v>
+        <v>24.80193771192668</v>
       </c>
       <c r="AN17" t="n">
-        <v>27.4576070864044</v>
+        <v>9.46523137111074</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.32899539028312</v>
+        <v>21.62230028632559</v>
       </c>
       <c r="AP17" t="n">
-        <v>25.82877504406969</v>
+        <v>38.27130708519135</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23.12974949956974</v>
+        <v>29.76685580707705</v>
       </c>
       <c r="AR17" t="n">
-        <v>69.15793307481266</v>
+        <v>78.82930601211736</v>
       </c>
       <c r="AS17" t="n">
-        <v>16.56241055027423</v>
+        <v>48.76455517378319</v>
       </c>
       <c r="AT17" t="n">
-        <v>50.53444181192294</v>
+        <v>4.06762996940771</v>
       </c>
       <c r="AU17" t="n">
-        <v>12.09119531845943</v>
+        <v>39.2754028673904</v>
       </c>
       <c r="AV17" t="n">
-        <v>5.885517716569063</v>
+        <v>35.76494890871117</v>
       </c>
       <c r="AW17" t="n">
-        <v>12.95271512801879</v>
+        <v>36.8983964927433</v>
       </c>
       <c r="AX17" t="n">
-        <v>10.16716825303058</v>
+        <v>14.11761764733449</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.897539965150821</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.212076381796127</v>
+        <v>4.102009842113685</v>
       </c>
       <c r="E18" t="n">
-        <v>1.768924280329156</v>
+        <v>4.106402609976236</v>
       </c>
       <c r="F18" t="n">
-        <v>8.066641783413427</v>
+        <v>4.644298471175002</v>
       </c>
       <c r="G18" t="n">
-        <v>1.751920077569576</v>
+        <v>11.35553672223216</v>
       </c>
       <c r="H18" t="n">
-        <v>2.042983937198338</v>
+        <v>11.21277844189</v>
       </c>
       <c r="I18" t="n">
-        <v>20.41030648272269</v>
+        <v>72.37402381408961</v>
       </c>
       <c r="J18" t="n">
-        <v>25.13218937840541</v>
+        <v>8.628143538737746</v>
       </c>
       <c r="K18" t="n">
-        <v>10.17947241565193</v>
+        <v>87.69124131435292</v>
       </c>
       <c r="L18" t="n">
-        <v>30.16596817997678</v>
+        <v>7.671128947228289</v>
       </c>
       <c r="M18" t="n">
-        <v>39.05647419134748</v>
+        <v>40.88453622342281</v>
       </c>
       <c r="N18" t="n">
-        <v>27.05190617331893</v>
+        <v>50.33436966022487</v>
       </c>
       <c r="O18" t="n">
-        <v>39.88835091651608</v>
+        <v>20.61152787354621</v>
       </c>
       <c r="P18" t="n">
-        <v>26.02235624461855</v>
+        <v>3.175387216256346</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.20564296887902</v>
+        <v>18.63613031884906</v>
       </c>
       <c r="R18" t="n">
-        <v>8.719627019128176</v>
+        <v>7.176524685193901</v>
       </c>
       <c r="S18" t="n">
-        <v>6.196273291591805</v>
+        <v>45.5405226067795</v>
       </c>
       <c r="T18" t="n">
-        <v>25.6347739589717</v>
+        <v>19.78969986668205</v>
       </c>
       <c r="U18" t="n">
-        <v>14.71015235181247</v>
+        <v>41.46635690823302</v>
       </c>
       <c r="V18" t="n">
-        <v>14.25913470306763</v>
+        <v>32.18935686791189</v>
       </c>
       <c r="W18" t="n">
-        <v>16.30613063118186</v>
+        <v>22.46802385544885</v>
       </c>
       <c r="X18" t="n">
-        <v>37.42767801064824</v>
+        <v>20.78134546952296</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.7211865604139</v>
+        <v>12.31512505689298</v>
       </c>
       <c r="Z18" t="n">
-        <v>35.33606282331479</v>
+        <v>14.2569050972248</v>
       </c>
       <c r="AA18" t="n">
-        <v>12.42269237480776</v>
+        <v>21.2301656099513</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.04200835459474</v>
+        <v>7.269294557983761</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.976752979112975</v>
+        <v>15.34123529072607</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.71943677273421</v>
+        <v>3.397445473639814</v>
       </c>
       <c r="AE18" t="n">
-        <v>69.75737487163782</v>
+        <v>26.7206221840404</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.3099806434275</v>
+        <v>10.62387604184475</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.944754430411533</v>
+        <v>2.921757844165286</v>
       </c>
       <c r="AH18" t="n">
-        <v>16.27672897720772</v>
+        <v>11.98811292841496</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.115568276438</v>
+        <v>8.519797677088359</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.875492445747564</v>
+        <v>10.45537615621939</v>
       </c>
       <c r="AK18" t="n">
-        <v>22.90053763627369</v>
+        <v>15.1276564349667</v>
       </c>
       <c r="AL18" t="n">
-        <v>3.230329404703527</v>
+        <v>4.745990494124487</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.431042774939434</v>
+        <v>8.186411783198349</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.254729834998952</v>
+        <v>1.942816600418437</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.18218533709443</v>
+        <v>3.85044997601284</v>
       </c>
       <c r="AP18" t="n">
-        <v>5.168802864743071</v>
+        <v>3.220738155811979</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.727464524330961</v>
+        <v>2.06799183007915</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.8254680194796622</v>
+        <v>1.528804914081752</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.8016021046616633</v>
+        <v>4.389307430036283</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.029630199458683</v>
+        <v>1.894683440993233</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.205052854602148</v>
+        <v>0.5201151683774207</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.957244437024797</v>
+        <v>2.892700045666158</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.831936837674127</v>
+        <v>3.881041428475188</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.222697787028259</v>
+        <v>1.870861155511618</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>25.64071054777462</v>
+        <v>6.646097567093646</v>
       </c>
       <c r="D19" t="n">
-        <v>7.711779891643347</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.55159410115044</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>14.89292961482771</v>
+        <v>0.4526231507934035</v>
       </c>
       <c r="G19" t="n">
-        <v>24.22149941555771</v>
+        <v>24.36005526965736</v>
       </c>
       <c r="H19" t="n">
-        <v>19.91052778585269</v>
+        <v>16.35753460249814</v>
       </c>
       <c r="I19" t="n">
-        <v>1.831257375805063</v>
+        <v>5.58732613033548</v>
       </c>
       <c r="J19" t="n">
-        <v>7.233480362938747</v>
+        <v>9.415673863565885</v>
       </c>
       <c r="K19" t="n">
-        <v>17.12988107855765</v>
+        <v>33.34115181962451</v>
       </c>
       <c r="L19" t="n">
-        <v>41.29675375918492</v>
+        <v>28.40948255241866</v>
       </c>
       <c r="M19" t="n">
-        <v>35.04049850097712</v>
+        <v>45.10812798804645</v>
       </c>
       <c r="N19" t="n">
-        <v>32.45497887955</v>
+        <v>11.09145393131818</v>
       </c>
       <c r="O19" t="n">
-        <v>35.05912174664559</v>
+        <v>29.51279333329688</v>
       </c>
       <c r="P19" t="n">
-        <v>41.28424819813353</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.47767521991452</v>
+        <v>44.14334721799018</v>
       </c>
       <c r="R19" t="n">
-        <v>2.827937170824101</v>
+        <v>53.86243546658714</v>
       </c>
       <c r="S19" t="n">
-        <v>11.69893562640955</v>
+        <v>13.34253756764268</v>
       </c>
       <c r="T19" t="n">
-        <v>6.219916935851645</v>
+        <v>85.41351718832348</v>
       </c>
       <c r="U19" t="n">
-        <v>21.60646258870868</v>
+        <v>2.347075981484206</v>
       </c>
       <c r="V19" t="n">
-        <v>26.25453968609395</v>
+        <v>37.2378339788938</v>
       </c>
       <c r="W19" t="n">
-        <v>11.87953187395461</v>
+        <v>12.73878072328098</v>
       </c>
       <c r="X19" t="n">
-        <v>4.879985554435277</v>
+        <v>14.3369809387761</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.080102501366295</v>
+        <v>28.42567771871681</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.01537981019323</v>
+        <v>38.6842608951487</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.45536277571095</v>
+        <v>22.83092526746211</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.077156911565252</v>
+        <v>26.80374559700024</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.220346936321953</v>
+        <v>7.127006508198527</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.776614537919557</v>
+        <v>6.320809430753272</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.498755973456234</v>
+        <v>8.457816081900724</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.531857047253737</v>
+        <v>4.109347848396436</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.45736358080246</v>
+        <v>5.594016854809269</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.22758900358065</v>
+        <v>7.631049463640728</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.510265999036507</v>
+        <v>37.73191176944368</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.17975952657583</v>
+        <v>14.34376917114758</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.40126113207663</v>
+        <v>0.5667752305877025</v>
       </c>
       <c r="AL19" t="n">
-        <v>13.73690036753706</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.184251713493921</v>
+        <v>1.154753911409795</v>
       </c>
       <c r="AN19" t="n">
-        <v>36.39244313783317</v>
+        <v>8.813683383686755</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.565885012442191</v>
+        <v>9.019344200776807</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.150534060395264</v>
+        <v>12.0021099185617</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.574808444867589</v>
+        <v>1.401108307625635</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.638634626495316</v>
+        <v>5.068439663582703</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.248521936383454</v>
+        <v>3.050305211084622</v>
       </c>
       <c r="AT19" t="n">
-        <v>18.23427313374059</v>
+        <v>9.019856106085044</v>
       </c>
       <c r="AU19" t="n">
-        <v>37.05805567268779</v>
+        <v>5.384266091839506</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.474734565484341</v>
+        <v>11.59645699270918</v>
       </c>
       <c r="AW19" t="n">
-        <v>13.3842896190332</v>
+        <v>8.050835286505267</v>
       </c>
       <c r="AX19" t="n">
-        <v>2.471220736496087</v>
+        <v>12.19648235741496</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>7.957242472083516</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>15.86449557967578</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.889936159727</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>14.31003238977308</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12.44657799331855</v>
+        <v>23.39644926045738</v>
       </c>
       <c r="H20" t="n">
-        <v>14.24269118737877</v>
+        <v>10.31101639071678</v>
       </c>
       <c r="I20" t="n">
-        <v>49.173125061738</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.91929326767444</v>
+        <v>130.0090851540413</v>
       </c>
       <c r="K20" t="n">
-        <v>28.95755815583301</v>
+        <v>80.58451967747064</v>
       </c>
       <c r="L20" t="n">
-        <v>18.78271198542502</v>
+        <v>66.67689733211574</v>
       </c>
       <c r="M20" t="n">
-        <v>32.76728955504343</v>
+        <v>316.7731090019602</v>
       </c>
       <c r="N20" t="n">
-        <v>63.96726525926154</v>
+        <v>96.91675458734427</v>
       </c>
       <c r="O20" t="n">
-        <v>45.36918473102845</v>
+        <v>51.64009462641237</v>
       </c>
       <c r="P20" t="n">
-        <v>108.7242164282069</v>
+        <v>47.87212126255669</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.11107870593427</v>
+        <v>43.25629144515677</v>
       </c>
       <c r="R20" t="n">
-        <v>49.90274180619355</v>
+        <v>36.86175047470071</v>
       </c>
       <c r="S20" t="n">
-        <v>49.54344451328247</v>
+        <v>33.51230123488536</v>
       </c>
       <c r="T20" t="n">
-        <v>14.73383329113255</v>
+        <v>13.2200312399927</v>
       </c>
       <c r="U20" t="n">
-        <v>108.461738528854</v>
+        <v>66.12654986416331</v>
       </c>
       <c r="V20" t="n">
-        <v>70.79542433428706</v>
+        <v>89.68337547849444</v>
       </c>
       <c r="W20" t="n">
-        <v>96.67608682366942</v>
+        <v>56.19824289916581</v>
       </c>
       <c r="X20" t="n">
-        <v>38.84794140870315</v>
+        <v>39.21225483418468</v>
       </c>
       <c r="Y20" t="n">
-        <v>39.93316029015052</v>
+        <v>44.10163813331552</v>
       </c>
       <c r="Z20" t="n">
-        <v>46.46809884570452</v>
+        <v>68.7842535076459</v>
       </c>
       <c r="AA20" t="n">
-        <v>49.17164506375612</v>
+        <v>79.93329976159012</v>
       </c>
       <c r="AB20" t="n">
-        <v>87.78554292252815</v>
+        <v>112.1078201042274</v>
       </c>
       <c r="AC20" t="n">
-        <v>48.21247221307866</v>
+        <v>153.6944075347299</v>
       </c>
       <c r="AD20" t="n">
-        <v>94.70167186509936</v>
+        <v>71.42937569810898</v>
       </c>
       <c r="AE20" t="n">
-        <v>77.81302908524829</v>
+        <v>25.90182296474142</v>
       </c>
       <c r="AF20" t="n">
-        <v>52.4252868045903</v>
+        <v>177.7523200980486</v>
       </c>
       <c r="AG20" t="n">
-        <v>114.4850922442324</v>
+        <v>195.2774321094356</v>
       </c>
       <c r="AH20" t="n">
-        <v>59.51122231800967</v>
+        <v>189.274171139886</v>
       </c>
       <c r="AI20" t="n">
-        <v>84.31993754092295</v>
+        <v>56.96398265383758</v>
       </c>
       <c r="AJ20" t="n">
-        <v>99.88497310193337</v>
+        <v>75.67674624478197</v>
       </c>
       <c r="AK20" t="n">
-        <v>31.89298445922559</v>
+        <v>54.22947826702769</v>
       </c>
       <c r="AL20" t="n">
-        <v>40.90557553593137</v>
+        <v>97.08620892810559</v>
       </c>
       <c r="AM20" t="n">
-        <v>41.13406329812793</v>
+        <v>27.99841121178799</v>
       </c>
       <c r="AN20" t="n">
-        <v>42.10015521116456</v>
+        <v>13.29241237526043</v>
       </c>
       <c r="AO20" t="n">
-        <v>29.87267045504527</v>
+        <v>54.99222271865174</v>
       </c>
       <c r="AP20" t="n">
-        <v>14.13588439445369</v>
+        <v>22.92112986215691</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14.75696555901454</v>
+        <v>22.79454969689199</v>
       </c>
       <c r="AR20" t="n">
-        <v>17.92857581074634</v>
+        <v>28.44482037204256</v>
       </c>
       <c r="AS20" t="n">
-        <v>14.06256841686631</v>
+        <v>28.43126682391044</v>
       </c>
       <c r="AT20" t="n">
-        <v>13.84909861811541</v>
+        <v>17.51357531104403</v>
       </c>
       <c r="AU20" t="n">
-        <v>22.37200792781018</v>
+        <v>32.19438725928279</v>
       </c>
       <c r="AV20" t="n">
-        <v>29.79541159431379</v>
+        <v>16.25507873868459</v>
       </c>
       <c r="AW20" t="n">
-        <v>16.30597502615809</v>
+        <v>18.50530243390434</v>
       </c>
       <c r="AX20" t="n">
-        <v>27.28394726463026</v>
+        <v>15.51178968225118</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.022293456472355</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7340713570991414</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>7.295200842004723</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.189965700734563</v>
+        <v>3.106430646783539</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4881660822366001</v>
+        <v>1.866679224164812</v>
       </c>
       <c r="H21" t="n">
-        <v>1.132181707646144</v>
+        <v>3.387701557710697</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1611449741616971</v>
+        <v>8.786720626671874</v>
       </c>
       <c r="J21" t="n">
-        <v>1.441269417466537</v>
+        <v>1.969760368288459</v>
       </c>
       <c r="K21" t="n">
-        <v>3.258770807697005</v>
+        <v>4.66757328081048</v>
       </c>
       <c r="L21" t="n">
-        <v>7.164307490587733</v>
+        <v>3.76910838090981</v>
       </c>
       <c r="M21" t="n">
-        <v>1.581112794141272</v>
+        <v>4.160376410782505</v>
       </c>
       <c r="N21" t="n">
-        <v>1.375328562239341</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>13.07950986079293</v>
+        <v>2.509739521747872</v>
       </c>
       <c r="P21" t="n">
-        <v>9.616854443776347</v>
+        <v>1.865049970254746</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.139462144426761</v>
+        <v>6.855069114008941</v>
       </c>
       <c r="R21" t="n">
-        <v>1.421156586396341</v>
+        <v>7.126668376495032</v>
       </c>
       <c r="S21" t="n">
-        <v>3.504445523621488</v>
+        <v>5.044345118604005</v>
       </c>
       <c r="T21" t="n">
-        <v>4.550958162594139</v>
+        <v>0.7389546377577261</v>
       </c>
       <c r="U21" t="n">
-        <v>4.191514234536011</v>
+        <v>9.69933756595624</v>
       </c>
       <c r="V21" t="n">
-        <v>3.449648476692627</v>
+        <v>4.420752858898087</v>
       </c>
       <c r="W21" t="n">
-        <v>5.172359750550375</v>
+        <v>3.959661780699256</v>
       </c>
       <c r="X21" t="n">
-        <v>2.595632238182942</v>
+        <v>3.087769416111878</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.856569108119012</v>
+        <v>3.284015206005326</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.386365863846657</v>
+        <v>1.560574773168776</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.430466809787849</v>
+        <v>3.75644500409146</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.256255284510791</v>
+        <v>3.648304954558578</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.836822796549748</v>
+        <v>3.880468098017263</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.19089262761847</v>
+        <v>6.007389910840528</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.091982076864134</v>
+        <v>5.62481494562471</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.81995886680763</v>
+        <v>2.945505118533697</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.660249389406799</v>
+        <v>12.89392249048285</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5289294574357</v>
+        <v>5.438011017792516</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.083507188167254</v>
+        <v>3.378605223308291</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.726437150928376</v>
+        <v>5.059583545897375</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.713484602232923</v>
+        <v>5.186194908842833</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.052839285640526</v>
+        <v>4.349516156587502</v>
       </c>
       <c r="AM21" t="n">
-        <v>18.12119544627269</v>
+        <v>1.974470372368681</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.405315666298813</v>
+        <v>8.562018910206989</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.092696448201293</v>
+        <v>6.181295132926814</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.539178662676616</v>
+        <v>5.237523146029484</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12.99671364255595</v>
+        <v>4.591967672383395</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.106181137696882</v>
+        <v>3.886683109189905</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.23383150095743</v>
+        <v>3.301788304918648</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.64283033007919</v>
+        <v>2.884465059418004</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.121538299024932</v>
+        <v>1.848346327162642</v>
       </c>
       <c r="AV21" t="n">
-        <v>9.451850370813045</v>
+        <v>4.869792970888332</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.2835162145026933</v>
+        <v>7.23737353359363</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.7528858999586714</v>
+        <v>3.336172308074298</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>13.98838636025554</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.10392453384043</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>14.30234109071534</v>
+        <v>4.324416121589419</v>
       </c>
       <c r="F22" t="n">
-        <v>7.98532284294498</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.10627135465722</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>16.54004262540923</v>
+        <v>69.75686738461684</v>
       </c>
       <c r="I22" t="n">
-        <v>31.92499034112479</v>
+        <v>8.346303306367785</v>
       </c>
       <c r="J22" t="n">
-        <v>129.6219423835086</v>
+        <v>52.96756583719041</v>
       </c>
       <c r="K22" t="n">
-        <v>25.43000421681399</v>
+        <v>50.99575837191382</v>
       </c>
       <c r="L22" t="n">
-        <v>120.6931292923218</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>105.4350353089863</v>
+        <v>130.3630556336526</v>
       </c>
       <c r="N22" t="n">
-        <v>40.39821075203618</v>
+        <v>112.4064533733817</v>
       </c>
       <c r="O22" t="n">
-        <v>73.86409717658748</v>
+        <v>15.44068383782747</v>
       </c>
       <c r="P22" t="n">
-        <v>38.30589641663406</v>
+        <v>97.80829990346636</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.93106841019576</v>
+        <v>66.09499788072759</v>
       </c>
       <c r="R22" t="n">
-        <v>55.85735000536459</v>
+        <v>56.82934179693949</v>
       </c>
       <c r="S22" t="n">
-        <v>30.22856528730729</v>
+        <v>29.67291116228568</v>
       </c>
       <c r="T22" t="n">
-        <v>40.95398029307202</v>
+        <v>52.1140305224853</v>
       </c>
       <c r="U22" t="n">
-        <v>98.32844927101219</v>
+        <v>80.67916976932186</v>
       </c>
       <c r="V22" t="n">
-        <v>180.1428709193887</v>
+        <v>12.21538664791491</v>
       </c>
       <c r="W22" t="n">
-        <v>38.39969249686715</v>
+        <v>66.12210743868094</v>
       </c>
       <c r="X22" t="n">
-        <v>95.2714052829986</v>
+        <v>88.75361721192428</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.76801434762825</v>
+        <v>20.79634105923735</v>
       </c>
       <c r="Z22" t="n">
-        <v>34.80411244528356</v>
+        <v>96.64436614024477</v>
       </c>
       <c r="AA22" t="n">
-        <v>68.39272733324256</v>
+        <v>62.53248778264086</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.3234930493779</v>
+        <v>54.05019853735534</v>
       </c>
       <c r="AC22" t="n">
-        <v>51.13071661707675</v>
+        <v>91.26371059149622</v>
       </c>
       <c r="AD22" t="n">
-        <v>92.01859022344803</v>
+        <v>93.6694857417742</v>
       </c>
       <c r="AE22" t="n">
-        <v>60.65392558837108</v>
+        <v>75.77603510781154</v>
       </c>
       <c r="AF22" t="n">
-        <v>82.74054941775179</v>
+        <v>53.66907551891069</v>
       </c>
       <c r="AG22" t="n">
-        <v>60.55250759556335</v>
+        <v>47.76347715146923</v>
       </c>
       <c r="AH22" t="n">
-        <v>141.5539750823546</v>
+        <v>52.26260314950572</v>
       </c>
       <c r="AI22" t="n">
-        <v>118.9306194172592</v>
+        <v>14.89700442758747</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40.27583299819182</v>
+        <v>38.20786001832811</v>
       </c>
       <c r="AK22" t="n">
-        <v>27.89430480681952</v>
+        <v>40.92585179034957</v>
       </c>
       <c r="AL22" t="n">
-        <v>84.76963271648775</v>
+        <v>38.82481491598217</v>
       </c>
       <c r="AM22" t="n">
-        <v>36.80400502984576</v>
+        <v>18.20685463677988</v>
       </c>
       <c r="AN22" t="n">
-        <v>22.4385041435133</v>
+        <v>11.7930015134636</v>
       </c>
       <c r="AO22" t="n">
-        <v>18.23943002295083</v>
+        <v>36.49972043892985</v>
       </c>
       <c r="AP22" t="n">
-        <v>19.04031636724067</v>
+        <v>14.31745477327402</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26.5278518875934</v>
+        <v>11.08697024105534</v>
       </c>
       <c r="AR22" t="n">
-        <v>11.04836670721616</v>
+        <v>29.30556224063752</v>
       </c>
       <c r="AS22" t="n">
-        <v>13.79079043395673</v>
+        <v>7.799044574549178</v>
       </c>
       <c r="AT22" t="n">
-        <v>19.07668077097394</v>
+        <v>13.92111116013076</v>
       </c>
       <c r="AU22" t="n">
-        <v>15.00776393179809</v>
+        <v>17.09931183542296</v>
       </c>
       <c r="AV22" t="n">
-        <v>10.13388470745883</v>
+        <v>17.48136001560828</v>
       </c>
       <c r="AW22" t="n">
-        <v>20.95637780433061</v>
+        <v>6.509354535317572</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.888034318943978</v>
+        <v>8.752496689408774</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>9.3251945972372</v>
+        <v>4.55614782564041</v>
       </c>
       <c r="D23" t="n">
-        <v>17.84600197571594</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.185490579750351</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.561882327959794</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>27.72651974198356</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.78728954168682</v>
+        <v>14.22539416247143</v>
       </c>
       <c r="I23" t="n">
-        <v>3.499392011019109</v>
+        <v>25.26388698657288</v>
       </c>
       <c r="J23" t="n">
-        <v>19.36751652725437</v>
+        <v>58.57336216711655</v>
       </c>
       <c r="K23" t="n">
-        <v>17.04961200868376</v>
+        <v>33.17508507008951</v>
       </c>
       <c r="L23" t="n">
-        <v>30.85510812026567</v>
+        <v>13.04297764193924</v>
       </c>
       <c r="M23" t="n">
-        <v>37.38036406592764</v>
+        <v>32.74307770077574</v>
       </c>
       <c r="N23" t="n">
-        <v>8.368960154160781</v>
+        <v>62.56107908307644</v>
       </c>
       <c r="O23" t="n">
-        <v>63.39021736350078</v>
+        <v>27.05578318377479</v>
       </c>
       <c r="P23" t="n">
-        <v>44.3053012439438</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.25755313729649</v>
+        <v>51.86053154599634</v>
       </c>
       <c r="R23" t="n">
-        <v>86.06208924947214</v>
+        <v>1.899489997736907</v>
       </c>
       <c r="S23" t="n">
-        <v>20.08089559296643</v>
+        <v>170.661573806053</v>
       </c>
       <c r="T23" t="n">
-        <v>56.81646644882464</v>
+        <v>24.32870807018822</v>
       </c>
       <c r="U23" t="n">
-        <v>49.71677589450354</v>
+        <v>49.8682642085615</v>
       </c>
       <c r="V23" t="n">
-        <v>35.75466002174158</v>
+        <v>49.49278881133318</v>
       </c>
       <c r="W23" t="n">
-        <v>33.91329198143491</v>
+        <v>37.14490701594755</v>
       </c>
       <c r="X23" t="n">
-        <v>129.8548366293849</v>
+        <v>40.74773548179753</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.97369864080317</v>
+        <v>49.99746900628862</v>
       </c>
       <c r="Z23" t="n">
-        <v>54.1943104629843</v>
+        <v>110.9245034456083</v>
       </c>
       <c r="AA23" t="n">
-        <v>109.2430749363001</v>
+        <v>45.35133778883609</v>
       </c>
       <c r="AB23" t="n">
-        <v>49.33855885173846</v>
+        <v>34.61918448368473</v>
       </c>
       <c r="AC23" t="n">
-        <v>80.5412764948284</v>
+        <v>34.67957912695014</v>
       </c>
       <c r="AD23" t="n">
-        <v>61.82795138353865</v>
+        <v>59.90676349227741</v>
       </c>
       <c r="AE23" t="n">
-        <v>29.16545405745627</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>57.17549864855322</v>
+        <v>0.8685129176080337</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.648595537711284</v>
+        <v>12.05760169197755</v>
       </c>
       <c r="AH23" t="n">
-        <v>24.13546918773372</v>
+        <v>29.61012258785502</v>
       </c>
       <c r="AI23" t="n">
-        <v>54.07654414095228</v>
+        <v>29.24558421176047</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3.670981811988169</v>
+        <v>40.63899511090418</v>
       </c>
       <c r="AK23" t="n">
-        <v>44.75596257055226</v>
+        <v>8.590916732679936</v>
       </c>
       <c r="AL23" t="n">
-        <v>20.65711273510546</v>
+        <v>28.80961062505023</v>
       </c>
       <c r="AM23" t="n">
-        <v>46.93002646240195</v>
+        <v>26.52905856799822</v>
       </c>
       <c r="AN23" t="n">
-        <v>20.51096457333903</v>
+        <v>24.59719363867441</v>
       </c>
       <c r="AO23" t="n">
-        <v>62.48507276430073</v>
+        <v>23.48884508147848</v>
       </c>
       <c r="AP23" t="n">
-        <v>31.34672996581398</v>
+        <v>26.7750629739717</v>
       </c>
       <c r="AQ23" t="n">
-        <v>36.89651595348902</v>
+        <v>30.33539634604293</v>
       </c>
       <c r="AR23" t="n">
-        <v>54.82303993594915</v>
+        <v>28.81924709710825</v>
       </c>
       <c r="AS23" t="n">
-        <v>26.56489837103123</v>
+        <v>21.97545151328372</v>
       </c>
       <c r="AT23" t="n">
-        <v>73.14741993959474</v>
+        <v>41.1171092185737</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.676017361565389</v>
+        <v>31.29618563429286</v>
       </c>
       <c r="AV23" t="n">
-        <v>38.32595832998211</v>
+        <v>36.91121127675532</v>
       </c>
       <c r="AW23" t="n">
-        <v>8.67510561803749</v>
+        <v>11.71014884636371</v>
       </c>
       <c r="AX23" t="n">
-        <v>20.6165800680358</v>
+        <v>24.3431524924907</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.732446579252974</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.893227941390818</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.314698781213719</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.402360505967994</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.054877938924195</v>
+        <v>17.72407446942438</v>
       </c>
       <c r="H24" t="n">
-        <v>5.858570771811626</v>
+        <v>26.03382245370164</v>
       </c>
       <c r="I24" t="n">
-        <v>1.5813671357047</v>
+        <v>10.85270617538218</v>
       </c>
       <c r="J24" t="n">
-        <v>3.297292276730497</v>
+        <v>32.34330638286218</v>
       </c>
       <c r="K24" t="n">
-        <v>20.73759977928134</v>
+        <v>22.76647302775862</v>
       </c>
       <c r="L24" t="n">
-        <v>7.829483904907467</v>
+        <v>35.31217703583383</v>
       </c>
       <c r="M24" t="n">
-        <v>5.18233546545942</v>
+        <v>0.3634365184308939</v>
       </c>
       <c r="N24" t="n">
-        <v>47.1187835097581</v>
+        <v>27.10359064309166</v>
       </c>
       <c r="O24" t="n">
-        <v>15.37481990553418</v>
+        <v>24.87835894165585</v>
       </c>
       <c r="P24" t="n">
-        <v>9.843844516936803</v>
+        <v>31.53474897610369</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.655585190977214</v>
+        <v>37.21932418876139</v>
       </c>
       <c r="R24" t="n">
-        <v>46.22681765831427</v>
+        <v>8.221566880522843</v>
       </c>
       <c r="S24" t="n">
-        <v>11.60829875140027</v>
+        <v>32.91339567572127</v>
       </c>
       <c r="T24" t="n">
-        <v>49.58919732226424</v>
+        <v>9.389962012030976</v>
       </c>
       <c r="U24" t="n">
-        <v>14.93997778834904</v>
+        <v>21.00606739565907</v>
       </c>
       <c r="V24" t="n">
-        <v>46.70441941099068</v>
+        <v>27.59591292339657</v>
       </c>
       <c r="W24" t="n">
-        <v>6.290755679415399</v>
+        <v>29.76464705930553</v>
       </c>
       <c r="X24" t="n">
-        <v>14.34032572433449</v>
+        <v>15.61115326613645</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.76963240459251</v>
+        <v>31.96722774610589</v>
       </c>
       <c r="Z24" t="n">
-        <v>52.34831881499797</v>
+        <v>12.73423535589824</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.673898900593358</v>
+        <v>36.77385746923263</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.68173068781796</v>
+        <v>23.50156169896764</v>
       </c>
       <c r="AC24" t="n">
-        <v>38.81751659225409</v>
+        <v>16.52320962293955</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.4920930490791</v>
+        <v>14.04200986230012</v>
       </c>
       <c r="AE24" t="n">
-        <v>20.63428695618365</v>
+        <v>12.59732053748162</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.84150591005149</v>
+        <v>17.97456943476316</v>
       </c>
       <c r="AG24" t="n">
-        <v>24.29686965660104</v>
+        <v>13.91447265148596</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.81821138851832</v>
+        <v>16.25504660861593</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.875075993552533</v>
+        <v>6.467144228261201</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13.12653084085233</v>
+        <v>11.57277327535928</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.10011260564928</v>
+        <v>4.089255340087828</v>
       </c>
       <c r="AL24" t="n">
-        <v>5.035164730158735</v>
+        <v>3.672218961870783</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.11561162086359</v>
+        <v>5.342738303203838</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.54664168358177</v>
+        <v>3.583897793131452</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.324727039683008</v>
+        <v>6.107601197390012</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.592839028991548</v>
+        <v>2.19263067416003</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.671183795539749</v>
+        <v>1.809175516268104</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.459592919987858</v>
+        <v>2.101598847207002</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.730333971310241</v>
+        <v>0.08745850916342945</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.380726702680415</v>
+        <v>2.421473328521309</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.76611493296713</v>
+        <v>0.6936332710445611</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.279025733332856</v>
+        <v>3.332859756091334</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.7591359971534521</v>
+        <v>0.4991119593475279</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.046660140321308</v>
+        <v>3.58160607245731</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>2.188422783617125</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.246149052928107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.285532703237624</v>
+        <v>9.421919597192275</v>
       </c>
       <c r="F25" t="n">
-        <v>90.99103421081209</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.96692027342408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>9.838736051198627</v>
+        <v>9.577034375233779</v>
       </c>
       <c r="I25" t="n">
-        <v>4.803464533984747</v>
+        <v>40.14478077320521</v>
       </c>
       <c r="J25" t="n">
-        <v>5.884373205738317</v>
+        <v>5.080871899480419</v>
       </c>
       <c r="K25" t="n">
-        <v>16.22649804054258</v>
+        <v>6.191046572028462</v>
       </c>
       <c r="L25" t="n">
-        <v>24.90075337982238</v>
+        <v>47.41081329857339</v>
       </c>
       <c r="M25" t="n">
-        <v>52.38037454785106</v>
+        <v>23.95243562503926</v>
       </c>
       <c r="N25" t="n">
-        <v>27.96660088761706</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>38.83196598037262</v>
+        <v>31.37381934909297</v>
       </c>
       <c r="P25" t="n">
-        <v>41.86766516787549</v>
+        <v>22.43892096886301</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.539868444754638</v>
+        <v>23.37981271622772</v>
       </c>
       <c r="R25" t="n">
-        <v>95.43898037911843</v>
+        <v>49.90932767321458</v>
       </c>
       <c r="S25" t="n">
-        <v>22.90855456470238</v>
+        <v>79.23143123414928</v>
       </c>
       <c r="T25" t="n">
-        <v>25.67468195448193</v>
+        <v>15.52703078801498</v>
       </c>
       <c r="U25" t="n">
-        <v>14.59008928032335</v>
+        <v>30.14475782002501</v>
       </c>
       <c r="V25" t="n">
-        <v>13.03985597424158</v>
+        <v>43.19919390084564</v>
       </c>
       <c r="W25" t="n">
-        <v>17.95033636422228</v>
+        <v>87.24522024408201</v>
       </c>
       <c r="X25" t="n">
-        <v>36.22694027767641</v>
+        <v>28.68320300228827</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.1276993744106</v>
+        <v>6.867404686517491</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.898859919550718</v>
+        <v>44.76112105770252</v>
       </c>
       <c r="AA25" t="n">
-        <v>23.81046392791574</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.681299189040272</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.75667832003966</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.28638617006139</v>
+        <v>75.77211030022336</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.932664257057632</v>
+        <v>9.090073103797994</v>
       </c>
       <c r="AF25" t="n">
-        <v>73.44629560552607</v>
+        <v>4.856239595901471</v>
       </c>
       <c r="AG25" t="n">
-        <v>5.820727220117706</v>
+        <v>2.096217140468528</v>
       </c>
       <c r="AH25" t="n">
-        <v>34.52570409022616</v>
+        <v>11.82683092142442</v>
       </c>
       <c r="AI25" t="n">
-        <v>17.75304427374207</v>
+        <v>6.443537995260333</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10.34420497245601</v>
+        <v>17.16927060855731</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.262596020384683</v>
+        <v>0.8767541623505081</v>
       </c>
       <c r="AL25" t="n">
-        <v>2.77313280033607</v>
+        <v>10.27497308420619</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.05606068833297</v>
+        <v>1.109016346789889</v>
       </c>
       <c r="AN25" t="n">
-        <v>1.658385655773978</v>
+        <v>21.71332634888906</v>
       </c>
       <c r="AO25" t="n">
-        <v>20.63857485813115</v>
+        <v>11.19583910022751</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.321228527407873</v>
+        <v>3.247251441747112</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10.11571421075815</v>
+        <v>0.4243661586387308</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.83289939904715</v>
+        <v>3.131108760221127</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.409001235032182</v>
+        <v>4.865481061828121</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.14077523972025</v>
+        <v>3.086123454250403</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.449211435149869</v>
+        <v>14.1720547024528</v>
       </c>
       <c r="AV25" t="n">
-        <v>5.433005056653054</v>
+        <v>3.728444783989632</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.957906676481913</v>
+        <v>8.800376560820967</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.388860738113308</v>
+        <v>14.39309055182458</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>19.97073253953515</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>18.6726566690292</v>
+        <v>18.79824408444231</v>
       </c>
       <c r="E26" t="n">
-        <v>14.13522780870802</v>
+        <v>27.64372121653141</v>
       </c>
       <c r="F26" t="n">
-        <v>16.03057071797332</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>26.55053382852548</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>45.82480359180663</v>
+        <v>36.46533987913173</v>
       </c>
       <c r="I26" t="n">
-        <v>334.2404852669694</v>
+        <v>40.35608287494451</v>
       </c>
       <c r="J26" t="n">
-        <v>16.47333101932261</v>
+        <v>2.991400683920066</v>
       </c>
       <c r="K26" t="n">
-        <v>74.38369596808978</v>
+        <v>202.5673781561866</v>
       </c>
       <c r="L26" t="n">
-        <v>33.61122422830373</v>
+        <v>198.9631615041582</v>
       </c>
       <c r="M26" t="n">
-        <v>86.26327693345753</v>
+        <v>106.3642350537205</v>
       </c>
       <c r="N26" t="n">
-        <v>43.28673788361347</v>
+        <v>25.98880655810405</v>
       </c>
       <c r="O26" t="n">
-        <v>92.06511432845753</v>
+        <v>43.85962881962775</v>
       </c>
       <c r="P26" t="n">
-        <v>87.6292636653731</v>
+        <v>48.0573073368074</v>
       </c>
       <c r="Q26" t="n">
-        <v>42.46561797847089</v>
+        <v>93.25726161558674</v>
       </c>
       <c r="R26" t="n">
-        <v>62.26841762880292</v>
+        <v>28.97240833966653</v>
       </c>
       <c r="S26" t="n">
-        <v>23.32115160426742</v>
+        <v>54.4289759584782</v>
       </c>
       <c r="T26" t="n">
-        <v>54.04904247271389</v>
+        <v>44.70299959320383</v>
       </c>
       <c r="U26" t="n">
-        <v>44.33202548381659</v>
+        <v>44.65114130533084</v>
       </c>
       <c r="V26" t="n">
-        <v>57.59204311317946</v>
+        <v>17.1551322546212</v>
       </c>
       <c r="W26" t="n">
-        <v>62.08384174590885</v>
+        <v>41.18272466143242</v>
       </c>
       <c r="X26" t="n">
-        <v>112.7662491551596</v>
+        <v>28.66949218183585</v>
       </c>
       <c r="Y26" t="n">
-        <v>48.05235309840258</v>
+        <v>49.25317953476556</v>
       </c>
       <c r="Z26" t="n">
-        <v>58.89149038959443</v>
+        <v>67.86152157538969</v>
       </c>
       <c r="AA26" t="n">
-        <v>84.55540398339633</v>
+        <v>110.0351719341095</v>
       </c>
       <c r="AB26" t="n">
-        <v>63.62031610574182</v>
+        <v>104.6993939965234</v>
       </c>
       <c r="AC26" t="n">
-        <v>83.45558890240292</v>
+        <v>106.3265979333005</v>
       </c>
       <c r="AD26" t="n">
-        <v>262.3218834435668</v>
+        <v>150.6857929048559</v>
       </c>
       <c r="AE26" t="n">
-        <v>177.6116057473572</v>
+        <v>179.6024935872296</v>
       </c>
       <c r="AF26" t="n">
-        <v>171.6858535028034</v>
+        <v>127.1040734471686</v>
       </c>
       <c r="AG26" t="n">
-        <v>124.0711300204513</v>
+        <v>116.7330938952494</v>
       </c>
       <c r="AH26" t="n">
-        <v>73.59037520042902</v>
+        <v>131.0972211166897</v>
       </c>
       <c r="AI26" t="n">
-        <v>39.03725915824231</v>
+        <v>124.0409906548824</v>
       </c>
       <c r="AJ26" t="n">
-        <v>49.55582043029344</v>
+        <v>20.53666856718272</v>
       </c>
       <c r="AK26" t="n">
-        <v>69.74329109927352</v>
+        <v>51.56673517557337</v>
       </c>
       <c r="AL26" t="n">
-        <v>30.62438204601568</v>
+        <v>31.52654262914659</v>
       </c>
       <c r="AM26" t="n">
-        <v>31.92708051296217</v>
+        <v>22.78447299020561</v>
       </c>
       <c r="AN26" t="n">
-        <v>73.21373565892414</v>
+        <v>31.34766387243757</v>
       </c>
       <c r="AO26" t="n">
-        <v>11.02936159237256</v>
+        <v>22.85283210238232</v>
       </c>
       <c r="AP26" t="n">
-        <v>29.82043790015848</v>
+        <v>30.39956705038665</v>
       </c>
       <c r="AQ26" t="n">
-        <v>48.99158758452163</v>
+        <v>30.07421485529502</v>
       </c>
       <c r="AR26" t="n">
-        <v>50.82841757071515</v>
+        <v>12.80003448939427</v>
       </c>
       <c r="AS26" t="n">
-        <v>20.81708662347321</v>
+        <v>21.85860420518392</v>
       </c>
       <c r="AT26" t="n">
-        <v>19.53360068270449</v>
+        <v>19.60372216188192</v>
       </c>
       <c r="AU26" t="n">
-        <v>15.35069036574656</v>
+        <v>12.00976322045402</v>
       </c>
       <c r="AV26" t="n">
-        <v>24.19687622560738</v>
+        <v>14.19535463638019</v>
       </c>
       <c r="AW26" t="n">
-        <v>21.27716038196702</v>
+        <v>27.49570906245691</v>
       </c>
       <c r="AX26" t="n">
-        <v>18.2271982247389</v>
+        <v>14.07272117614226</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6491907685056273</v>
+        <v>3.289583893203408</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8713568251273776</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>26.38569956813889</v>
+        <v>1.38593789425533</v>
       </c>
       <c r="F27" t="n">
-        <v>2.935479896660689</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7531650674868776</v>
+        <v>2.237776327204112</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3855346099218893</v>
+        <v>2.53534357125513</v>
       </c>
       <c r="I27" t="n">
-        <v>21.54953948303658</v>
+        <v>2.756818194533927</v>
       </c>
       <c r="J27" t="n">
-        <v>6.944008428134879</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.538944879950254</v>
+        <v>7.760000126054474</v>
       </c>
       <c r="L27" t="n">
-        <v>2.738965237899672</v>
+        <v>9.864567595264319</v>
       </c>
       <c r="M27" t="n">
-        <v>2.297495289799425</v>
+        <v>5.312316209423611</v>
       </c>
       <c r="N27" t="n">
-        <v>1.104492093042016</v>
+        <v>2.01809427615342</v>
       </c>
       <c r="O27" t="n">
-        <v>1.328963575021868</v>
+        <v>13.36520450404111</v>
       </c>
       <c r="P27" t="n">
-        <v>7.179387093243898</v>
+        <v>1.97781762634969</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.164358930239962</v>
+        <v>2.100377480813807</v>
       </c>
       <c r="R27" t="n">
-        <v>5.894451785422891</v>
+        <v>0.8657804074813529</v>
       </c>
       <c r="S27" t="n">
-        <v>3.7177172031064</v>
+        <v>2.456563690148503</v>
       </c>
       <c r="T27" t="n">
-        <v>6.170896777753366</v>
+        <v>6.923631120255774</v>
       </c>
       <c r="U27" t="n">
-        <v>1.601885064791926</v>
+        <v>9.937861571918615</v>
       </c>
       <c r="V27" t="n">
-        <v>2.823384984648499</v>
+        <v>6.709120734962464</v>
       </c>
       <c r="W27" t="n">
-        <v>2.835437528378988</v>
+        <v>3.224942353448035</v>
       </c>
       <c r="X27" t="n">
-        <v>11.126474098647</v>
+        <v>3.840792302062514</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.919874227038766</v>
+        <v>6.223593530286176</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.302996543585643</v>
+        <v>3.543475065170647</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.916203363599426</v>
+        <v>5.065545749103128</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.595165800995607</v>
+        <v>6.570374158308804</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.706748361961817</v>
+        <v>7.016692514616518</v>
       </c>
       <c r="AD27" t="n">
-        <v>4.90258167345446</v>
+        <v>3.063926316474584</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.022868327817037</v>
+        <v>7.757374100874057</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.391188412703314</v>
+        <v>5.013856817437722</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.386420414028125</v>
+        <v>7.752781886756755</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.765232963396779</v>
+        <v>2.604563222487135</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.321018904751404</v>
+        <v>11.68481748658769</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7.280494222076642</v>
+        <v>6.304508297769483</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.398157566891198</v>
+        <v>4.140664797267879</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.386063335753042</v>
+        <v>6.230501524478088</v>
       </c>
       <c r="AM27" t="n">
-        <v>2.345068555473975</v>
+        <v>4.781835803299483</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.778334798510871</v>
+        <v>5.277032801867713</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.624957124349319</v>
+        <v>4.282935192946118</v>
       </c>
       <c r="AP27" t="n">
-        <v>7.36005408344674</v>
+        <v>5.599371032566612</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15.68616820737492</v>
+        <v>4.523497201418086</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.024054879630161</v>
+        <v>3.472115304333838</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.427454547271838</v>
+        <v>1.445922131619931</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.165034132894975</v>
+        <v>2.160728158273178</v>
       </c>
       <c r="AU27" t="n">
-        <v>13.23674376801627</v>
+        <v>3.626655214633389</v>
       </c>
       <c r="AV27" t="n">
-        <v>9.776434372619356</v>
+        <v>2.92493157510232</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.148785506121802</v>
+        <v>3.927214951125138</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.517318487971569</v>
+        <v>3.086280464032786</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>10.56935859348736</v>
+        <v>9.947596003081348</v>
       </c>
       <c r="D28" t="n">
-        <v>12.15445141520941</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>10.71095659666863</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.689855914091826</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.515568315433871</v>
+        <v>91.20083548951774</v>
       </c>
       <c r="H28" t="n">
-        <v>43.12917103262861</v>
+        <v>0.2146285045026364</v>
       </c>
       <c r="I28" t="n">
-        <v>20.91853119880351</v>
+        <v>157.3845302524756</v>
       </c>
       <c r="J28" t="n">
-        <v>59.92249240507216</v>
+        <v>56.48280587563128</v>
       </c>
       <c r="K28" t="n">
-        <v>144.2300549248144</v>
+        <v>7.682545002711036</v>
       </c>
       <c r="L28" t="n">
-        <v>18.94873988601854</v>
+        <v>32.28971715514722</v>
       </c>
       <c r="M28" t="n">
-        <v>58.30628734824614</v>
+        <v>134.2284272266409</v>
       </c>
       <c r="N28" t="n">
-        <v>124.5765985243342</v>
+        <v>48.32907016738874</v>
       </c>
       <c r="O28" t="n">
-        <v>100.9927225351309</v>
+        <v>102.4323067133602</v>
       </c>
       <c r="P28" t="n">
-        <v>182.9151128697188</v>
+        <v>162.4164699249672</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.1784353161234</v>
+        <v>110.4766458650814</v>
       </c>
       <c r="R28" t="n">
-        <v>58.44821660514905</v>
+        <v>75.94892632347509</v>
       </c>
       <c r="S28" t="n">
-        <v>37.218536717599</v>
+        <v>58.39227673210326</v>
       </c>
       <c r="T28" t="n">
-        <v>70.04331002241275</v>
+        <v>58.94377140616987</v>
       </c>
       <c r="U28" t="n">
-        <v>69.80675844265288</v>
+        <v>43.93301523471838</v>
       </c>
       <c r="V28" t="n">
-        <v>26.81291582883855</v>
+        <v>31.38954611914827</v>
       </c>
       <c r="W28" t="n">
-        <v>42.24928439855541</v>
+        <v>41.02045304538768</v>
       </c>
       <c r="X28" t="n">
-        <v>22.0487593900281</v>
+        <v>53.15175451113662</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.3582756250729</v>
+        <v>112.1127497716358</v>
       </c>
       <c r="Z28" t="n">
-        <v>44.22530271465532</v>
+        <v>63.58218116577687</v>
       </c>
       <c r="AA28" t="n">
-        <v>54.09359153964901</v>
+        <v>48.10893958531756</v>
       </c>
       <c r="AB28" t="n">
-        <v>76.30893191891661</v>
+        <v>79.4026355295936</v>
       </c>
       <c r="AC28" t="n">
-        <v>65.9869517318579</v>
+        <v>103.2979234681311</v>
       </c>
       <c r="AD28" t="n">
-        <v>38.60081554056269</v>
+        <v>105.0490216193105</v>
       </c>
       <c r="AE28" t="n">
-        <v>55.46292936805182</v>
+        <v>63.95255327074862</v>
       </c>
       <c r="AF28" t="n">
-        <v>79.3756467481318</v>
+        <v>36.91888188720043</v>
       </c>
       <c r="AG28" t="n">
-        <v>50.20547967146133</v>
+        <v>54.052542703718</v>
       </c>
       <c r="AH28" t="n">
-        <v>52.46387922321307</v>
+        <v>78.10111831876135</v>
       </c>
       <c r="AI28" t="n">
-        <v>31.31760526872142</v>
+        <v>38.70006143206864</v>
       </c>
       <c r="AJ28" t="n">
-        <v>96.57746147556645</v>
+        <v>38.58968003647462</v>
       </c>
       <c r="AK28" t="n">
-        <v>30.80439783591734</v>
+        <v>14.45811092106867</v>
       </c>
       <c r="AL28" t="n">
-        <v>90.95293763592771</v>
+        <v>15.74587438668862</v>
       </c>
       <c r="AM28" t="n">
-        <v>27.89647940607323</v>
+        <v>24.0963357883703</v>
       </c>
       <c r="AN28" t="n">
-        <v>22.63907034424315</v>
+        <v>29.74658499913892</v>
       </c>
       <c r="AO28" t="n">
-        <v>26.64381710447812</v>
+        <v>13.46577073700981</v>
       </c>
       <c r="AP28" t="n">
-        <v>36.00477257578089</v>
+        <v>5.167865940653022</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10.43078465328105</v>
+        <v>15.39749219680522</v>
       </c>
       <c r="AR28" t="n">
-        <v>6.194944968376103</v>
+        <v>10.40950886957591</v>
       </c>
       <c r="AS28" t="n">
-        <v>8.85151555851065</v>
+        <v>13.89838852295462</v>
       </c>
       <c r="AT28" t="n">
-        <v>15.01444350743763</v>
+        <v>11.50789056199782</v>
       </c>
       <c r="AU28" t="n">
-        <v>14.17818975074379</v>
+        <v>60.27819097278483</v>
       </c>
       <c r="AV28" t="n">
-        <v>7.08284465736825</v>
+        <v>7.739314700316857</v>
       </c>
       <c r="AW28" t="n">
-        <v>13.54271998649269</v>
+        <v>9.460419430167185</v>
       </c>
       <c r="AX28" t="n">
-        <v>12.31324391804654</v>
+        <v>8.880033249460343</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>25.7426526509494</v>
+        <v>27.67559115754569</v>
       </c>
       <c r="D29" t="n">
-        <v>39.41701057848312</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>41.93487053461882</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.034225735521422</v>
+        <v>29.37983847976711</v>
       </c>
       <c r="G29" t="n">
-        <v>154.1042595037222</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>17.56777601191592</v>
+        <v>20.75966515457739</v>
       </c>
       <c r="I29" t="n">
-        <v>16.25428283048806</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>12.94196635184229</v>
+        <v>2.140342972225186</v>
       </c>
       <c r="K29" t="n">
-        <v>35.18320483637731</v>
+        <v>38.13463048041834</v>
       </c>
       <c r="L29" t="n">
-        <v>6.493255615793033</v>
+        <v>20.11399505261921</v>
       </c>
       <c r="M29" t="n">
-        <v>14.26931530887687</v>
+        <v>38.01759758950561</v>
       </c>
       <c r="N29" t="n">
-        <v>153.7304610301933</v>
+        <v>31.44437029179802</v>
       </c>
       <c r="O29" t="n">
-        <v>48.40129872694529</v>
+        <v>16.42210510932391</v>
       </c>
       <c r="P29" t="n">
-        <v>63.28935617156981</v>
+        <v>80.46981933948496</v>
       </c>
       <c r="Q29" t="n">
-        <v>19.83787306701273</v>
+        <v>30.47047137396746</v>
       </c>
       <c r="R29" t="n">
-        <v>60.40818789089192</v>
+        <v>116.0055531334128</v>
       </c>
       <c r="S29" t="n">
-        <v>45.3269515449977</v>
+        <v>46.82230690244595</v>
       </c>
       <c r="T29" t="n">
-        <v>172.785563508755</v>
+        <v>27.45893702907417</v>
       </c>
       <c r="U29" t="n">
-        <v>25.59748713150774</v>
+        <v>87.49412553634727</v>
       </c>
       <c r="V29" t="n">
-        <v>19.20921489538527</v>
+        <v>10.67184734583662</v>
       </c>
       <c r="W29" t="n">
-        <v>29.38170151617384</v>
+        <v>37.72396313573419</v>
       </c>
       <c r="X29" t="n">
-        <v>60.63469607705038</v>
+        <v>54.07609221576583</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.41525328768011</v>
+        <v>44.78978593761997</v>
       </c>
       <c r="Z29" t="n">
-        <v>82.36760912395086</v>
+        <v>26.68020857993091</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.54795360317412</v>
+        <v>14.60916056179564</v>
       </c>
       <c r="AB29" t="n">
-        <v>41.5546220750463</v>
+        <v>69.03514509285404</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.326651597698595</v>
+        <v>18.87295748649585</v>
       </c>
       <c r="AD29" t="n">
-        <v>95.18220565541101</v>
+        <v>21.37943948278215</v>
       </c>
       <c r="AE29" t="n">
-        <v>23.36871775260743</v>
+        <v>39.70781381644683</v>
       </c>
       <c r="AF29" t="n">
-        <v>6.955662557651129</v>
+        <v>11.07265981781246</v>
       </c>
       <c r="AG29" t="n">
-        <v>20.59253683256258</v>
+        <v>33.85180557482751</v>
       </c>
       <c r="AH29" t="n">
-        <v>85.25890743483892</v>
+        <v>44.1902207005931</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.784732813823137</v>
+        <v>6.811591373772766</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11.72392586286974</v>
+        <v>74.30651806259861</v>
       </c>
       <c r="AK29" t="n">
-        <v>7.417823205627195</v>
+        <v>54.73367532326925</v>
       </c>
       <c r="AL29" t="n">
-        <v>25.18097651419061</v>
+        <v>22.70676824398583</v>
       </c>
       <c r="AM29" t="n">
-        <v>50.0579621309538</v>
+        <v>48.97282662458097</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.930801846117436</v>
+        <v>45.51752799722097</v>
       </c>
       <c r="AO29" t="n">
-        <v>20.22981119451222</v>
+        <v>20.30294277717026</v>
       </c>
       <c r="AP29" t="n">
-        <v>8.56310831772119</v>
+        <v>6.658355992892526</v>
       </c>
       <c r="AQ29" t="n">
-        <v>60.85991622463745</v>
+        <v>45.7531048158063</v>
       </c>
       <c r="AR29" t="n">
-        <v>43.0073315117551</v>
+        <v>27.88846551472202</v>
       </c>
       <c r="AS29" t="n">
-        <v>13.99704668778323</v>
+        <v>6.934078199487071</v>
       </c>
       <c r="AT29" t="n">
-        <v>20.85846546320623</v>
+        <v>9.087279091303758</v>
       </c>
       <c r="AU29" t="n">
-        <v>51.81728902189903</v>
+        <v>26.27636202479532</v>
       </c>
       <c r="AV29" t="n">
-        <v>108.4096313155072</v>
+        <v>1.726137560908707</v>
       </c>
       <c r="AW29" t="n">
-        <v>227.4976734746033</v>
+        <v>23.6627369885184</v>
       </c>
       <c r="AX29" t="n">
-        <v>20.07163461777188</v>
+        <v>24.2837613966685</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.080535947004789</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.465913620387107</v>
+        <v>12.8086004647132</v>
       </c>
       <c r="E30" t="n">
-        <v>1.915098684005601</v>
+        <v>3.073566459310224</v>
       </c>
       <c r="F30" t="n">
-        <v>9.325912169473282</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>8.126876627480826</v>
+        <v>14.55478744375424</v>
       </c>
       <c r="H30" t="n">
-        <v>3.715232194560478</v>
+        <v>6.986359148851772</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85154042619632</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.58280190778374</v>
+        <v>79.54509812009076</v>
       </c>
       <c r="K30" t="n">
-        <v>6.832277956253931</v>
+        <v>30.05519112085989</v>
       </c>
       <c r="L30" t="n">
-        <v>23.08025563964474</v>
+        <v>117.9690928128515</v>
       </c>
       <c r="M30" t="n">
-        <v>18.55862763838255</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>10.24789092361827</v>
+        <v>28.43521613556784</v>
       </c>
       <c r="O30" t="n">
-        <v>20.54091286885534</v>
+        <v>23.70404620373235</v>
       </c>
       <c r="P30" t="n">
-        <v>20.39756168354664</v>
+        <v>7.393852102206488</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.0171907904731</v>
+        <v>14.53525570644683</v>
       </c>
       <c r="R30" t="n">
-        <v>21.44521584454956</v>
+        <v>6.996286969910186</v>
       </c>
       <c r="S30" t="n">
-        <v>11.99202605431248</v>
+        <v>59.84934458391688</v>
       </c>
       <c r="T30" t="n">
-        <v>7.211228343232579</v>
+        <v>23.42184899407444</v>
       </c>
       <c r="U30" t="n">
-        <v>24.40398384286243</v>
+        <v>35.77547147103867</v>
       </c>
       <c r="V30" t="n">
-        <v>21.30985932341644</v>
+        <v>15.9505448422686</v>
       </c>
       <c r="W30" t="n">
-        <v>9.909379211013093</v>
+        <v>27.98614643400834</v>
       </c>
       <c r="X30" t="n">
-        <v>36.57131476159731</v>
+        <v>35.80833907713601</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.09500513050074</v>
+        <v>23.07655881570144</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.06720130747483</v>
+        <v>39.17751911036174</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.326891935966675</v>
+        <v>19.9856768915664</v>
       </c>
       <c r="AB30" t="n">
-        <v>25.6835365154621</v>
+        <v>12.5479241180483</v>
       </c>
       <c r="AC30" t="n">
-        <v>31.92801724794501</v>
+        <v>25.64687653727123</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.00128875745513</v>
+        <v>17.76769579308056</v>
       </c>
       <c r="AE30" t="n">
-        <v>29.23721693098881</v>
+        <v>21.62422390293301</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.465311591025085</v>
+        <v>12.31386586633151</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.25092416675591</v>
+        <v>17.71158785079793</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.228953221254271</v>
+        <v>5.860530508486891</v>
       </c>
       <c r="AI30" t="n">
-        <v>17.05648647867137</v>
+        <v>12.01004648170485</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13.50659189879764</v>
+        <v>23.04252555168379</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.683387584584119</v>
+        <v>4.893617259462566</v>
       </c>
       <c r="AL30" t="n">
-        <v>10.72028902269543</v>
+        <v>22.74489937936934</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.813639504376362</v>
+        <v>3.776589938886004</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.349916831799391</v>
+        <v>0.6020175339494487</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.115576647759608</v>
+        <v>3.657112133536981</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.217628412424855</v>
+        <v>5.939690057212599</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.255976948068603</v>
+        <v>1.866404025197069</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.011913578816607</v>
+        <v>5.665487821706808</v>
       </c>
       <c r="AS30" t="n">
-        <v>8.582812306882538</v>
+        <v>2.19802489709005</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.483221295449869</v>
+        <v>2.447636424417149</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.5490229523864556</v>
+        <v>1.242768132515917</v>
       </c>
       <c r="AV30" t="n">
-        <v>15.08382973224696</v>
+        <v>1.647063064397013</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.241402884448084</v>
+        <v>1.762383648499387</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.794025402486817</v>
+        <v>2.379038033894174</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>6.213807887156991</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.919455575729889</v>
+        <v>1.653706746429269</v>
       </c>
       <c r="E31" t="n">
-        <v>27.1749145212689</v>
+        <v>5.349088912700457</v>
       </c>
       <c r="F31" t="n">
-        <v>22.26386131828119</v>
+        <v>5.021723684270772</v>
       </c>
       <c r="G31" t="n">
-        <v>5.377939282670973</v>
+        <v>19.88215956545071</v>
       </c>
       <c r="H31" t="n">
-        <v>26.63291797594733</v>
+        <v>1.055289521894964</v>
       </c>
       <c r="I31" t="n">
-        <v>100.2109126941482</v>
+        <v>36.85741357433766</v>
       </c>
       <c r="J31" t="n">
-        <v>14.39887008940458</v>
+        <v>8.926090294237543</v>
       </c>
       <c r="K31" t="n">
-        <v>20.14241785861361</v>
+        <v>68.5479612475829</v>
       </c>
       <c r="L31" t="n">
-        <v>16.15257709780907</v>
+        <v>30.34200702535631</v>
       </c>
       <c r="M31" t="n">
-        <v>42.61261875524707</v>
+        <v>27.86141270525574</v>
       </c>
       <c r="N31" t="n">
-        <v>16.69492270977275</v>
+        <v>65.05568636213287</v>
       </c>
       <c r="O31" t="n">
-        <v>55.81091823646182</v>
+        <v>50.36172632979206</v>
       </c>
       <c r="P31" t="n">
-        <v>46.20205241369169</v>
+        <v>122.8411563670811</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.2582054252085</v>
+        <v>56.7741863093929</v>
       </c>
       <c r="R31" t="n">
-        <v>14.97571287494934</v>
+        <v>49.29206654258131</v>
       </c>
       <c r="S31" t="n">
-        <v>107.9294249780065</v>
+        <v>42.43952418128512</v>
       </c>
       <c r="T31" t="n">
-        <v>13.37989808858779</v>
+        <v>13.09603494141782</v>
       </c>
       <c r="U31" t="n">
-        <v>28.85675698427877</v>
+        <v>31.95416865499916</v>
       </c>
       <c r="V31" t="n">
-        <v>15.27975875011336</v>
+        <v>40.83189394020398</v>
       </c>
       <c r="W31" t="n">
-        <v>3.860141609619944</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>19.65108233317198</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.90014552872199</v>
+        <v>30.57559162298424</v>
       </c>
       <c r="Z31" t="n">
-        <v>44.96101933672956</v>
+        <v>5.567483918923124</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.25042467127421</v>
+        <v>1.437199043507317</v>
       </c>
       <c r="AB31" t="n">
-        <v>61.97925963055225</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.557061682830406</v>
+        <v>12.86822587069667</v>
       </c>
       <c r="AD31" t="n">
-        <v>53.87084264293053</v>
+        <v>15.87933758579255</v>
       </c>
       <c r="AE31" t="n">
-        <v>25.86903541009127</v>
+        <v>2.066950242888382</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.611670152607301</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.52230060474777</v>
+        <v>10.05201290405901</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.774556697723771</v>
+        <v>14.02008117799187</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.5285746729924199</v>
+        <v>37.36322574218281</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24.39163019156801</v>
+        <v>3.499292569716263</v>
       </c>
       <c r="AK31" t="n">
-        <v>35.05293009702913</v>
+        <v>4.813154748707065</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.613023585922196</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>9.655470684966145</v>
+        <v>7.697409967618448</v>
       </c>
       <c r="AN31" t="n">
-        <v>24.17625093479924</v>
+        <v>3.947452854193655</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.656996376892654</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.7457188891531406</v>
+        <v>22.81652146801472</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3.925139992876257</v>
+        <v>8.303304096920954</v>
       </c>
       <c r="AR31" t="n">
-        <v>6.096762934723099</v>
+        <v>12.38884464510839</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.859504910714646</v>
+        <v>4.779754141185252</v>
       </c>
       <c r="AT31" t="n">
-        <v>4.69874910885747</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>17.59742528992163</v>
+        <v>2.090322064763773</v>
       </c>
       <c r="AV31" t="n">
-        <v>4.955726180536376</v>
+        <v>8.054651126022415</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.819623195394806</v>
+        <v>5.952651771796862</v>
       </c>
       <c r="AX31" t="n">
-        <v>21.1055806455863</v>
+        <v>6.874695371320092</v>
       </c>
     </row>
   </sheetData>
